--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.191604263380188</v>
+        <v>-3.192923051258974</v>
       </c>
       <c r="G24">
         <v>-0.1825342528757381</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.232843384538902</v>
+        <v>-3.250416408440868</v>
       </c>
       <c r="G28">
         <v>-0.2423810826843655</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.239090655969919</v>
+        <v>-3.240817354621387</v>
       </c>
       <c r="G31">
         <v>-0.2625841356028182</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.230964588105464</v>
+        <v>-3.2344179854084</v>
       </c>
       <c r="G33">
         <v>-0.2637619220633205</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.218826769154746</v>
+        <v>-3.229491602150439</v>
       </c>
       <c r="G34">
         <v>-0.2562760302750808</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.20577431803233</v>
+        <v>-3.211078854540058</v>
       </c>
       <c r="G37">
         <v>-0.2571793606401009</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.19923275608337</v>
+        <v>-3.2079349299138</v>
       </c>
       <c r="G38">
         <v>-0.2552897258536189</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.196033071476876</v>
+        <v>-3.2065863845121</v>
       </c>
       <c r="G39">
         <v>-0.2567419684096039</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.191231128772241</v>
+        <v>-3.203386699905606</v>
       </c>
       <c r="G40">
         <v>-0.2565919528674474</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.163815902612707</v>
+        <v>-3.181253921702992</v>
       </c>
       <c r="G42">
         <v>-0.2384805810328701</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.164069615309148</v>
+        <v>-3.186880851480256</v>
       </c>
       <c r="G43">
         <v>-0.2433862208917892</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.162754741336875</v>
+        <v>-3.171298803184551</v>
       </c>
       <c r="G44">
         <v>-0.2467232740819951</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.159679497283708</v>
+        <v>-3.164803833257876</v>
       </c>
       <c r="G45">
         <v>-0.2482999571913065</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.149290465535266</v>
+        <v>-3.154753114025747</v>
       </c>
       <c r="G46">
         <v>-0.2425628526053425</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.137658239041563</v>
+        <v>-3.148100032116318</v>
       </c>
       <c r="G47">
         <v>-0.2355825532741189</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.134369123025409</v>
+        <v>-3.13965157098233</v>
       </c>
       <c r="G48">
         <v>-0.2369453644204433</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.118889426732224</v>
+        <v>-3.129442739767449</v>
       </c>
       <c r="G49">
         <v>-0.2261175952897367</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.11285045858636</v>
+        <v>-3.11624809590906</v>
       </c>
       <c r="G51">
         <v>-0.2293824814688292</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.102675298800904</v>
+        <v>-3.106017176143371</v>
       </c>
       <c r="G52">
         <v>-0.2238592488458515</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.08093659309484</v>
+        <v>-3.088635449549235</v>
       </c>
       <c r="G54">
         <v>-0.2114243974647446</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.067205684003931</v>
+        <v>-3.074125399202658</v>
       </c>
       <c r="G55">
         <v>-0.202345415536314</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.058881663423268</v>
+        <v>-3.072721093820725</v>
       </c>
       <c r="G56">
         <v>-0.1986733221181298</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.041911228992412</v>
+        <v>-3.050557642842608</v>
       </c>
       <c r="G57">
         <v>-0.1863548148497524</v>
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-3.282996483811955</v>
+        <v>-3.285972400894483</v>
       </c>
       <c r="G75">
         <v>-0.02467310000754264</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-3.289854535929309</v>
+        <v>-3.29034795996559</v>
       </c>
       <c r="G76">
         <v>-0.03339601500128442</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.294230095000415</v>
+        <v>-3.300675353201753</v>
       </c>
       <c r="G77">
         <v>-0.03963643694877916</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.302074995190333</v>
+        <v>-3.308026829355387</v>
       </c>
       <c r="G78">
         <v>-0.04934620001508483</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.297595059151127</v>
+        <v>-3.311415540353932</v>
       </c>
       <c r="G79">
         <v>-0.04673112685226766</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.316203893341057</v>
+        <v>-3.316697317377337</v>
       </c>
       <c r="G81">
         <v>-0.06906968679497361</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.317801976545244</v>
+        <v>-3.326944080493237</v>
       </c>
       <c r="G83">
         <v>-0.07439749575193755</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.339840824156758</v>
+        <v>-3.341153608764226</v>
       </c>
       <c r="G85">
         <v>-0.1001660691162272</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.332143445476786</v>
+        <v>-3.338626123863573</v>
       </c>
       <c r="G86">
         <v>-0.09433355331264348</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.329388026394747</v>
+        <v>-3.341979196596259</v>
       </c>
       <c r="G87">
         <v>-0.093442997106993</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.342340722561085</v>
+        <v>-3.349859735052035</v>
       </c>
       <c r="G88">
         <v>-0.1082605561497196</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.337346117479029</v>
+        <v>-3.346818560714086</v>
       </c>
       <c r="G89">
         <v>-0.1051308139440512</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.324253258612533</v>
+        <v>-3.355614670710702</v>
       </c>
       <c r="G90">
         <v>-0.09390281795394406</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.353560087624825</v>
+        <v>-3.354125045013314</v>
       </c>
       <c r="G91">
         <v>-0.1250745098426247</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.360337509621916</v>
+        <v>-3.362342790717625</v>
       </c>
       <c r="G93">
         <v>-0.1355816575924909</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.35664962103509</v>
+        <v>-3.369749588137722</v>
       </c>
       <c r="G94">
         <v>-0.1337586318820532</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.339592920566772</v>
+        <v>-3.371520109679674</v>
       </c>
       <c r="G95">
         <v>-0.1185667942901238</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.35512114290519</v>
+        <v>-3.380866674119571</v>
       </c>
       <c r="G97">
         <v>-0.1378247423813184</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.374218241315061</v>
+        <v>-3.378516247757661</v>
       </c>
       <c r="G98">
         <v>-0.1587867036675772</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.363993295773671</v>
+        <v>-3.380495963179083</v>
       </c>
       <c r="G99">
         <v>-0.1504266210025755</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.375856374491983</v>
+        <v>-3.376040526484217</v>
       </c>
       <c r="G100">
         <v>-0.1641545625972762</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.384842160081115</v>
+        <v>-3.390300570209892</v>
       </c>
       <c r="G101">
         <v>-0.1750052110627962</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.36482288220685</v>
+        <v>-3.384627898805743</v>
       </c>
       <c r="G102">
         <v>-0.1568507960649193</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.379501570511954</v>
+        <v>-3.38559069096066</v>
       </c>
       <c r="G103">
         <v>-0.1733943472464112</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.377324699763656</v>
+        <v>-3.387026602279201</v>
       </c>
       <c r="G104">
         <v>-0.1730823393745013</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.375321384628968</v>
+        <v>-3.399553097625706</v>
       </c>
       <c r="G105">
         <v>-0.1729438871162019</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.390073731033248</v>
+        <v>-3.401571371837701</v>
       </c>
       <c r="G106">
         <v>-0.1895610963968704</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.372317560266159</v>
+        <v>-3.391895263705898</v>
       </c>
       <c r="G107">
         <v>-0.17366978850617</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.392039947444009</v>
+        <v>-3.405017370063733</v>
       </c>
       <c r="G108">
         <v>-0.1952570385604075</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.385639957990551</v>
+        <v>-3.390656599429659</v>
       </c>
       <c r="G110">
         <v>-0.1925867748597261</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.38930839400515</v>
+        <v>-3.399196409091511</v>
       </c>
       <c r="G111">
         <v>-0.1981200737507143</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.391377140968186</v>
+        <v>-3.403887929470976</v>
       </c>
       <c r="G112">
         <v>-0.2020536835901385</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.39994289617027</v>
+        <v>-3.405370707218081</v>
       </c>
       <c r="G113">
         <v>-0.21248430166861</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.380468844327618</v>
+        <v>-3.405715738240412</v>
       </c>
       <c r="G114">
         <v>-0.1948751127023454</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.394392525408105</v>
+        <v>-3.414487078415237</v>
       </c>
       <c r="G115">
         <v>-0.2106636566592215</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.386884036614226</v>
+        <v>-3.404953882345533</v>
       </c>
       <c r="G116">
         <v>-0.2050200307417307</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.390010446069105</v>
+        <v>-3.407161924256884</v>
       </c>
       <c r="G117">
         <v>-0.2100113030729975</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.394505496799949</v>
+        <v>-3.396860302826554</v>
       </c>
       <c r="G118">
         <v>-0.2163712166802298</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.377618173355625</v>
+        <v>-3.412685617814025</v>
       </c>
       <c r="G119">
         <v>-0.2013487561122944</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.39636602822365</v>
+        <v>-3.399853657818896</v>
       </c>
       <c r="G120">
         <v>-0.2219614738567071</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.411412988093442</v>
+        <v>-3.412423908977378</v>
       </c>
       <c r="G121">
         <v>-0.2388732966028875</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.397705345966036</v>
+        <v>-3.407176223728906</v>
       </c>
       <c r="G123">
         <v>-0.2288953802282578</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.397592185523543</v>
+        <v>-3.398910728207919</v>
       </c>
       <c r="G125">
         <v>-0.2325119455385418</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.393581914076151</v>
+        <v>-3.400980256110623</v>
       </c>
       <c r="G126">
         <v>-0.2303665369675376</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.396127268701915</v>
+        <v>-3.39731398527641</v>
       </c>
       <c r="G128">
         <v>-0.2366416173460784</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.395811629106071</v>
+        <v>-3.395964884915456</v>
       </c>
       <c r="G129">
         <v>-0.2381908406266222</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.39345567914388</v>
+        <v>-3.397018301842476</v>
       </c>
       <c r="G130">
         <v>-0.2376997535408198</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.398042634630514</v>
+        <v>-3.398650534987254</v>
       </c>
       <c r="G131">
         <v>-0.2441515719038414</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.393824840241712</v>
+        <v>-3.396778926451037</v>
       </c>
       <c r="G132">
         <v>-0.2417986403914285</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.396377894673718</v>
+        <v>-3.397832343378056</v>
       </c>
       <c r="G133">
         <v>-0.2462165576998219</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.393567300164175</v>
+        <v>-3.395361917095409</v>
       </c>
       <c r="G134">
         <v>-0.2452708260666681</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.394012816734456</v>
+        <v>-3.395199533308951</v>
       </c>
       <c r="G135">
         <v>-0.2475812055133371</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.389688131454007</v>
+        <v>-3.392235682990023</v>
       </c>
       <c r="G136">
         <v>-0.2451213831092762</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.386120384408267</v>
+        <v>-3.387800525019043</v>
       </c>
       <c r="G137">
         <v>-0.2434184989399244</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.372772391071819</v>
+        <v>-3.373708549532309</v>
       </c>
       <c r="G141">
         <v>-0.2375299571090292</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.366184531031421</v>
+        <v>-3.369872186449385</v>
       </c>
       <c r="G142">
         <v>-0.2328069599450191</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.364538732555156</v>
+        <v>-3.366504522207066</v>
       </c>
       <c r="G143">
         <v>-0.2330260243451427</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.361449284939349</v>
+        <v>-3.364574768785781</v>
       </c>
       <c r="G144">
         <v>-0.2318014396057237</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.358153594717785</v>
+        <v>-3.36016047339244</v>
       </c>
       <c r="G145">
         <v>-0.2303706122605482</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.354848940039429</v>
+        <v>-3.355315977828269</v>
       </c>
       <c r="G146">
         <v>-0.2289308204585803</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.350970429970181</v>
+        <v>-3.351642438099712</v>
       </c>
       <c r="G147">
         <v>-0.2269171732657211</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.346041847962921</v>
+        <v>-3.348873990576492</v>
       </c>
       <c r="G148">
         <v>-0.2238534541348491</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.343661031793164</v>
+        <v>-3.34495822105819</v>
       </c>
       <c r="G149">
         <v>-0.2233375008414802</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.336919494112335</v>
+        <v>-3.341675065090005</v>
       </c>
       <c r="G150">
         <v>-0.2184608260370398</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.335448235854141</v>
+        <v>-3.335726452480654</v>
       </c>
       <c r="G151">
         <v>-0.2188544306552336</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.329631380344003</v>
+        <v>-3.332089536068615</v>
       </c>
       <c r="G152">
         <v>-0.2149024380214837</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.323528717657029</v>
+        <v>-3.324112173637247</v>
       </c>
       <c r="G154">
         <v>-0.2125295010872867</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.318332291694723</v>
+        <v>-3.321885035107923</v>
       </c>
       <c r="G155">
         <v>-0.2091979380013682</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.317087788368831</v>
+        <v>-3.317448819173365</v>
       </c>
       <c r="G156">
         <v>-0.209818297551865</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.303606878328186</v>
+        <v>-3.305181226256145</v>
       </c>
       <c r="G159">
         <v>-0.2019319761403842</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.301154984047312</v>
+        <v>-3.302265260894829</v>
       </c>
       <c r="G160">
         <v>-0.201344944735899</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.295371103537147</v>
+        <v>-3.298225166691936</v>
       </c>
       <c r="G161">
         <v>-0.1974259271021215</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.28388824374947</v>
+        <v>-3.289944681181238</v>
       </c>
       <c r="G163">
         <v>-0.1896727930672208</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.279759513609704</v>
+        <v>-3.28178950673876</v>
       </c>
       <c r="G165">
         <v>-0.1892737886802314</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.277120706911322</v>
+        <v>-3.27846279556958</v>
       </c>
       <c r="G166">
         <v>-0.1884998448582378</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.27165039407912</v>
+        <v>-3.272283429460284</v>
       </c>
       <c r="G167">
         <v>-0.1848943949024242</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.265353706749659</v>
+        <v>-3.271311755040707</v>
       </c>
       <c r="G168">
         <v>-0.1804625704493517</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.260645648292414</v>
+        <v>-3.265299074903814</v>
       </c>
       <c r="G169">
         <v>-0.1776193748684942</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.25939686745745</v>
+        <v>-3.259966257142119</v>
       </c>
       <c r="G170">
         <v>-0.1782354569099194</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.255205633719546</v>
+        <v>-3.257689036260733</v>
       </c>
       <c r="G171">
         <v>-0.1759090860484027</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.25307320714187</v>
+        <v>-3.256310007340922</v>
       </c>
       <c r="G172">
         <v>-0.1756415223471159</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.24522097078248</v>
+        <v>-3.250555639111226</v>
       </c>
       <c r="G173">
         <v>-0.169654148864113</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.234487058601517</v>
+        <v>-3.234515775424824</v>
       </c>
       <c r="G176">
         <v>-0.1645148253123152</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.228669278309218</v>
+        <v>-3.23246042470666</v>
       </c>
       <c r="G177">
         <v>-0.1605619078964046</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.223136406616625</v>
+        <v>-3.230301397580054</v>
       </c>
       <c r="G178">
         <v>-0.1568938990801997</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.220422692580654</v>
+        <v>-3.224444778254223</v>
       </c>
       <c r="G179">
         <v>-0.1560450479206166</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.215520711122324</v>
+        <v>-3.216166754835458</v>
       </c>
       <c r="G180">
         <v>-0.1530079293386751</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.213971740524865</v>
+        <v>-3.214492608772168</v>
       </c>
       <c r="G181">
         <v>-0.1533238216176047</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.206702538314647</v>
+        <v>-3.208286220282896</v>
       </c>
       <c r="G182">
         <v>-0.1479194822837739</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.200502309627712</v>
+        <v>-3.204780639139027</v>
       </c>
       <c r="G183">
         <v>-0.1435841164732272</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.197282163223487</v>
+        <v>-3.201614537494752</v>
       </c>
       <c r="G184">
         <v>-0.1422288329453912</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.193324246718862</v>
+        <v>-3.194512021256938</v>
       </c>
       <c r="G185">
         <v>-0.1401357793171544</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.186194655853525</v>
+        <v>-3.19129803465505</v>
       </c>
       <c r="G186">
         <v>-0.134871051328205</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.182680531736688</v>
+        <v>-3.186089755879434</v>
       </c>
       <c r="G187">
         <v>-0.1332217900877567</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.173468567773211</v>
+        <v>-3.174710387071237</v>
       </c>
       <c r="G189">
         <v>-0.1277395518770561</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.159427497549395</v>
+        <v>-3.165588033220649</v>
       </c>
       <c r="G191">
         <v>-0.117428207406016</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.155609192389651</v>
+        <v>-3.158548052468202</v>
       </c>
       <c r="G192">
         <v>-0.1154747651226614</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.150638463396067</v>
+        <v>-3.152714592557092</v>
       </c>
       <c r="G193">
         <v>-0.1123688990054651</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.148806677284457</v>
+        <v>-3.150084061935423</v>
       </c>
       <c r="G194">
         <v>-0.1124019757702435</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.142022992617304</v>
+        <v>-3.143925558403765</v>
       </c>
       <c r="G195">
         <v>-0.1074831539794788</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.137100148581335</v>
+        <v>-3.139300735608367</v>
       </c>
       <c r="G196">
         <v>-0.1044251728198977</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.131191781332636</v>
+        <v>-3.133746550634567</v>
       </c>
       <c r="G197">
         <v>-0.100381668447587</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.128609135668579</v>
+        <v>-3.12928220176169</v>
       </c>
       <c r="G198">
         <v>-0.09966388565991874</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.123102835652394</v>
+        <v>-3.124401082880998</v>
       </c>
       <c r="G199">
         <v>-0.09602244852012115</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.112659339855966</v>
+        <v>-3.118846897907197</v>
       </c>
       <c r="G200">
         <v>-0.0874438156000813</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.110133625073607</v>
+        <v>-3.11268839437554</v>
       </c>
       <c r="G201">
         <v>-0.08678296369411087</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.102697736890983</v>
+        <v>-3.106529890843882</v>
       </c>
       <c r="G202">
         <v>-0.08121193838787538</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.098036845791529</v>
+        <v>-3.102926156614155</v>
       </c>
       <c r="G203">
         <v>-0.07841591016480937</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.083173261368215</v>
+        <v>-3.084450646019182</v>
       </c>
       <c r="G206">
         <v>-0.06914691437066062</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.434379372153166</v>
+        <v>-3.435434788524354</v>
       </c>
       <c r="G221">
         <v>-0.07599354989144702</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.466151111674905</v>
+        <v>-3.477348057046542</v>
       </c>
       <c r="G223">
         <v>-0.1648269879065105</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.471916521084719</v>
+        <v>-3.472247914105512</v>
       </c>
       <c r="G224">
         <v>-0.1991232465629871</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.451610435955559</v>
+        <v>-3.45352842136838</v>
       </c>
       <c r="G225">
         <v>-0.2073480106804895</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.409206239314203</v>
+        <v>-3.409358811055013</v>
       </c>
       <c r="G226">
         <v>-0.1934746632857953</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.343143891878914</v>
+        <v>-3.343927185924696</v>
       </c>
       <c r="G227">
         <v>-0.1559431650971685</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.528318297253344</v>
+        <v>-3.531568658460956</v>
       </c>
       <c r="G233">
         <v>-0.1226260290877232</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.523874072096771</v>
+        <v>-3.530917816542239</v>
       </c>
       <c r="G234">
         <v>-0.1472220002822224</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.523487314456349</v>
+        <v>-3.525468482876189</v>
       </c>
       <c r="G235">
         <v>-0.1758754389928714</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.497248248621254</v>
+        <v>-3.505942568291023</v>
       </c>
       <c r="G236">
         <v>-0.1786765695088479</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.465236496485119</v>
+        <v>-3.467838714284572</v>
       </c>
       <c r="G237">
         <v>-0.175705013723785</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.411245546521477</v>
+        <v>-3.412487321563084</v>
       </c>
       <c r="G238">
         <v>-0.1507542601112144</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.340594893349563</v>
+        <v>-3.341191244160426</v>
       </c>
       <c r="G239">
         <v>-0.1091438032903728</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.264991487063652</v>
+        <v>-3.26702614278026</v>
       </c>
       <c r="G240">
         <v>-0.06258059335553307</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.566456896016007</v>
+        <v>-3.56955099491472</v>
       </c>
       <c r="G244">
         <v>-0.1077936815748664</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.566457582165973</v>
+        <v>-3.568012256234044</v>
       </c>
       <c r="G245">
         <v>-0.1372421430218176</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.530741200192785</v>
+        <v>-3.535991466512402</v>
       </c>
       <c r="G247">
         <v>-0.1607413961566959</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.457018620204334</v>
+        <v>-3.457812434162106</v>
       </c>
       <c r="G249">
         <v>-0.1462344512763103</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.38827555924016</v>
+        <v>-3.389262583917083</v>
       </c>
       <c r="G250">
         <v>-0.1069391656091205</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.311682158096991</v>
+        <v>-3.311792339505817</v>
       </c>
       <c r="G251">
         <v>-0.05979353976293567</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.581712841730025</v>
+        <v>-3.585403991573537</v>
       </c>
       <c r="G254">
         <v>-0.05454632785869951</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.598704012167785</v>
+        <v>-3.601289947346461</v>
       </c>
       <c r="G255">
         <v>-0.1015175856491983</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.591611133711329</v>
+        <v>-3.600057644430833</v>
       </c>
       <c r="G256">
         <v>-0.1241936671697568</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.58106745049297</v>
+        <v>-3.585660205691796</v>
       </c>
       <c r="G257">
         <v>-0.1436300713041367</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.483611439226754</v>
+        <v>-3.484127541569172</v>
       </c>
       <c r="G260">
         <v>-0.1356920673446891</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.42257535200828</v>
+        <v>-3.423167057961079</v>
       </c>
       <c r="G261">
         <v>-0.1046360674789529</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.344528517072883</v>
+        <v>-3.345314306573064</v>
       </c>
       <c r="G262">
         <v>-0.05635819252057117</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.610660090825982</v>
+        <v>-3.612249704519397</v>
       </c>
       <c r="G265">
         <v>-0.05369022860179085</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.616967501684553</v>
+        <v>-3.621774378212017</v>
       </c>
       <c r="G266">
         <v>-0.09016856416643382</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.614783481702023</v>
+        <v>-3.619033871952317</v>
       </c>
       <c r="G267">
         <v>-0.1181554688899764</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.604767454262868</v>
+        <v>-3.612727853517231</v>
       </c>
       <c r="G268">
         <v>-0.1381639053573509</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.580669195277204</v>
+        <v>-3.581782689138798</v>
       </c>
       <c r="G269">
         <v>-0.1442365710777593</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.540970128909857</v>
+        <v>-3.546213379515278</v>
       </c>
       <c r="G270">
         <v>-0.1347084294164851</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.500101812857288</v>
+        <v>-3.500677575543909</v>
       </c>
       <c r="G271">
         <v>-0.1238645772704454</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.447584693454183</v>
+        <v>-3.447960011974715</v>
       </c>
       <c r="G272">
         <v>-0.1015183825734134</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.370815696877251</v>
+        <v>-3.371782086407851</v>
       </c>
       <c r="G273">
         <v>-0.05492031070255399</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.631495220917655</v>
+        <v>-3.632724105159121</v>
       </c>
       <c r="G276">
         <v>-0.05104023123525581</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.639053042727717</v>
+        <v>-3.639637266570074</v>
       </c>
       <c r="G277">
         <v>-0.08893459347641564</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.636796141736677</v>
+        <v>-3.63772911159047</v>
       </c>
       <c r="G278">
         <v>-0.1170142329164729</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.622745967024081</v>
+        <v>-3.623107120459477</v>
       </c>
       <c r="G279">
         <v>-0.1333005986349747</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.598757111131819</v>
+        <v>-3.59951913385049</v>
       </c>
       <c r="G280">
         <v>-0.1396482831738102</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.56313235713939</v>
+        <v>-3.566440802148277</v>
       </c>
       <c r="G281">
         <v>-0.134360069612478</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.393172091501355</v>
+        <v>-3.393312707797867</v>
       </c>
       <c r="G284">
         <v>-0.05540942526773601</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.654515751982527</v>
+        <v>-3.656339196825588</v>
       </c>
       <c r="G288">
         <v>-0.08563775741295654</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.647861470297958</v>
+        <v>-3.654553660900993</v>
       </c>
       <c r="G289">
         <v>-0.1094624104409267</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.633905037153855</v>
+        <v>-3.638076780094628</v>
       </c>
       <c r="G290">
         <v>-0.1259849120093643</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.611817679132073</v>
+        <v>-3.614434180082505</v>
       </c>
       <c r="G291">
         <v>-0.134376488700122</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.572499894995796</v>
+        <v>-3.577857471678247</v>
       </c>
       <c r="G292">
         <v>-0.1255376392763843</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.528119913847663</v>
+        <v>-3.529070913090493</v>
       </c>
       <c r="G293">
         <v>-0.1116365928407916</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.480437352854641</v>
+        <v>-3.481402552098934</v>
       </c>
       <c r="G294">
         <v>-0.09443296656030975</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.663015331356755</v>
+        <v>-3.664041969115917</v>
       </c>
       <c r="G298">
         <v>-0.04798262616108584</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.669585128569494</v>
+        <v>-3.67059936055665</v>
       </c>
       <c r="G299">
         <v>-0.08515385094245342</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.620552566596848</v>
+        <v>-3.623633897190545</v>
       </c>
       <c r="G302">
         <v>-0.1279858107063396</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.584066467352667</v>
+        <v>-3.58775312185967</v>
       </c>
       <c r="G303">
         <v>-0.1221011390307871</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.491369222805099</v>
+        <v>-3.491664084311465</v>
       </c>
       <c r="G305">
         <v>-0.09066698865112199</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.424831903795785</v>
+        <v>-3.424983474410526</v>
       </c>
       <c r="G306">
         <v>-0.05473109721043684</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.674276107636858</v>
+        <v>-3.675002926645411</v>
       </c>
       <c r="G309">
         <v>-0.04609470188989029</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.679619800088057</v>
+        <v>-3.681255137675686</v>
       </c>
       <c r="G310">
         <v>-0.08219276643057327</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.676333212702604</v>
+        <v>-3.676481319455707</v>
       </c>
       <c r="G311">
         <v>-0.1096134540869955</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.659434563713508</v>
+        <v>-3.66012039626964</v>
       </c>
       <c r="G312">
         <v>-0.1234691771873839</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.631647554868256</v>
+        <v>-3.633317284251493</v>
       </c>
       <c r="G313">
         <v>-0.126389443384006</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.596050312576442</v>
+        <v>-3.596907730167973</v>
       </c>
       <c r="G314">
         <v>-0.1215465731816774</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.498891807965574</v>
+        <v>-3.498977957392889</v>
       </c>
       <c r="G316">
         <v>-0.08584971570216815</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.436434651444761</v>
+        <v>-3.436800802960173</v>
       </c>
       <c r="G317">
         <v>-0.05409983422322917</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.685789105648022</v>
+        <v>-3.685949975183867</v>
       </c>
       <c r="G320">
         <v>-0.04642098170746012</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.641576030846086</v>
+        <v>-3.642754482329567</v>
       </c>
       <c r="G324">
         <v>-0.1255176222127945</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.605473978732042</v>
+        <v>-3.60656117438136</v>
       </c>
       <c r="G325">
         <v>-0.1202523775166318</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.558486336414775</v>
+        <v>-3.559273335789606</v>
       </c>
       <c r="G326">
         <v>-0.1040640282529908</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.504373519657593</v>
+        <v>-3.504585746624653</v>
       </c>
       <c r="G327">
         <v>-0.08078801891369003</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.696242951710734</v>
+        <v>-3.699307165178336</v>
       </c>
       <c r="G332">
         <v>-0.07815187032766113</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.690770508592125</v>
+        <v>-3.693544763503552</v>
       </c>
       <c r="G333">
         <v>-0.1035896011307038</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.676544077549254</v>
+        <v>-3.677101143723028</v>
       </c>
       <c r="G334">
         <v>-0.1202733440094854</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.648348716005119</v>
+        <v>-3.649879744348182</v>
       </c>
       <c r="G335">
         <v>-0.1229881563870021</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.613551580873002</v>
+        <v>-3.614048512129023</v>
       </c>
       <c r="G336">
         <v>-0.1191011951765366</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.5656061495539</v>
+        <v>-3.567185228105989</v>
       </c>
       <c r="G337">
         <v>-0.1020659377790869</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.510111733452172</v>
+        <v>-3.510707150617449</v>
       </c>
       <c r="G338">
         <v>-0.07748169559901064</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.454319271655789</v>
+        <v>-3.454483469659019</v>
       </c>
       <c r="G339">
         <v>-0.05259940772428068</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.2079349299138</v>
+        <v>-3.209786069118594</v>
       </c>
       <c r="G38">
         <v>-0.2552897258536189</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.181253921702992</v>
+        <v>-3.186502698230487</v>
       </c>
       <c r="G42">
         <v>-0.2384805810328701</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.171298803184551</v>
+        <v>-3.175034753023566</v>
       </c>
       <c r="G44">
         <v>-0.2467232740819951</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.035313907063218</v>
+        <v>-3.042233622261946</v>
       </c>
       <c r="G58">
         <v>-0.1844094200830367</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-3.29034795996559</v>
+        <v>-3.293323877048118</v>
       </c>
       <c r="G76">
         <v>-0.03339601500128442</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.311415540353932</v>
+        <v>-3.312402388426495</v>
       </c>
       <c r="G79">
         <v>-0.04673112685226766</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.313802030415074</v>
+        <v>-3.316284523461321</v>
       </c>
       <c r="G80">
         <v>-0.06480296099260219</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.316697317377337</v>
+        <v>-3.319673234459866</v>
       </c>
       <c r="G81">
         <v>-0.06906968679497361</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.321108514714305</v>
+        <v>-3.33049405173231</v>
       </c>
       <c r="G82">
         <v>-0.07583917104460935</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.338626123863573</v>
+        <v>-3.341479496463192</v>
       </c>
       <c r="G86">
         <v>-0.09433355331264348</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.346818560714086</v>
+        <v>-3.350816964135034</v>
       </c>
       <c r="G89">
         <v>-0.1051308139440512</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.355614670710702</v>
+        <v>-3.359084011829511</v>
       </c>
       <c r="G90">
         <v>-0.09390281795394406</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.354125045013314</v>
+        <v>-3.357313658900444</v>
       </c>
       <c r="G91">
         <v>-0.1250745098426247</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.362342790717625</v>
+        <v>-3.371346128632691</v>
       </c>
       <c r="G93">
         <v>-0.1355816575924909</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.380495963179083</v>
+        <v>-3.384509996285363</v>
       </c>
       <c r="G99">
         <v>-0.1504266210025755</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.376040526484217</v>
+        <v>-3.376572453595529</v>
       </c>
       <c r="G100">
         <v>-0.1641545625972762</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.384627898805743</v>
+        <v>-3.386625138876311</v>
       </c>
       <c r="G102">
         <v>-0.1568507960649193</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.387026602279201</v>
+        <v>-3.389458084194747</v>
       </c>
       <c r="G104">
         <v>-0.1730823393745013</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.390563673936311</v>
+        <v>-3.392230587631743</v>
       </c>
       <c r="G109">
         <v>-0.1956456279290979</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.390656599429659</v>
+        <v>-3.391684119074788</v>
       </c>
       <c r="G110">
         <v>-0.1925867748597261</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.405370707218081</v>
+        <v>-3.406850876428775</v>
       </c>
       <c r="G113">
         <v>-0.21248430166861</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.405715738240412</v>
+        <v>-3.417347048792333</v>
       </c>
       <c r="G114">
         <v>-0.1948751127023454</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.399853657818896</v>
+        <v>-3.405912663602021</v>
       </c>
       <c r="G120">
         <v>-0.2219614738567071</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.397971787601357</v>
+        <v>-3.405708693918311</v>
       </c>
       <c r="G124">
         <v>-0.2310266847399669</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.395964884915456</v>
+        <v>-3.396572785272195</v>
       </c>
       <c r="G129">
         <v>-0.2381908406266222</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.397018301842476</v>
+        <v>-3.400398584592705</v>
       </c>
       <c r="G130">
         <v>-0.2376997535408198</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.38319889537715</v>
+        <v>-3.38477302900362</v>
       </c>
       <c r="G138">
         <v>-0.2423618727851955</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.332089536068615</v>
+        <v>-3.333450371030137</v>
       </c>
       <c r="G152">
         <v>-0.2149024380214837</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.327949594683751</v>
+        <v>-3.328138415846079</v>
       </c>
       <c r="G153">
         <v>-0.2150855152376199</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.308034182053497</v>
+        <v>-3.308569753076102</v>
       </c>
       <c r="G158">
         <v>-0.2044944169893075</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.305181226256145</v>
+        <v>-3.305959663201026</v>
       </c>
       <c r="G159">
         <v>-0.2019319761403842</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.283180255290462</v>
+        <v>-3.283369407641766</v>
       </c>
       <c r="G164">
         <v>-0.1908296674846013</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.28178950673876</v>
+        <v>-3.282260238151685</v>
       </c>
       <c r="G165">
         <v>-0.1892737886802314</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.272283429460284</v>
+        <v>-3.273635721448837</v>
       </c>
       <c r="G167">
         <v>-0.1848943949024242</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.259966257142119</v>
+        <v>-3.260807703650962</v>
       </c>
       <c r="G170">
         <v>-0.1782354569099194</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.241710845233284</v>
+        <v>-3.246937095376333</v>
       </c>
       <c r="G174">
         <v>-0.1680088861913057</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.242320600905195</v>
+        <v>-3.243027063829321</v>
       </c>
       <c r="G175">
         <v>-0.1704835047396048</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.234515775424824</v>
+        <v>-3.235259757575108</v>
       </c>
       <c r="G176">
         <v>-0.1645148253123152</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.224444778254223</v>
+        <v>-3.225886680355668</v>
       </c>
       <c r="G179">
         <v>-0.1560450479206166</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.216166754835458</v>
+        <v>-3.217000347098634</v>
       </c>
       <c r="G180">
         <v>-0.1530079293386751</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.194512021256938</v>
+        <v>-3.19579556571024</v>
       </c>
       <c r="G185">
         <v>-0.1401357793171544</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.174710387071237</v>
+        <v>-3.176002474497504</v>
       </c>
       <c r="G189">
         <v>-0.1277395518770561</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.169218789830351</v>
+        <v>-3.170871219333853</v>
       </c>
       <c r="G190">
         <v>-0.1253546368105841</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.158548052468202</v>
+        <v>-3.159831596921504</v>
       </c>
       <c r="G192">
         <v>-0.1154747651226614</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.133746550634567</v>
+        <v>-3.134767639200239</v>
       </c>
       <c r="G197">
         <v>-0.100381668447587</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.11268839437554</v>
+        <v>-3.115243163677472</v>
       </c>
       <c r="G201">
         <v>-0.08678296369411087</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.435434788524354</v>
+        <v>-3.439167102477906</v>
       </c>
       <c r="G221">
         <v>-0.07599354989144702</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.468987491341311</v>
+        <v>-3.471214579651454</v>
       </c>
       <c r="G222">
         <v>-0.1391325183262544</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.477348057046542</v>
+        <v>-3.480857393053992</v>
       </c>
       <c r="G223">
         <v>-0.1648269879065105</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.275820211677686</v>
+        <v>-3.277115258378091</v>
       </c>
       <c r="G228">
         <v>-0.1171503341426028</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.196770706193377</v>
+        <v>-3.199053493156391</v>
       </c>
       <c r="G229">
         <v>-0.066631677904956</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.530917816542239</v>
+        <v>-3.533531959663718</v>
       </c>
       <c r="G234">
         <v>-0.1472220002822224</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.412487321563084</v>
+        <v>-3.412513894032525</v>
       </c>
       <c r="G238">
         <v>-0.1507542601112144</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.341191244160426</v>
+        <v>-3.341687704542509</v>
       </c>
       <c r="G239">
         <v>-0.1091438032903728</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.26702614278026</v>
+        <v>-3.268126813697106</v>
       </c>
       <c r="G240">
         <v>-0.06258059335553307</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.535991466512402</v>
+        <v>-3.537214107358499</v>
       </c>
       <c r="G247">
         <v>-0.1607413961566959</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.311792339505817</v>
+        <v>-3.312338210439469</v>
       </c>
       <c r="G251">
         <v>-0.05979353976293567</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.585660205691796</v>
+        <v>-3.587672332405896</v>
       </c>
       <c r="G257">
         <v>-0.1436300713041367</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.523679576944037</v>
+        <v>-3.526341865654181</v>
       </c>
       <c r="G259">
         <v>-0.1459912450849572</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.621774378212017</v>
+        <v>-3.622891975580327</v>
       </c>
       <c r="G266">
         <v>-0.09016856416643382</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.447960011974715</v>
+        <v>-3.448178454906421</v>
       </c>
       <c r="G272">
         <v>-0.1015183825734134</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.639637266570074</v>
+        <v>-3.643604071230486</v>
       </c>
       <c r="G277">
         <v>-0.08893459347641564</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.59951913385049</v>
+        <v>-3.601875551115972</v>
       </c>
       <c r="G280">
         <v>-0.1396482831738102</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.51409625706669</v>
+        <v>-3.51436193688963</v>
       </c>
       <c r="G282">
         <v>-0.1156605099708765</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.393312707797867</v>
+        <v>-3.393426482020856</v>
       </c>
       <c r="G284">
         <v>-0.05540942526773601</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.656339196825588</v>
+        <v>-3.656945333244236</v>
       </c>
       <c r="G288">
         <v>-0.08563775741295654</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.41086754273734</v>
+        <v>-3.411049701272293</v>
       </c>
       <c r="G295">
         <v>-0.05534209115554795</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.623633897190545</v>
+        <v>-3.623963344441092</v>
       </c>
       <c r="G302">
         <v>-0.1279858107063396</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.58775312185967</v>
+        <v>-3.587767842367808</v>
       </c>
       <c r="G303">
         <v>-0.1221011390307871</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.424983474410526</v>
+        <v>-3.425252986234946</v>
       </c>
       <c r="G306">
         <v>-0.05473109721043684</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.675002926645411</v>
+        <v>-3.675328152648267</v>
       </c>
       <c r="G309">
         <v>-0.04609470188989029</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.66012039626964</v>
+        <v>-3.660309884002932</v>
       </c>
       <c r="G312">
         <v>-0.1234691771873839</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.633317284251493</v>
+        <v>-3.633635918208758</v>
       </c>
       <c r="G313">
         <v>-0.126389443384006</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.596907730167973</v>
+        <v>-3.597618313870675</v>
       </c>
       <c r="G314">
         <v>-0.1215465731816774</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.498977957392889</v>
+        <v>-3.499055158487681</v>
       </c>
       <c r="G316">
         <v>-0.08584971570216815</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.685949975183867</v>
+        <v>-3.68621881610815</v>
       </c>
       <c r="G320">
         <v>-0.04642098170746012</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.668995863838611</v>
+        <v>-3.670524577133693</v>
       </c>
       <c r="G323">
         <v>-0.122100647787438</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.642754482329567</v>
+        <v>-3.644096985294186</v>
       </c>
       <c r="G324">
         <v>-0.1255176222127945</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.504585746624653</v>
+        <v>-3.504624215497765</v>
       </c>
       <c r="G327">
         <v>-0.08078801891369003</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.567185228105989</v>
+        <v>-3.56861065421028</v>
       </c>
       <c r="G337">
         <v>-0.1020659377790869</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.219260682384748</v>
+        <v>-3.224565218892478</v>
       </c>
       <c r="G35">
         <v>-0.2613618706675618</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.217731936449487</v>
+        <v>-3.221365534285983</v>
       </c>
       <c r="G36">
         <v>-0.2644850518947797</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.211078854540058</v>
+        <v>-3.211134614520293</v>
       </c>
       <c r="G37">
         <v>-0.2571793606401009</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.186502698230487</v>
+        <v>-3.188229396881954</v>
       </c>
       <c r="G42">
         <v>-0.2384805810328701</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.154753114025747</v>
+        <v>-3.159877449999914</v>
       </c>
       <c r="G46">
         <v>-0.2425628526053425</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.148100032116318</v>
+        <v>-3.151395317436501</v>
       </c>
       <c r="G47">
         <v>-0.2355825532741189</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.13965157098233</v>
+        <v>-3.14657128618106</v>
       </c>
       <c r="G48">
         <v>-0.2369453644204433</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.129442739767449</v>
+        <v>-3.138089153617643</v>
       </c>
       <c r="G49">
         <v>-0.2261175952897367</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.124572116489722</v>
+        <v>-3.12467446849224</v>
       </c>
       <c r="G50">
         <v>-0.2364522122097124</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.11624809590906</v>
+        <v>-3.118077146563046</v>
       </c>
       <c r="G51">
         <v>-0.2293824814688292</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.106017176143371</v>
+        <v>-3.106355488659684</v>
       </c>
       <c r="G52">
         <v>-0.2238592488458515</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.096022216891476</v>
+        <v>-3.101429105401724</v>
       </c>
       <c r="G53">
         <v>-0.2218580940989027</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.326944080493237</v>
+        <v>-3.334289280550085</v>
       </c>
       <c r="G83">
         <v>-0.07439749575193755</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.341479496463192</v>
+        <v>-3.341637679211962</v>
       </c>
       <c r="G86">
         <v>-0.09433355331264348</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.341979196596259</v>
+        <v>-3.344003903872087</v>
       </c>
       <c r="G87">
         <v>-0.093442997106993</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.357313658900444</v>
+        <v>-3.358052171902544</v>
       </c>
       <c r="G91">
         <v>-0.1250745098426247</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.3582555151186</v>
+        <v>-3.360402766877337</v>
       </c>
       <c r="G92">
         <v>-0.1316348002127876</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.366576515728317</v>
+        <v>-3.373021773929656</v>
       </c>
       <c r="G96">
         <v>-0.1474152523280572</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.378516247757661</v>
+        <v>-3.387775994188113</v>
       </c>
       <c r="G98">
         <v>-0.1587867036675772</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.376572453595529</v>
+        <v>-3.387985356680469</v>
       </c>
       <c r="G100">
         <v>-0.1641545625972762</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.386625138876311</v>
+        <v>-3.39125779929289</v>
       </c>
       <c r="G102">
         <v>-0.1568507960649193</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.38559069096066</v>
+        <v>-3.38951781784989</v>
       </c>
       <c r="G103">
         <v>-0.1733943472464112</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.391895263705898</v>
+        <v>-3.392189833420843</v>
       </c>
       <c r="G107">
         <v>-0.17366978850617</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.392230587631743</v>
+        <v>-3.396777946856612</v>
       </c>
       <c r="G109">
         <v>-0.1956456279290979</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.391684119074788</v>
+        <v>-3.396243077641623</v>
       </c>
       <c r="G110">
         <v>-0.1925867748597261</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.403887929470976</v>
+        <v>-3.406672701123739</v>
       </c>
       <c r="G112">
         <v>-0.2020536835901385</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.404953882345533</v>
+        <v>-3.405443793593599</v>
       </c>
       <c r="G116">
         <v>-0.2050200307417307</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.396860302826554</v>
+        <v>-3.405022325054171</v>
       </c>
       <c r="G118">
         <v>-0.2163712166802298</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.398910728207919</v>
+        <v>-3.403531823170011</v>
       </c>
       <c r="G125">
         <v>-0.2325119455385418</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.400103717208313</v>
+        <v>-3.400324448287884</v>
       </c>
       <c r="G127">
         <v>-0.2387532029760875</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.39731398527641</v>
+        <v>-3.399379797982856</v>
       </c>
       <c r="G128">
         <v>-0.2366416173460784</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.396572785272195</v>
+        <v>-3.400560968379161</v>
       </c>
       <c r="G129">
         <v>-0.2381908406266222</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.396778926451037</v>
+        <v>-3.3973014346263</v>
       </c>
       <c r="G132">
         <v>-0.2417986403914285</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.387800525019043</v>
+        <v>-3.38862578895796</v>
       </c>
       <c r="G137">
         <v>-0.2434184989399244</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.377076213774629</v>
+        <v>-3.378457911313788</v>
       </c>
       <c r="G140">
         <v>-0.2399689169354511</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.373708549532309</v>
+        <v>-3.374758407168834</v>
       </c>
       <c r="G141">
         <v>-0.2375299571090292</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.36016047339244</v>
+        <v>-3.360696044415044</v>
       </c>
       <c r="G145">
         <v>-0.2303706122605482</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.351642438099712</v>
+        <v>-3.353476256350918</v>
       </c>
       <c r="G147">
         <v>-0.2269171732657211</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.335726452480654</v>
+        <v>-3.335989544848035</v>
       </c>
       <c r="G151">
         <v>-0.2188544306552336</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.324112173637247</v>
+        <v>-3.325966854466094</v>
       </c>
       <c r="G154">
         <v>-0.2125295010872867</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.302265260894829</v>
+        <v>-3.302842135241665</v>
       </c>
       <c r="G160">
         <v>-0.201344944735899</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.283369407641766</v>
+        <v>-3.287550272794524</v>
       </c>
       <c r="G164">
         <v>-0.1908296674846013</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.282260238151685</v>
+        <v>-3.284876537222953</v>
       </c>
       <c r="G165">
         <v>-0.1892737886802314</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.273635721448837</v>
+        <v>-3.273796247618905</v>
       </c>
       <c r="G167">
         <v>-0.1848943949024242</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.265299074903814</v>
+        <v>-3.265380778523491</v>
       </c>
       <c r="G169">
         <v>-0.1776193748684942</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.260807703650962</v>
+        <v>-3.262758154395036</v>
       </c>
       <c r="G170">
         <v>-0.1782354569099194</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.257689036260733</v>
+        <v>-3.258162737150244</v>
       </c>
       <c r="G171">
         <v>-0.1759090860484027</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.250555639111226</v>
+        <v>-3.252220333737085</v>
       </c>
       <c r="G173">
         <v>-0.169654148864113</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.235259757575108</v>
+        <v>-3.235286779955084</v>
       </c>
       <c r="G176">
         <v>-0.1645148253123152</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.23246042470666</v>
+        <v>-3.232529172241912</v>
       </c>
       <c r="G177">
         <v>-0.1605619078964046</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.217000347098634</v>
+        <v>-3.217465002064063</v>
       </c>
       <c r="G180">
         <v>-0.1530079293386751</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.208286220282896</v>
+        <v>-3.209709642977332</v>
       </c>
       <c r="G182">
         <v>-0.1479194822837739</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.19579556571024</v>
+        <v>-3.197060630756533</v>
       </c>
       <c r="G185">
         <v>-0.1401357793171544</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.19129803465505</v>
+        <v>-3.192346145600696</v>
       </c>
       <c r="G186">
         <v>-0.134871051328205</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.17900804997171</v>
+        <v>-3.181604544428918</v>
       </c>
       <c r="G188">
         <v>-0.1314141711991672</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.176002474497504</v>
+        <v>-3.177300721726109</v>
       </c>
       <c r="G189">
         <v>-0.1277395518770561</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.159831596921504</v>
+        <v>-3.161379980433066</v>
       </c>
       <c r="G192">
         <v>-0.1154747651226614</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.152714592557092</v>
+        <v>-3.15499220319609</v>
       </c>
       <c r="G193">
         <v>-0.1123688990054651</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.150084061935423</v>
+        <v>-3.152638831237355</v>
       </c>
       <c r="G194">
         <v>-0.1124019757702435</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.143925558403765</v>
+        <v>-3.145715535225321</v>
       </c>
       <c r="G195">
         <v>-0.1074831539794788</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.139300735608367</v>
+        <v>-3.140321824174039</v>
       </c>
       <c r="G196">
         <v>-0.1044251728198977</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.12928220176169</v>
+        <v>-3.129955267854798</v>
       </c>
       <c r="G198">
         <v>-0.09966388565991874</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.106529890843882</v>
+        <v>-3.10667007328902</v>
       </c>
       <c r="G202">
         <v>-0.08121193838787538</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.439167102477906</v>
+        <v>-3.439221378433288</v>
       </c>
       <c r="G221">
         <v>-0.07599354989144702</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.471214579651454</v>
+        <v>-3.473295924202398</v>
       </c>
       <c r="G222">
         <v>-0.1391325183262544</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.480857393053992</v>
+        <v>-3.485919351992798</v>
       </c>
       <c r="G223">
         <v>-0.1648269879065105</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.472247914105512</v>
+        <v>-3.481190788109447</v>
       </c>
       <c r="G224">
         <v>-0.1991232465629871</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.45352842136838</v>
+        <v>-3.45371143045208</v>
       </c>
       <c r="G225">
         <v>-0.2073480106804895</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.343927185924696</v>
+        <v>-3.344513522010098</v>
       </c>
       <c r="G227">
         <v>-0.1559431650971685</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.277115258378091</v>
+        <v>-3.277330814778711</v>
       </c>
       <c r="G228">
         <v>-0.1171503341426028</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.199053493156391</v>
+        <v>-3.200151174423533</v>
       </c>
       <c r="G229">
         <v>-0.066631677904956</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.533531959663718</v>
+        <v>-3.536756869048562</v>
       </c>
       <c r="G234">
         <v>-0.1472220002822224</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.467838714284572</v>
+        <v>-3.468274734879615</v>
       </c>
       <c r="G237">
         <v>-0.175705013723785</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.412513894032525</v>
+        <v>-3.413281135081121</v>
       </c>
       <c r="G238">
         <v>-0.1507542601112144</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.341687704542509</v>
+        <v>-3.341984110905058</v>
       </c>
       <c r="G239">
         <v>-0.1091438032903728</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.549089465510092</v>
+        <v>-3.551778223859328</v>
       </c>
       <c r="G243">
         <v>-0.06097847577196802</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.568012256234044</v>
+        <v>-3.572653002105075</v>
       </c>
       <c r="G245">
         <v>-0.1372421430218176</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.498670373785826</v>
+        <v>-3.498717992694075</v>
       </c>
       <c r="G248">
         <v>-0.1581183450467205</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.585403991573537</v>
+        <v>-3.585719135295592</v>
       </c>
       <c r="G254">
         <v>-0.05454632785869951</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.601289947346461</v>
+        <v>-3.603139280130328</v>
       </c>
       <c r="G255">
         <v>-0.1015175856491983</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.484127541569172</v>
+        <v>-3.48433635364638</v>
       </c>
       <c r="G260">
         <v>-0.1356920673446891</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.612249704519397</v>
+        <v>-3.613870310979427</v>
       </c>
       <c r="G265">
         <v>-0.05369022860179085</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.622891975580327</v>
+        <v>-3.624076741854918</v>
       </c>
       <c r="G266">
         <v>-0.09016856416643382</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.581782689138798</v>
+        <v>-3.585333691300971</v>
       </c>
       <c r="G269">
         <v>-0.1442365710777593</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.448178454906421</v>
+        <v>-3.448436656262979</v>
       </c>
       <c r="G272">
         <v>-0.1015183825734134</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.632724105159121</v>
+        <v>-3.633341956302787</v>
       </c>
       <c r="G276">
         <v>-0.05104023123525581</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.623107120459477</v>
+        <v>-3.626108791044069</v>
       </c>
       <c r="G279">
         <v>-0.1333005986349747</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.51436193688963</v>
+        <v>-3.515162711580826</v>
       </c>
       <c r="G282">
         <v>-0.1156605099708765</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.466623369733755</v>
+        <v>-3.466725585638687</v>
       </c>
       <c r="G283">
         <v>-0.09852416306903855</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.638076780094628</v>
+        <v>-3.64068880921892</v>
       </c>
       <c r="G290">
         <v>-0.1259849120093643</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.529070913090493</v>
+        <v>-3.529454917916171</v>
       </c>
       <c r="G293">
         <v>-0.1116365928407916</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.481402552098934</v>
+        <v>-3.481537491731278</v>
       </c>
       <c r="G294">
         <v>-0.09443296656030975</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.664041969115917</v>
+        <v>-3.664096495499195</v>
       </c>
       <c r="G298">
         <v>-0.04798262616108584</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.623963344441092</v>
+        <v>-3.625383989186483</v>
       </c>
       <c r="G302">
         <v>-0.1279858107063396</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.587767842367808</v>
+        <v>-3.588366745977402</v>
       </c>
       <c r="G303">
         <v>-0.1221011390307871</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.491664084311465</v>
+        <v>-3.491699635949968</v>
       </c>
       <c r="G305">
         <v>-0.09066698865112199</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.675328152648267</v>
+        <v>-3.675849187039047</v>
       </c>
       <c r="G309">
         <v>-0.04609470188989029</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.681255137675686</v>
+        <v>-3.681828356787751</v>
       </c>
       <c r="G310">
         <v>-0.08219276643057327</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.633635918208758</v>
+        <v>-3.636449320868901</v>
       </c>
       <c r="G313">
         <v>-0.126389443384006</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.499055158487681</v>
+        <v>-3.499512914631436</v>
       </c>
       <c r="G316">
         <v>-0.08584971570216815</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.684897699315776</v>
+        <v>-3.68561739380376</v>
       </c>
       <c r="G322">
         <v>-0.1072031902109778</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.60656117438136</v>
+        <v>-3.606944310087012</v>
       </c>
       <c r="G325">
         <v>-0.1202523775166318</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.559273335789606</v>
+        <v>-3.560255147246953</v>
       </c>
       <c r="G326">
         <v>-0.1040640282529908</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.446150336871847</v>
+        <v>-3.446404544907112</v>
       </c>
       <c r="G328">
         <v>-0.05340164354582566</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.699307165178336</v>
+        <v>-3.700024714768537</v>
       </c>
       <c r="G332">
         <v>-0.07815187032766113</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.649879744348182</v>
+        <v>-3.651649309277662</v>
       </c>
       <c r="G335">
         <v>-0.1229881563870021</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.614048512129023</v>
+        <v>-3.614442999269376</v>
       </c>
       <c r="G336">
         <v>-0.1191011951765366</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.360402766877337</v>
+        <v>-3.364823317802848</v>
       </c>
       <c r="G92">
         <v>-0.1316348002127876</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.373021773929656</v>
+        <v>-3.376475742183622</v>
       </c>
       <c r="G96">
         <v>-0.1474152523280572</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.392189833420843</v>
+        <v>-3.399639590055222</v>
       </c>
       <c r="G107">
         <v>-0.17366978850617</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.396243077641623</v>
+        <v>-3.397050846500294</v>
       </c>
       <c r="G110">
         <v>-0.1925867748597261</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.406850876428775</v>
+        <v>-3.409250336614645</v>
       </c>
       <c r="G113">
         <v>-0.21248430166861</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.405443793593599</v>
+        <v>-3.406597039549947</v>
       </c>
       <c r="G116">
         <v>-0.2050200307417307</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.405022325054171</v>
+        <v>-3.407843623129607</v>
       </c>
       <c r="G118">
         <v>-0.2163712166802298</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.40315882308558</v>
+        <v>-3.40779820652411</v>
       </c>
       <c r="G122">
         <v>-0.2324839944714143</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.400980256110623</v>
+        <v>-3.401019035599552</v>
       </c>
       <c r="G126">
         <v>-0.2303665369675376</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.369872186449385</v>
+        <v>-3.370238740923722</v>
       </c>
       <c r="G142">
         <v>-0.2328069599450191</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.366504522207066</v>
+        <v>-3.367364500717684</v>
       </c>
       <c r="G143">
         <v>-0.2330260243451427</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.355315977828269</v>
+        <v>-3.356661052050908</v>
       </c>
       <c r="G146">
         <v>-0.2289308204585803</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.341675065090005</v>
+        <v>-3.342189773534971</v>
       </c>
       <c r="G150">
         <v>-0.2184608260370398</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.335989544848035</v>
+        <v>-3.336210912060141</v>
       </c>
       <c r="G151">
         <v>-0.2188544306552336</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.298225166691936</v>
+        <v>-3.298842915412809</v>
       </c>
       <c r="G161">
         <v>-0.1974259271021215</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.27846279556958</v>
+        <v>-3.279280627093874</v>
       </c>
       <c r="G166">
         <v>-0.1884998448582378</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.235286779955084</v>
+        <v>-3.236614432734293</v>
       </c>
       <c r="G176">
         <v>-0.1645148253123152</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.217465002064063</v>
+        <v>-3.218629797750121</v>
       </c>
       <c r="G180">
         <v>-0.1530079293386751</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.192346145600696</v>
+        <v>-3.193462553378025</v>
       </c>
       <c r="G186">
         <v>-0.134871051328205</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.485919351992798</v>
+        <v>-3.493787256082334</v>
       </c>
       <c r="G223">
         <v>-0.1648269879065105</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.409358811055013</v>
+        <v>-3.409973202226576</v>
       </c>
       <c r="G226">
         <v>-0.1934746632857953</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.551778223859328</v>
+        <v>-3.554492971238261</v>
       </c>
       <c r="G243">
         <v>-0.06097847577196802</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.526341865654181</v>
+        <v>-3.527297568499836</v>
       </c>
       <c r="G259">
         <v>-0.1459912450849572</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.619033871952317</v>
+        <v>-3.61931805329586</v>
       </c>
       <c r="G267">
         <v>-0.1181554688899764</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.371782086407851</v>
+        <v>-3.371883527647741</v>
       </c>
       <c r="G273">
         <v>-0.05492031070255399</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.515162711580826</v>
+        <v>-3.516233034909342</v>
       </c>
       <c r="G282">
         <v>-0.1156605099708765</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.393426482020856</v>
+        <v>-3.393481218703</v>
       </c>
       <c r="G284">
         <v>-0.05540942526773601</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.654553660900993</v>
+        <v>-3.654757999381492</v>
       </c>
       <c r="G289">
         <v>-0.1094624104409267</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.411049701272293</v>
+        <v>-3.411060098322376</v>
       </c>
       <c r="G295">
         <v>-0.05534209115554795</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.660309884002932</v>
+        <v>-3.660779896695322</v>
       </c>
       <c r="G312">
         <v>-0.1234691771873839</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.563241007546194</v>
+        <v>-2.563241007546191</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.108624468950438e-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.791002561598759</v>
+        <v>-2.791002561598755</v>
       </c>
       <c r="G3">
-        <v>-0.244321964357729</v>
+        <v>-0.2443219643577255</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.771369396338343</v>
+        <v>-2.77136939633834</v>
       </c>
       <c r="G4">
-        <v>-0.241249209402477</v>
+        <v>-0.2412492094024747</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.751736231077926</v>
+        <v>-2.751736231077925</v>
       </c>
       <c r="G5">
-        <v>-0.2381764544472245</v>
+        <v>-0.2381764544472236</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -530,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>-2.73210306581751</v>
+        <v>-2.732103065817509</v>
       </c>
       <c r="G6">
-        <v>-0.2351036994919729</v>
+        <v>-0.235103699491972</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.712469900557093</v>
       </c>
       <c r="G7">
-        <v>-0.2320309445367206</v>
+        <v>-0.2320309445367201</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.675549326555453</v>
+        <v>-2.675549326555451</v>
       </c>
       <c r="G8">
-        <v>-0.211670780840244</v>
+        <v>-0.2116707808402423</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -599,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.638628752553811</v>
+        <v>-2.63862875255381</v>
       </c>
       <c r="G9">
-        <v>-0.1913106171437666</v>
+        <v>-0.1913106171437653</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.601708178552169</v>
       </c>
       <c r="G10">
-        <v>-0.1709504534472892</v>
+        <v>-0.1709504534472883</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.564787604550527</v>
+        <v>-2.564787604550525</v>
       </c>
       <c r="G11">
-        <v>-0.1505902897508115</v>
+        <v>-0.1505902897508092</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -668,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.51057962180766</v>
+        <v>-2.510579621807659</v>
       </c>
       <c r="G12">
-        <v>-0.1129427173131088</v>
+        <v>-0.1129427173131079</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -691,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.456371639064793</v>
+        <v>-2.456371639064792</v>
       </c>
       <c r="G13">
-        <v>-0.07529514487540584</v>
+        <v>-0.07529514487540451</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.402163656321926</v>
+        <v>-2.402163656321924</v>
       </c>
       <c r="G14">
-        <v>-0.03764757243770339</v>
+        <v>-0.03764757243770073</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.347955673579059</v>
+        <v>-2.347955673579055</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4.440892098500626e-15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-3.046285427804278</v>
+        <v>-3.046285427804264</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-3.065933918614903</v>
+        <v>-3.065933918614892</v>
       </c>
       <c r="G17">
-        <v>-0.02430041797310389</v>
+        <v>-0.02430041797309279</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-3.085582409425528</v>
+        <v>-3.085582409425521</v>
       </c>
       <c r="G18">
-        <v>-0.04860083594620734</v>
+        <v>-0.04860083594620024</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-3.105230900236153</v>
+        <v>-3.105230900236149</v>
       </c>
       <c r="G19">
-        <v>-0.07290125391931035</v>
+        <v>-0.07290125391930635</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.124879391046777</v>
+        <v>-3.123560603167987</v>
       </c>
       <c r="G20">
-        <v>-0.09720167189241291</v>
+        <v>-0.09588288401362366</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.141890306099826</v>
+        <v>-3.141890306099824</v>
       </c>
       <c r="G21">
-        <v>-0.118864514107941</v>
+        <v>-0.1188645141079383</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.158901221152876</v>
+        <v>-3.158901221152873</v>
       </c>
       <c r="G22">
-        <v>-0.1405273563234686</v>
+        <v>-0.1405273563234659</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.175912136205925</v>
+        <v>-3.158747023076637</v>
       </c>
       <c r="G23">
-        <v>-0.1621901985389966</v>
+        <v>-0.1450250854097086</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.192923051258974</v>
+        <v>-3.190285475501393</v>
       </c>
       <c r="G24">
-        <v>-0.1825342528757381</v>
+        <v>-0.1812154649969435</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.207296390554446</v>
+        <v>-3.207296390554448</v>
       </c>
       <c r="G25">
-        <v>-0.2028783072124747</v>
+        <v>-0.2028783072124769</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.221669729849921</v>
+        <v>-3.204504616720631</v>
       </c>
       <c r="G26">
-        <v>-0.2219035736704282</v>
+        <v>-0.2047384605411389</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.236043069145395</v>
+        <v>-3.218470045243427</v>
       </c>
       <c r="G27">
-        <v>-0.2409288401283805</v>
+        <v>-0.2233558162264124</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.250416408440868</v>
+        <v>-3.232843384538906</v>
       </c>
       <c r="G28">
-        <v>-0.2423810826843655</v>
+        <v>-0.2423810826843704</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.247216723834375</v>
+        <v>-3.247216723834379</v>
       </c>
       <c r="G29">
-        <v>-0.2614063491423178</v>
+        <v>-0.2614063491423209</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.24401703922788</v>
+        <v>-3.242290340576418</v>
       </c>
       <c r="G30">
-        <v>-0.2628585916983011</v>
+        <v>-0.2611318930468394</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.240817354621387</v>
+        <v>-3.239090655969927</v>
       </c>
       <c r="G31">
-        <v>-0.2625841356028182</v>
+        <v>-0.2625841356028267</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.237617670014894</v>
+        <v>-3.232257373526935</v>
       </c>
       <c r="G32">
-        <v>-0.2657630768102712</v>
+        <v>-0.2604027803223126</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.2344179854084</v>
+        <v>-3.232691286756941</v>
       </c>
       <c r="G33">
-        <v>-0.2637619220633205</v>
+        <v>-0.2654886207147973</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.229491602150439</v>
+        <v>-3.229491602150447</v>
       </c>
       <c r="G34">
-        <v>-0.2562760302750808</v>
+        <v>-0.2669408632707819</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.224565218892478</v>
+        <v>-3.217589743713523</v>
       </c>
       <c r="G35">
-        <v>-0.2613618706675618</v>
+        <v>-0.2596909319963363</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.221365534285983</v>
+        <v>-3.21439005910703</v>
       </c>
       <c r="G36">
-        <v>-0.2644850518947797</v>
+        <v>-0.2611431745523216</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.211134614520293</v>
+        <v>-3.209407915868837</v>
       </c>
       <c r="G37">
-        <v>-0.2571793606401009</v>
+        <v>-0.2608129584766072</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.209786069118594</v>
+        <v>-3.195157260697963</v>
       </c>
       <c r="G38">
-        <v>-0.2552897258536189</v>
+        <v>-0.2512142304682121</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.2065863845121</v>
+        <v>-3.203008546655849</v>
       </c>
       <c r="G39">
-        <v>-0.2567419684096039</v>
+        <v>-0.2637174435885767</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.203386699905606</v>
+        <v>-3.184131213039962</v>
       </c>
       <c r="G40">
-        <v>-0.2565919528674474</v>
+        <v>-0.2494920371351683</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.198460316647644</v>
+        <v>-3.189758142817229</v>
       </c>
       <c r="G41">
-        <v>-0.2684730679053291</v>
+        <v>-0.2597708940749133</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.188229396881954</v>
+        <v>-3.186558458210733</v>
       </c>
       <c r="G42">
-        <v>-0.2384805810328701</v>
+        <v>-0.2612231366308959</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.186880851480256</v>
+        <v>-3.162454436618158</v>
       </c>
       <c r="G43">
-        <v>-0.2433862208917892</v>
+        <v>-0.2417710422007999</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.175034753023566</v>
+        <v>-3.168003517864379</v>
       </c>
       <c r="G44">
-        <v>-0.2467232740819951</v>
+        <v>-0.2519720506094991</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.164803833257876</v>
+        <v>-3.15448648073646</v>
       </c>
       <c r="G45">
-        <v>-0.2482999571913065</v>
+        <v>-0.2431069406440582</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.159877449999914</v>
+        <v>-3.140699811665315</v>
       </c>
       <c r="G46">
-        <v>-0.2425628526053425</v>
+        <v>-0.2339721987353915</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.151395317436501</v>
+        <v>-3.149770970787566</v>
       </c>
       <c r="G47">
-        <v>-0.2355825532741189</v>
+        <v>-0.2476952850201215</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.14657128618106</v>
+        <v>-3.127449407826694</v>
       </c>
       <c r="G48">
-        <v>-0.2369453644204433</v>
+        <v>-0.2300256492217281</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.138089153617643</v>
+        <v>-3.13116943841893</v>
       </c>
       <c r="G49">
-        <v>-0.2261175952897367</v>
+        <v>-0.2383976069764422</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.12467446849224</v>
+        <v>-3.121152390616225</v>
       </c>
       <c r="G50">
-        <v>-0.2364522122097124</v>
+        <v>-0.2330324863362154</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.118077146563046</v>
+        <v>-3.110943559401345</v>
       </c>
       <c r="G51">
-        <v>-0.2293824814688292</v>
+        <v>-0.2274755822838148</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.106355488659684</v>
+        <v>-3.104290477491917</v>
       </c>
       <c r="G52">
-        <v>-0.2238592488458515</v>
+        <v>-0.2254744275368652</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.101429105401724</v>
+        <v>-3.097693155562724</v>
       </c>
       <c r="G53">
-        <v>-0.2218580940989027</v>
+        <v>-0.2235290327701503</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.088635449549235</v>
+        <v>-3.080722721131867</v>
       </c>
       <c r="G54">
-        <v>-0.2114243974647446</v>
+        <v>-0.2112105255017717</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.074125399202658</v>
+        <v>-3.086452002911646</v>
       </c>
       <c r="G55">
-        <v>-0.202345415536314</v>
+        <v>-0.2215917344440288</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.072721093820725</v>
+        <v>-3.057210724752047</v>
       </c>
       <c r="G56">
-        <v>-0.1986733221181298</v>
+        <v>-0.1970023834469092</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.050557642842608</v>
+        <v>-3.050557642842622</v>
       </c>
       <c r="G57">
-        <v>-0.1863548148497524</v>
+        <v>-0.1950012286999626</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.042233622261946</v>
+        <v>-3.03531390706323</v>
       </c>
       <c r="G58">
-        <v>-0.1844094200830367</v>
+        <v>-0.1844094200830487</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.026989886482556</v>
+        <v>-3.02698988648257</v>
       </c>
       <c r="G59">
-        <v>-0.1807373266648535</v>
+        <v>-0.1807373266648673</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.007276515431341</v>
+        <v>-3.007276515431353</v>
       </c>
       <c r="G60">
-        <v>-0.1656758827761167</v>
+        <v>-0.1656758827761291</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.987563144380124</v>
+        <v>-2.98756314438014</v>
       </c>
       <c r="G61">
-        <v>-0.1506144388873789</v>
+        <v>-0.1506144388873945</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.967849773328909</v>
+        <v>-2.967849773328925</v>
       </c>
       <c r="G62">
-        <v>-0.1355529949986416</v>
+        <v>-0.1355529949986576</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.948136402277692</v>
+        <v>-2.948136402277709</v>
       </c>
       <c r="G63">
-        <v>-0.1204915511099033</v>
+        <v>-0.1204915511099207</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.928423031226475</v>
+        <v>-2.928423031226489</v>
       </c>
       <c r="G64">
-        <v>-0.1054301072211651</v>
+        <v>-0.1054301072211788</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.90870966017526</v>
+        <v>-2.908709660175276</v>
       </c>
       <c r="G65">
-        <v>-0.09036866333242816</v>
+        <v>-0.09036866333244459</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.888996289124043</v>
+        <v>-2.88899628912406</v>
       </c>
       <c r="G66">
-        <v>-0.07530721944368995</v>
+        <v>-0.07530721944370727</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.869282918072828</v>
+        <v>-2.869282918072844</v>
       </c>
       <c r="G67">
-        <v>-0.060245775554953</v>
+        <v>-0.06024577555496899</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.849569547021611</v>
+        <v>-2.849569547021626</v>
       </c>
       <c r="G68">
-        <v>-0.04518433166621474</v>
+        <v>-0.04518433166622984</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.829856175970394</v>
+        <v>-2.829856175970409</v>
       </c>
       <c r="G69">
-        <v>-0.0301228877774765</v>
+        <v>-0.03012288777749116</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.810142804919177</v>
+        <v>-2.810142804919191</v>
       </c>
       <c r="G70">
-        <v>-0.01506144388873825</v>
+        <v>-0.01506144388875202</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.790429433867961</v>
+        <v>-2.790429433867974</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>-1.332267629550188e-14</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-3.263917972433577</v>
+        <v>-3.263917972433557</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>2.087219286295294e-14</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-3.271269448587212</v>
+        <v>-3.271269448587194</v>
       </c>
       <c r="G73">
-        <v>-0.009216339030023057</v>
+        <v>-0.009216339030004406</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>-3.278620924740848</v>
+        <v>-3.278620924740831</v>
       </c>
       <c r="G74">
-        <v>-0.01843267806004656</v>
+        <v>-0.01843267806002968</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-3.285972400894483</v>
+        <v>-3.285972400894468</v>
       </c>
       <c r="G75">
-        <v>-0.02467310000754264</v>
+        <v>-0.02764901709005541</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-3.293323877048118</v>
+        <v>-3.293323877048104</v>
       </c>
       <c r="G76">
-        <v>-0.03339601500128442</v>
+        <v>-0.03686535612008024</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.300675353201753</v>
+        <v>-3.300675353201737</v>
       </c>
       <c r="G77">
-        <v>-0.03963643694877916</v>
+        <v>-0.04608169515010063</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.308026829355387</v>
+        <v>-3.300136937311056</v>
       </c>
       <c r="G78">
-        <v>-0.04934620001508483</v>
+        <v>-0.04740814213580746</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.312402388426495</v>
+        <v>-3.309426471343958</v>
       </c>
       <c r="G79">
-        <v>-0.04673112685226766</v>
+        <v>-0.05856253904509812</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.316284523461321</v>
+        <v>-3.316284523461312</v>
       </c>
       <c r="G80">
-        <v>-0.06480296099260219</v>
+        <v>-0.06728545403884034</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.319673234459866</v>
+        <v>-3.314116831441833</v>
       </c>
       <c r="G81">
-        <v>-0.06906968679497361</v>
+        <v>-0.06698262489574969</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.33049405173231</v>
+        <v>-3.317712590947956</v>
       </c>
       <c r="G82">
-        <v>-0.07583917104460935</v>
+        <v>-0.07244324727826079</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.334289280550085</v>
+        <v>-3.318967282231867</v>
       </c>
       <c r="G83">
-        <v>-0.07439749575193755</v>
+        <v>-0.07556280143855965</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.336813687958979</v>
+        <v>-3.318489439044978</v>
       </c>
       <c r="G84">
-        <v>-0.09527407004206001</v>
+        <v>-0.07694982112805882</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.341153608764226</v>
+        <v>-3.318962548844298</v>
       </c>
       <c r="G85">
-        <v>-0.1001660691162272</v>
+        <v>-0.07928779380376749</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.341637679211962</v>
+        <v>-3.333060542116729</v>
       </c>
       <c r="G86">
-        <v>-0.09433355331264348</v>
+        <v>-0.09525064995258692</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.344003903872087</v>
+        <v>-3.331503397914311</v>
       </c>
       <c r="G87">
-        <v>-0.093442997106993</v>
+        <v>-0.09555836862655687</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.349859735052035</v>
+        <v>-3.341979147760321</v>
       </c>
       <c r="G88">
-        <v>-0.1082605561497196</v>
+        <v>-0.1078989813489555</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.350816964135034</v>
+        <v>-3.344249161450789</v>
       </c>
       <c r="G89">
-        <v>-0.1051308139440512</v>
+        <v>-0.1120338579158111</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.359084011829511</v>
+        <v>-3.344871149246279</v>
       </c>
       <c r="G90">
-        <v>-0.09390281795394406</v>
+        <v>-0.11452070858769</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.358052171902544</v>
+        <v>-3.353015652457846</v>
       </c>
       <c r="G91">
-        <v>-0.1250745098426247</v>
+        <v>-0.1245300746756457</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.364823317802848</v>
+        <v>-3.35051284517465</v>
       </c>
       <c r="G92">
-        <v>-0.1316348002127876</v>
+        <v>-0.1238921302688372</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.371346128632691</v>
+        <v>-3.34604363059669</v>
       </c>
       <c r="G93">
-        <v>-0.1355816575924909</v>
+        <v>-0.121287778567265</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.369749588137722</v>
+        <v>-3.356774049518255</v>
       </c>
       <c r="G94">
-        <v>-0.1337586318820532</v>
+        <v>-0.1338830603652181</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.371520109679674</v>
+        <v>-3.344486617614449</v>
       </c>
       <c r="G95">
-        <v>-0.1185667942901238</v>
+        <v>-0.1234604913378003</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.376475742183622</v>
+        <v>-3.369220694448478</v>
       </c>
       <c r="G96">
-        <v>-0.1474152523280572</v>
+        <v>-0.1500594310482182</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.380866674119571</v>
+        <v>-3.346843488686034</v>
       </c>
       <c r="G97">
-        <v>-0.1378247423813184</v>
+        <v>-0.1295470881621616</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.387775994188113</v>
+        <v>-3.381307926873419</v>
       </c>
       <c r="G98">
-        <v>-0.1587867036675772</v>
+        <v>-0.1658763892259358</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.384509996285363</v>
+        <v>-3.365594091690292</v>
       </c>
       <c r="G99">
-        <v>-0.1504266210025755</v>
+        <v>-0.1520274169191969</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.387985356680469</v>
+        <v>-3.366216079485776</v>
       </c>
       <c r="G100">
-        <v>-0.1641545625972762</v>
+        <v>-0.1545142675910691</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.390300570209892</v>
+        <v>-3.366086299109433</v>
       </c>
       <c r="G101">
-        <v>-0.1750052110627962</v>
+        <v>-0.1562493500911142</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.39125779929289</v>
+        <v>-3.387014306906142</v>
       </c>
       <c r="G102">
-        <v>-0.1568507960649193</v>
+        <v>-0.1790422207642113</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.38951781784989</v>
+        <v>-3.383372162670228</v>
       </c>
       <c r="G103">
-        <v>-0.1733943472464112</v>
+        <v>-0.1772649394046857</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.389458084194747</v>
+        <v>-3.380315358646943</v>
       </c>
       <c r="G104">
-        <v>-0.1730823393745013</v>
+        <v>-0.1760729982577889</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.399553097625706</v>
+        <v>-3.386222200957597</v>
       </c>
       <c r="G105">
-        <v>-0.1729438871162019</v>
+        <v>-0.1838447034448314</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.401571371837701</v>
+        <v>-3.393717118059263</v>
       </c>
       <c r="G106">
-        <v>-0.1895610963968704</v>
+        <v>-0.1932044834228854</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.399639590055222</v>
+        <v>-3.382189961163398</v>
       </c>
       <c r="G107">
-        <v>-0.17366978850617</v>
+        <v>-0.1835421894034086</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.405017370063733</v>
+        <v>-3.38217433857945</v>
       </c>
       <c r="G108">
-        <v>-0.1952570385604075</v>
+        <v>-0.1853914296958488</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.396777946856612</v>
+        <v>-3.389119040093351</v>
       </c>
       <c r="G109">
-        <v>-0.1956456279290979</v>
+        <v>-0.1942009940861382</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.397050846500294</v>
+        <v>-3.405785778948895</v>
       </c>
       <c r="G110">
-        <v>-0.1925867748597261</v>
+        <v>-0.2127325958180704</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.399196409091511</v>
+        <v>-3.383420656943792</v>
       </c>
       <c r="G111">
-        <v>-0.1981200737507143</v>
+        <v>-0.1922323366893561</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.406672701123739</v>
+        <v>-3.382764729876911</v>
       </c>
       <c r="G112">
-        <v>-0.2020536835901385</v>
+        <v>-0.1934412724988626</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.409250336614645</v>
+        <v>-3.403299133513724</v>
       </c>
       <c r="G113">
-        <v>-0.21248430166861</v>
+        <v>-0.2158405390120639</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.417347048792333</v>
+        <v>-3.395795244888475</v>
       </c>
       <c r="G114">
-        <v>-0.1948751127023454</v>
+        <v>-0.2102015132632036</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.414487078415237</v>
+        <v>-3.391460565474456</v>
       </c>
       <c r="G115">
-        <v>-0.2106636566592215</v>
+        <v>-0.2077316967255722</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.406597039549947</v>
+        <v>-3.399749635372762</v>
       </c>
       <c r="G116">
-        <v>-0.2050200307417307</v>
+        <v>-0.2178856295002665</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.407161924256884</v>
+        <v>-3.41371753042258</v>
       </c>
       <c r="G117">
-        <v>-0.2100113030729975</v>
+        <v>-0.2337183874264728</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.407843623129607</v>
+        <v>-3.416861196205883</v>
       </c>
       <c r="G118">
-        <v>-0.2163712166802298</v>
+        <v>-0.2387269160861636</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.412685617814025</v>
+        <v>-3.400826167367449</v>
       </c>
       <c r="G119">
-        <v>-0.2013487561122944</v>
+        <v>-0.2245567501241181</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.405912663602021</v>
+        <v>-3.397192085558805</v>
       </c>
       <c r="G120">
-        <v>-0.2219614738567071</v>
+        <v>-0.2227875311918628</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.412423908977378</v>
+        <v>-3.400249097666595</v>
       </c>
       <c r="G121">
-        <v>-0.2388732966028875</v>
+        <v>-0.2277094061760407</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.40779820652411</v>
+        <v>-3.407160402852832</v>
       </c>
       <c r="G122">
-        <v>-0.2324839944714143</v>
+        <v>-0.236485574238666</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.407176223728906</v>
+        <v>-3.397738962353664</v>
       </c>
       <c r="G123">
-        <v>-0.2288953802282578</v>
+        <v>-0.2289289966158861</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.405708693918311</v>
+        <v>-3.389047874153017</v>
       </c>
       <c r="G124">
-        <v>-0.2310266847399669</v>
+        <v>-0.2221027712916275</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.403531823170011</v>
+        <v>-3.406784352451001</v>
       </c>
       <c r="G125">
-        <v>-0.2325119455385418</v>
+        <v>-0.2417041124659995</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.401019035599552</v>
+        <v>-3.400487468206923</v>
       </c>
       <c r="G126">
-        <v>-0.2303665369675376</v>
+        <v>-0.2372720910983097</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.400324448287884</v>
+        <v>-3.395681752131675</v>
       </c>
       <c r="G127">
-        <v>-0.2387532029760875</v>
+        <v>-0.2343312378994495</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.399379797982856</v>
+        <v>-3.401910068740166</v>
       </c>
       <c r="G128">
-        <v>-0.2366416173460784</v>
+        <v>-0.2424244173843291</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.400560968379161</v>
+        <v>-3.395964884915497</v>
       </c>
       <c r="G129">
-        <v>-0.2381908406266222</v>
+        <v>-0.2383440964360484</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.400398584592705</v>
+        <v>-3.39759711806028</v>
       </c>
       <c r="G130">
-        <v>-0.2376997535408198</v>
+        <v>-0.2418411924572201</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.398650534987254</v>
+        <v>-3.396673578107697</v>
       </c>
       <c r="G131">
-        <v>-0.2441515719038414</v>
+        <v>-0.2427825153810244</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.3973014346263</v>
+        <v>-3.39507878431163</v>
       </c>
       <c r="G132">
-        <v>-0.2417986403914285</v>
+        <v>-0.2430525844613465</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.397832343378056</v>
+        <v>-3.397564611248257</v>
       </c>
       <c r="G133">
-        <v>-0.2462165576998219</v>
+        <v>-0.2474032742743613</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.395361917095409</v>
+        <v>-3.393954717216191</v>
       </c>
       <c r="G134">
-        <v>-0.2452708260666681</v>
+        <v>-0.245658243118684</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.395199533308951</v>
+        <v>-3.393859560925109</v>
       </c>
       <c r="G135">
-        <v>-0.2475812055133371</v>
+        <v>-0.24742794970399</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.392235682990023</v>
+        <v>-3.390402922702429</v>
       </c>
       <c r="G136">
-        <v>-0.2451213831092762</v>
+        <v>-0.245836174357698</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.38862578895796</v>
+        <v>-3.38797974524487</v>
       </c>
       <c r="G137">
-        <v>-0.2434184989399244</v>
+        <v>-0.2452778597765273</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.38477302900362</v>
+        <v>-3.382378733277032</v>
       </c>
       <c r="G138">
-        <v>-0.2423618727851955</v>
+        <v>-0.2415417106850781</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.380686107806691</v>
+        <v>-3.382157415458783</v>
       </c>
       <c r="G139">
-        <v>-0.2417139480911255</v>
+        <v>-0.2431852557432173</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.378457911313788</v>
+        <v>-3.376492757794445</v>
       </c>
       <c r="G140">
-        <v>-0.2399689169354511</v>
+        <v>-0.2393854609552675</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.374758407168834</v>
+        <v>-3.374937627394661</v>
       </c>
       <c r="G141">
-        <v>-0.2375299571090292</v>
+        <v>-0.2396951934318716</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.370238740923722</v>
+        <v>-3.366121521467487</v>
       </c>
       <c r="G142">
-        <v>-0.2328069599450191</v>
+        <v>-0.2327439503810855</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.367364500717684</v>
+        <v>-3.366670572046974</v>
       </c>
       <c r="G143">
-        <v>-0.2330260243451427</v>
+        <v>-0.2351578638369609</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.364574768785781</v>
+        <v>-3.363949587650327</v>
       </c>
       <c r="G144">
-        <v>-0.2318014396057237</v>
+        <v>-0.2343017423167018</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.360696044415044</v>
+        <v>-3.358264067408352</v>
       </c>
       <c r="G145">
-        <v>-0.2303706122605482</v>
+        <v>-0.2304810849511152</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.356661052050908</v>
+        <v>-3.354628208959895</v>
       </c>
       <c r="G146">
-        <v>-0.2289308204585803</v>
+        <v>-0.2287100893790459</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.353476256350918</v>
+        <v>-3.351800795747896</v>
       </c>
       <c r="G147">
-        <v>-0.2269171732657211</v>
+        <v>-0.2277475390434356</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.348873990576492</v>
+        <v>-3.348810981012564</v>
       </c>
       <c r="G148">
-        <v>-0.2238534541348491</v>
+        <v>-0.2266225871844918</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.34495822105819</v>
+        <v>-3.34176462580907</v>
       </c>
       <c r="G149">
-        <v>-0.2233375008414802</v>
+        <v>-0.2214410948573859</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.342189773534971</v>
+        <v>-3.340161610451658</v>
       </c>
       <c r="G150">
-        <v>-0.2184608260370398</v>
+        <v>-0.2217029423763626</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.336210912060141</v>
+        <v>-3.339502445746473</v>
       </c>
       <c r="G151">
-        <v>-0.2188544306552336</v>
+        <v>-0.222908640547566</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.333450371030137</v>
+        <v>-3.332804327317033</v>
       </c>
       <c r="G152">
-        <v>-0.2149024380214837</v>
+        <v>-0.2180753849945136</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.328138415846079</v>
+        <v>-3.327790815204598</v>
       </c>
       <c r="G153">
-        <v>-0.2150855152376199</v>
+        <v>-0.2149267357584668</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.325966854466094</v>
+        <v>-3.326625432432644</v>
       </c>
       <c r="G154">
-        <v>-0.2125295010872867</v>
+        <v>-0.2156262158629012</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.321885035107923</v>
+        <v>-3.319362390024753</v>
       </c>
       <c r="G155">
-        <v>-0.2091979380013682</v>
+        <v>-0.2102280363313982</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.317448819173365</v>
+        <v>-3.319656838615048</v>
       </c>
       <c r="G156">
-        <v>-0.209818297551865</v>
+        <v>-0.2123873477980818</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.314588171184286</v>
+        <v>-3.31358836702733</v>
       </c>
       <c r="G157">
-        <v>-0.2091835432437075</v>
+        <v>-0.208183739086752</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.308569753076102</v>
+        <v>-3.309667495670269</v>
       </c>
       <c r="G158">
-        <v>-0.2044944169893075</v>
+        <v>-0.2061277306060796</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.305959663201026</v>
+        <v>-3.306834980619507</v>
       </c>
       <c r="G159">
-        <v>-0.2019319761403842</v>
+        <v>-0.2051600784317049</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.302842135241665</v>
+        <v>-3.304475448858438</v>
       </c>
       <c r="G160">
-        <v>-0.201344944735899</v>
+        <v>-0.2046654095470251</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.298842915412809</v>
+        <v>-3.293261184586611</v>
       </c>
       <c r="G161">
-        <v>-0.1974259271021215</v>
+        <v>-0.1953160081515855</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.295155945521234</v>
+        <v>-3.294367304898863</v>
       </c>
       <c r="G162">
-        <v>-0.1990756319625966</v>
+        <v>-0.1982869913402263</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.289944681181238</v>
+        <v>-3.290804237860839</v>
       </c>
       <c r="G163">
-        <v>-0.1896727930672208</v>
+        <v>-0.1965887871785903</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.287550272794524</v>
+        <v>-3.286582592856294</v>
       </c>
       <c r="G164">
-        <v>-0.1908296674846013</v>
+        <v>-0.1942320050504329</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.284876537222953</v>
+        <v>-3.283579347957958</v>
       </c>
       <c r="G165">
-        <v>-0.1892737886802314</v>
+        <v>-0.1930936230284863</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.279280627093874</v>
+        <v>-3.278352322879079</v>
       </c>
       <c r="G166">
-        <v>-0.1884998448582378</v>
+        <v>-0.1897314608259948</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.273796247618905</v>
+        <v>-3.275024689348708</v>
       </c>
       <c r="G167">
-        <v>-0.1848943949024242</v>
+        <v>-0.1882686901720116</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.271311755040707</v>
+        <v>-3.272610002269344</v>
       </c>
       <c r="G168">
-        <v>-0.1804625704493517</v>
+        <v>-0.1877188659690363</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.265380778523491</v>
+        <v>-3.267889409558713</v>
       </c>
       <c r="G169">
-        <v>-0.1776193748684942</v>
+        <v>-0.184863136134793</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.262758154395036</v>
+        <v>-3.263404198108198</v>
       </c>
       <c r="G170">
-        <v>-0.1782354569099194</v>
+        <v>-0.1822427875606667</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.258162737150244</v>
+        <v>-3.257570738197086</v>
       </c>
       <c r="G171">
-        <v>-0.1759090860484027</v>
+        <v>-0.1782741905259428</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.256310007340922</v>
+        <v>-3.254373622892418</v>
       </c>
       <c r="G172">
-        <v>-0.1756415223471159</v>
+        <v>-0.1769419380976638</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.252220333737085</v>
+        <v>-3.2526641261249</v>
       </c>
       <c r="G173">
-        <v>-0.169654148864113</v>
+        <v>-0.1770973042065336</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.246937095376333</v>
+        <v>-3.245451084949008</v>
       </c>
       <c r="G174">
-        <v>-0.1680088861913057</v>
+        <v>-0.1717491259070295</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.243027063829321</v>
+        <v>-3.243500047119039</v>
       </c>
       <c r="G175">
-        <v>-0.1704835047396048</v>
+        <v>-0.1716629509534494</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.236614432734293</v>
+        <v>-3.236182959951199</v>
       </c>
       <c r="G176">
-        <v>-0.1645148253123152</v>
+        <v>-0.166210726661997</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.232529172241912</v>
+        <v>-3.23632198421019</v>
       </c>
       <c r="G177">
-        <v>-0.1605619078964046</v>
+        <v>-0.1682146137973767</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.230301397580054</v>
+        <v>-3.229163676521543</v>
       </c>
       <c r="G178">
-        <v>-0.1568938990801997</v>
+        <v>-0.1629211689851181</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.225886680355668</v>
+        <v>-3.221012308363236</v>
       </c>
       <c r="G179">
-        <v>-0.1560450479206166</v>
+        <v>-0.156634663703199</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.218629797750121</v>
+        <v>-3.221353583947566</v>
       </c>
       <c r="G180">
-        <v>-0.1530079293386751</v>
+        <v>-0.1588408021639173</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.214492608772168</v>
+        <v>-3.213033384669951</v>
       </c>
       <c r="G181">
-        <v>-0.1533238216176047</v>
+        <v>-0.1523854657626906</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.209709642977332</v>
+        <v>-3.212987531851938</v>
       </c>
       <c r="G182">
-        <v>-0.1479194822837739</v>
+        <v>-0.1542044758210654</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.204780639139027</v>
+        <v>-3.206870753475554</v>
       </c>
       <c r="G183">
-        <v>-0.1435841164732272</v>
+        <v>-0.1499525603210694</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.201614537494752</v>
+        <v>-3.197219575490595</v>
       </c>
       <c r="G184">
-        <v>-0.1422288329453912</v>
+        <v>-0.1421662452124993</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.197060630756533</v>
+        <v>-3.196254060873356</v>
       </c>
       <c r="G185">
-        <v>-0.1401357793171544</v>
+        <v>-0.1430655934716479</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.193462553378025</v>
+        <v>-3.191714804662891</v>
       </c>
       <c r="G186">
-        <v>-0.134871051328205</v>
+        <v>-0.1403912001375709</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.186089755879434</v>
+        <v>-3.185575469265546</v>
       </c>
       <c r="G187">
-        <v>-0.1332217900877567</v>
+        <v>-0.1361167276166148</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.181604544428918</v>
+        <v>-3.18218800040916</v>
       </c>
       <c r="G188">
-        <v>-0.1314141711991672</v>
+        <v>-0.1345941216366167</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.177300721726109</v>
+        <v>-3.177952925241607</v>
       </c>
       <c r="G189">
-        <v>-0.1277395518770561</v>
+        <v>-0.132223909345452</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.170871219333853</v>
+        <v>-3.170281603551326</v>
       </c>
       <c r="G190">
-        <v>-0.1253546368105841</v>
+        <v>-0.1264174505315597</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.165588033220649</v>
+        <v>-3.165615055600654</v>
       </c>
       <c r="G191">
-        <v>-0.117428207406016</v>
+        <v>-0.1236157654572752</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.161379980433066</v>
+        <v>-3.156880920189421</v>
       </c>
       <c r="G192">
-        <v>-0.1154747651226614</v>
+        <v>-0.1167464929224312</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.15499220319609</v>
+        <v>-3.155569499373996</v>
       </c>
       <c r="G193">
-        <v>-0.1123688990054651</v>
+        <v>-0.1172999349833937</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.152638831237355</v>
+        <v>-3.149283201151018</v>
       </c>
       <c r="G194">
-        <v>-0.1124019757702435</v>
+        <v>-0.1128784996368042</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.145715535225321</v>
+        <v>-3.146572625193246</v>
       </c>
       <c r="G195">
-        <v>-0.1074831539794788</v>
+        <v>-0.112032786555421</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.140321824174039</v>
+        <v>-3.139023576945461</v>
       </c>
       <c r="G196">
-        <v>-0.1044251728198977</v>
+        <v>-0.1063486011840238</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.134767639200239</v>
+        <v>-3.13221902970067</v>
       </c>
       <c r="G197">
-        <v>-0.100381668447587</v>
+        <v>-0.1014089168156204</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.129955267854798</v>
+        <v>-3.125408322653539</v>
       </c>
       <c r="G198">
-        <v>-0.09966388565991874</v>
+        <v>-0.09646307264487802</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.124401082880998</v>
+        <v>-3.122835812866541</v>
       </c>
       <c r="G199">
-        <v>-0.09602244852012115</v>
+        <v>-0.09575542573426837</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.118846897907197</v>
+        <v>-3.117569513256257</v>
       </c>
       <c r="G200">
-        <v>-0.0874438156000813</v>
+        <v>-0.09235398900037206</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.115243163677472</v>
+        <v>-3.111667305809895</v>
       </c>
       <c r="G201">
-        <v>-0.08678296369411087</v>
+        <v>-0.08831664443039933</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.10667007328902</v>
+        <v>-3.107202956937019</v>
       </c>
       <c r="G202">
-        <v>-0.08121193838787538</v>
+        <v>-0.08571715843391098</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.102926156614155</v>
+        <v>-3.100627683397545</v>
       </c>
       <c r="G203">
-        <v>-0.07841591016480937</v>
+        <v>-0.08100674777082512</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.096767653082498</v>
+        <v>-3.094212883780594</v>
       </c>
       <c r="G204">
-        <v>-0.07901158033216671</v>
+        <v>-0.07645681103026281</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.09060914955084</v>
+        <v>-3.089331764899902</v>
       </c>
       <c r="G205">
-        <v>-0.07471793967689655</v>
+        <v>-0.07344055502595881</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.084450646019182</v>
+        <v>-3.08445064601921</v>
       </c>
       <c r="G206">
-        <v>-0.06914691437066062</v>
+        <v>-0.07042429902165476</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.078292142487524</v>
+        <v>-3.078292142487552</v>
       </c>
       <c r="G207">
-        <v>-0.06613065836635706</v>
+        <v>-0.06613065836638504</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.07091639141394</v>
+        <v>-3.07091639141397</v>
       </c>
       <c r="G208">
-        <v>-0.06061977016916123</v>
+        <v>-0.06061977016919098</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.063540640340355</v>
+        <v>-3.063540640340385</v>
       </c>
       <c r="G209">
-        <v>-0.05510888197196448</v>
+        <v>-0.05510888197199468</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.05616488926677</v>
+        <v>-3.056164889266803</v>
       </c>
       <c r="G210">
-        <v>-0.04959799377476776</v>
+        <v>-0.04959799377480062</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.048789138193185</v>
+        <v>-3.048789138193218</v>
       </c>
       <c r="G211">
-        <v>-0.04408710557757103</v>
+        <v>-0.0440871055776039</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.041413387119601</v>
+        <v>-3.041413387119636</v>
       </c>
       <c r="G212">
-        <v>-0.03857621738037484</v>
+        <v>-0.03857621738041037</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.034037636046017</v>
+        <v>-3.034037636046055</v>
       </c>
       <c r="G213">
-        <v>-0.03306532918317945</v>
+        <v>-0.03306532918321808</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.026661884972433</v>
+        <v>-3.026661884972471</v>
       </c>
       <c r="G214">
-        <v>-0.02755444098598406</v>
+        <v>-0.02755444098602181</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-3.019286133898847</v>
+        <v>-3.019286133898886</v>
       </c>
       <c r="G215">
-        <v>-0.02204355278878645</v>
+        <v>-0.02204355278882553</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5360,10 +5360,10 @@
         <v>144</v>
       </c>
       <c r="F216">
-        <v>-3.011910382825262</v>
+        <v>-3.011910382825305</v>
       </c>
       <c r="G216">
-        <v>-0.01653266459158972</v>
+        <v>-0.01653266459163191</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5383,10 +5383,10 @@
         <v>145</v>
       </c>
       <c r="F217">
-        <v>-3.004534631751679</v>
+        <v>-3.004534631751719</v>
       </c>
       <c r="G217">
-        <v>-0.01102177639439389</v>
+        <v>-0.01102177639443475</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5406,10 +5406,10 @@
         <v>146</v>
       </c>
       <c r="F218">
-        <v>-2.997158880678093</v>
+        <v>-2.997158880678134</v>
       </c>
       <c r="G218">
-        <v>-0.005510888197197167</v>
+        <v>-0.005510888197238023</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5429,10 +5429,10 @@
         <v>147</v>
       </c>
       <c r="F219">
-        <v>-2.989783129604508</v>
+        <v>-2.989783129604549</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>-4.130029651605582e-14</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>-3.385996321532683</v>
+        <v>-3.38599632153265</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>3.241851231905457e-14</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.439221378433288</v>
+        <v>-3.433641256780438</v>
       </c>
       <c r="G221">
-        <v>-0.07599354989144702</v>
+        <v>-0.07525543451871908</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.473295924202398</v>
+        <v>-3.468922505026586</v>
       </c>
       <c r="G222">
-        <v>-0.1391325183262544</v>
+        <v>-0.1390675320115298</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.493787256082334</v>
+        <v>-3.489165265378913</v>
       </c>
       <c r="G223">
-        <v>-0.1648269879065105</v>
+        <v>-0.1878411416105181</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.481190788109447</v>
+        <v>-3.477290594435865</v>
       </c>
       <c r="G224">
-        <v>-0.1991232465629871</v>
+        <v>-0.2044973199141329</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.45371143045208</v>
+        <v>-3.451951875596751</v>
       </c>
       <c r="G225">
-        <v>-0.2073480106804895</v>
+        <v>-0.2076894503216815</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.409973202226576</v>
+        <v>-3.411676230699178</v>
       </c>
       <c r="G226">
-        <v>-0.1934746632857953</v>
+        <v>-0.1959446546707704</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.344513522010098</v>
+        <v>-3.351914070348359</v>
       </c>
       <c r="G227">
-        <v>-0.1559431650971685</v>
+        <v>-0.1647133435666142</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.277330814778711</v>
+        <v>-3.28047279038571</v>
       </c>
       <c r="G228">
-        <v>-0.1171503341426028</v>
+        <v>-0.1218029128506266</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.200151174423533</v>
+        <v>-3.201005298231301</v>
       </c>
       <c r="G229">
-        <v>-0.066631677904956</v>
+        <v>-0.07086626994288031</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5682,10 +5682,10 @@
         <v>309</v>
       </c>
       <c r="F230">
-        <v>-3.101608179041758</v>
+        <v>-3.101608179041814</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>-5.595524044110789e-14</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>-3.463772660867764</v>
+        <v>-3.463772660868219</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.510493943605706</v>
+        <v>-3.505856079182125</v>
       </c>
       <c r="G232">
-        <v>-0.07576147908901376</v>
+        <v>-0.07112361466543282</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.531568658460956</v>
+        <v>-3.528736095929063</v>
       </c>
       <c r="G233">
-        <v>-0.1226260290877232</v>
+        <v>-0.1230438277634422</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.536756869048562</v>
+        <v>-3.542586794441924</v>
       </c>
       <c r="G234">
-        <v>-0.1472220002822224</v>
+        <v>-0.1659347226273753</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.525468482876189</v>
+        <v>-3.536639291781556</v>
       </c>
       <c r="G235">
-        <v>-0.1758754389928714</v>
+        <v>-0.1890274163180785</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.505942568291023</v>
+        <v>-3.502565097014314</v>
       </c>
       <c r="G236">
-        <v>-0.1786765695088479</v>
+        <v>-0.1839934179019083</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.468274734879615</v>
+        <v>-3.469772691296173</v>
       </c>
       <c r="G237">
-        <v>-0.175705013723785</v>
+        <v>-0.1802412085348393</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.413281135081121</v>
+        <v>-3.416056726038409</v>
       </c>
       <c r="G238">
-        <v>-0.1507542601112144</v>
+        <v>-0.1555654396281465</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.341984110905058</v>
+        <v>-3.348372264479161</v>
       </c>
       <c r="G239">
-        <v>-0.1091438032903728</v>
+        <v>-0.1169211744199704</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.268126813697106</v>
+        <v>-3.2686833603184</v>
       </c>
       <c r="G240">
-        <v>-0.06258059335553307</v>
+        <v>-0.06627246661028058</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5935,10 +5935,10 @@
         <v>561</v>
       </c>
       <c r="F241">
-        <v>-3.172852122422207</v>
+        <v>-3.172852122421985</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>2.220446049250313e-13</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5958,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>-3.517558765035108</v>
+        <v>-3.517558765035645</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>-5.364597654988756e-13</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.554492971238261</v>
+        <v>-3.550142014236223</v>
       </c>
       <c r="G243">
-        <v>-0.06097847577196802</v>
+        <v>-0.06203102449809883</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.56955099491472</v>
+        <v>-3.567993123223149</v>
       </c>
       <c r="G244">
-        <v>-0.1077936815748664</v>
+        <v>-0.109329908782009</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.572653002105075</v>
+        <v>-3.583863152423333</v>
       </c>
       <c r="G245">
-        <v>-0.1372421430218176</v>
+        <v>-0.1546477132791773</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.561949589445664</v>
+        <v>-3.571475020187506</v>
       </c>
       <c r="G246">
-        <v>-0.1625020101125898</v>
+        <v>-0.1720274408544329</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.537214107358499</v>
+        <v>-3.54812422074642</v>
       </c>
       <c r="G247">
-        <v>-0.1607413961566959</v>
+        <v>-0.1781244167103304</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.498717992694075</v>
+        <v>-3.504421540201422</v>
       </c>
       <c r="G248">
-        <v>-0.1581183450467205</v>
+        <v>-0.163869511462317</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.457812434162106</v>
+        <v>-3.458948809340267</v>
       </c>
       <c r="G249">
-        <v>-0.1462344512763103</v>
+        <v>-0.1481646404122436</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.389262583917083</v>
+        <v>-3.391444476244881</v>
       </c>
       <c r="G250">
-        <v>-0.1069391656091205</v>
+        <v>-0.1101080826138412</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.312338210439469</v>
+        <v>-3.314473042163795</v>
       </c>
       <c r="G251">
-        <v>-0.05979353976293567</v>
+        <v>-0.0625844238297395</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6188,10 +6188,10 @@
         <v>923</v>
       </c>
       <c r="F252">
-        <v>-3.222120758522974</v>
+        <v>-3.222120758523039</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>-6.572520305780927e-14</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>-3.55693547384834</v>
+        <v>-3.556935473849069</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>-7.287503933639528e-13</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.585719135295592</v>
+        <v>-3.589748863047773</v>
       </c>
       <c r="G254">
-        <v>-0.05454632785869951</v>
+        <v>-0.06258234917644723</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.603139280130328</v>
+        <v>-3.606117436060258</v>
       </c>
       <c r="G255">
-        <v>-0.1015175856491983</v>
+        <v>-0.1089310095416716</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.600057644430833</v>
+        <v>-3.609428941692467</v>
       </c>
       <c r="G256">
-        <v>-0.1241936671697568</v>
+        <v>-0.1420114751508956</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.587672332405896</v>
+        <v>-3.595115001696769</v>
       </c>
       <c r="G257">
-        <v>-0.1436300713041367</v>
+        <v>-0.1576776225079355</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.563369216447448</v>
+        <v>-3.576943718376927</v>
       </c>
       <c r="G258">
-        <v>-0.1557007972356299</v>
+        <v>-0.169275299165109</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.527297568499836</v>
+        <v>-3.537272194045017</v>
       </c>
       <c r="G259">
-        <v>-0.1459912450849572</v>
+        <v>-0.1595838621859369</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.48433635364638</v>
+        <v>-3.486838988289282</v>
       </c>
       <c r="G260">
-        <v>-0.1356920673446891</v>
+        <v>-0.1389196164072168</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.423167057961079</v>
+        <v>-3.425513204383097</v>
       </c>
       <c r="G261">
-        <v>-0.1046360674789529</v>
+        <v>-0.1075739198537705</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.345314306573064</v>
+        <v>-3.348959621800549</v>
       </c>
       <c r="G262">
-        <v>-0.05635819252057117</v>
+        <v>-0.06078929724823712</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6441,10 +6441,10 @@
         <v>1415</v>
       </c>
       <c r="F263">
-        <v>-3.258190237199573</v>
+        <v>-3.258190237200103</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>-5.293543381412746e-13</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>-3.58699432613072</v>
+        <v>-3.586994326131439</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>-7.189804307472514e-13</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.613870310979427</v>
+        <v>-3.613560858447512</v>
       </c>
       <c r="G265">
-        <v>-0.05369022860179085</v>
+        <v>-0.0565909962233202</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.624076741854918</v>
+        <v>-3.627315235450638</v>
       </c>
       <c r="G266">
-        <v>-0.09016856416643382</v>
+        <v>-0.1005162979325194</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.61931805329586</v>
+        <v>-3.632651458510412</v>
       </c>
       <c r="G267">
-        <v>-0.1181554688899764</v>
+        <v>-0.1360234456983656</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.612727853517231</v>
+        <v>-3.621362936279268</v>
       </c>
       <c r="G268">
-        <v>-0.1381639053573509</v>
+        <v>-0.1547593873737507</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.585333691300971</v>
+        <v>-3.595498241125088</v>
       </c>
       <c r="G269">
-        <v>-0.1442365710777593</v>
+        <v>-0.1590656169256441</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.546213379515278</v>
+        <v>-3.557983662425814</v>
       </c>
       <c r="G270">
-        <v>-0.1347084294164851</v>
+        <v>-0.1517219629324427</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.500677575543909</v>
+        <v>-3.506321351390999</v>
       </c>
       <c r="G271">
-        <v>-0.1238645772704454</v>
+        <v>-0.1300841158041566</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.448436656262979</v>
+        <v>-3.44941112735984</v>
       </c>
       <c r="G272">
-        <v>-0.1015183825734134</v>
+        <v>-0.10334481647907</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.371883527647741</v>
+        <v>-3.37434398082382</v>
       </c>
       <c r="G273">
-        <v>-0.05492031070255399</v>
+        <v>-0.05844859464912355</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6694,10 +6694,10 @@
         <v>2057</v>
       </c>
       <c r="F274">
-        <v>-3.285724461468624</v>
+        <v>-3.285724461469525</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>-9.00612917575927e-13</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>-3.610685827882029</v>
+        <v>-3.610685827881414</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>6.146194664324867e-13</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.633341956302787</v>
+        <v>-3.634241113937688</v>
       </c>
       <c r="G276">
-        <v>-0.05104023123525581</v>
+        <v>-0.05378612425528972</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.643604071230486</v>
+        <v>-3.651379475867535</v>
       </c>
       <c r="G277">
-        <v>-0.08893459347641564</v>
+        <v>-0.1012610266162337</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.63772911159047</v>
+        <v>-3.650195831889802</v>
       </c>
       <c r="G278">
-        <v>-0.1170142329164729</v>
+        <v>-0.1304139230695989</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.626108791044069</v>
+        <v>-3.63824041043456</v>
       </c>
       <c r="G279">
-        <v>-0.1333005986349747</v>
+        <v>-0.1487950420454531</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.601875551115972</v>
+        <v>-3.616992065838857</v>
       </c>
       <c r="G280">
-        <v>-0.1396482831738102</v>
+        <v>-0.1578832378808481</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.566440802148277</v>
+        <v>-3.573604950446552</v>
       </c>
       <c r="G281">
-        <v>-0.134360069612478</v>
+        <v>-0.1448326629196401</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.516233034909342</v>
+        <v>-3.523687068924358</v>
       </c>
       <c r="G282">
-        <v>-0.1156605099708765</v>
+        <v>-0.1252513218285436</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.466725585638687</v>
+        <v>-3.468228836776008</v>
       </c>
       <c r="G283">
-        <v>-0.09852416306903855</v>
+        <v>-0.1001296301112915</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.393481218703</v>
+        <v>-3.395454038546074</v>
       </c>
       <c r="G284">
-        <v>-0.05540942526773601</v>
+        <v>-0.05769137231245464</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6947,10 +6947,10 @@
         <v>2869</v>
       </c>
       <c r="F285">
-        <v>-3.307426125802522</v>
+        <v>-3.30742612580266</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>-1.381117442633695e-13</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>-3.62983586399465</v>
+        <v>-3.62983586399244</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>2.210676086633612e-12</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.649974815993932</v>
+        <v>-3.652252210601596</v>
       </c>
       <c r="G287">
-        <v>-0.05061788671182121</v>
+        <v>-0.0528952813194854</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.656945333244236</v>
+        <v>-3.665436971134482</v>
       </c>
       <c r="G288">
-        <v>-0.08563775741295654</v>
+        <v>-0.09655897656491108</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.654757999381492</v>
+        <v>-3.663410588522057</v>
       </c>
       <c r="G289">
-        <v>-0.1094624104409267</v>
+        <v>-0.1250115286650257</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.64068880921892</v>
+        <v>-3.650062956980907</v>
       </c>
       <c r="G290">
-        <v>-0.1259849120093643</v>
+        <v>-0.142142831836416</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.614434180082505</v>
+        <v>-3.624250044068488</v>
       </c>
       <c r="G291">
-        <v>-0.134376488700122</v>
+        <v>-0.1468088536365368</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.577857471678247</v>
+        <v>-3.586459388261531</v>
       </c>
       <c r="G292">
-        <v>-0.1255376392763843</v>
+        <v>-0.1394971325421199</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.529454917916171</v>
+        <v>-3.538796477226692</v>
       </c>
       <c r="G293">
-        <v>-0.1116365928407916</v>
+        <v>-0.122313156219821</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.481537491731278</v>
+        <v>-3.482809619975074</v>
       </c>
       <c r="G294">
-        <v>-0.09443296656030975</v>
+        <v>-0.09680523368074245</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.411060098322376</v>
+        <v>-3.412602750706797</v>
       </c>
       <c r="G295">
-        <v>-0.05534209115554795</v>
+        <v>-0.0570772991250052</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7200,10 +7200,10 @@
         <v>3871</v>
       </c>
       <c r="F296">
-        <v>-3.32496775993201</v>
+        <v>-3.324967759930202</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>1.808331262509455e-12</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7223,10 +7223,10 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>-3.645634132764297</v>
+        <v>-3.645634132762194</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>2.102762408640046e-12</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,10 +7246,10 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.664096495499195</v>
+        <v>-3.666421791957262</v>
       </c>
       <c r="G298">
-        <v>-0.04798262616108584</v>
+        <v>-0.05138908676159337</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7269,10 +7269,10 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.67059936055665</v>
+        <v>-3.678255966690771</v>
       </c>
       <c r="G299">
-        <v>-0.08515385094245342</v>
+        <v>-0.09382468906373109</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7292,10 +7292,10 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.666035084874344</v>
+        <v>-3.676020981425814</v>
       </c>
       <c r="G300">
-        <v>-0.1122052348159319</v>
+        <v>-0.1221911313674018</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.653416251708351</v>
+        <v>-3.661171990343892</v>
       </c>
       <c r="G301">
-        <v>-0.1302480682492146</v>
+        <v>-0.1380038068847549</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.625383989186483</v>
+        <v>-3.638143188151026</v>
       </c>
       <c r="G302">
-        <v>-0.1279858107063396</v>
+        <v>-0.1455764322605178</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.588366745977402</v>
+        <v>-3.597452361805304</v>
       </c>
       <c r="G303">
-        <v>-0.1221011390307871</v>
+        <v>-0.1354870334834235</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.54115798793616</v>
+        <v>-3.547771008544313</v>
       </c>
       <c r="G304">
-        <v>-0.1098543262135547</v>
+        <v>-0.1164673468217083</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.491699635949968</v>
+        <v>-3.495361255809817</v>
       </c>
       <c r="G305">
-        <v>-0.09066698865112199</v>
+        <v>-0.09465902165584028</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,10 +7430,10 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.425252986234946</v>
+        <v>-3.426267557883536</v>
       </c>
       <c r="G306">
-        <v>-0.05473109721043684</v>
+        <v>-0.05616675129818777</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7453,10 +7453,10 @@
         <v>5083</v>
       </c>
       <c r="F307">
-        <v>-3.339439139986073</v>
+        <v>-3.339439139983</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>3.072653242952583e-12</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="F308">
-        <v>-3.658888680788842</v>
+        <v>-3.658888680789056</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>-2.140509991477302e-13</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.675849187039047</v>
+        <v>-3.67729280373922</v>
       </c>
       <c r="G309">
-        <v>-0.04609470188989029</v>
+        <v>-0.04911139799225239</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,10 +7522,10 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.681828356787751</v>
+        <v>-3.688930022765788</v>
       </c>
       <c r="G310">
-        <v>-0.08219276643057327</v>
+        <v>-0.09150298910830479</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7545,10 +7545,10 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.676481319455707</v>
+        <v>-3.683913371260096</v>
       </c>
       <c r="G311">
-        <v>-0.1096134540869955</v>
+        <v>-0.117193612644487</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,10 +7568,10 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.660779896695322</v>
+        <v>-3.669107980356257</v>
       </c>
       <c r="G312">
-        <v>-0.1234691771873839</v>
+        <v>-0.133142593830132</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7591,10 +7591,10 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.636449320868901</v>
+        <v>-3.645013206403528</v>
       </c>
       <c r="G313">
-        <v>-0.126389443384006</v>
+        <v>-0.1397550949192778</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.597618313870675</v>
+        <v>-3.604903153935364</v>
       </c>
       <c r="G314">
-        <v>-0.1215465731816774</v>
+        <v>-0.1303994145405991</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.551430798886228</v>
+        <v>-3.561158358514219</v>
       </c>
       <c r="G315">
-        <v>-0.1076343345333375</v>
+        <v>-0.1173618941613284</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.499512914631436</v>
+        <v>-3.50371630110471</v>
       </c>
       <c r="G316">
-        <v>-0.08584971570216815</v>
+        <v>-0.09067420884130406</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.436800802960173</v>
+        <v>-3.437521259228201</v>
       </c>
       <c r="G317">
-        <v>-0.05409983422322917</v>
+        <v>-0.05518644200666911</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7706,10 +7706,10 @@
         <v>6525</v>
       </c>
       <c r="F318">
-        <v>-3.351580445132047</v>
+        <v>-3.351580445127946</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>4.101163852965328e-12</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="F319">
-        <v>-3.670167416994187</v>
+        <v>-3.670167416996026</v>
       </c>
       <c r="G319">
-        <v>0</v>
+        <v>-1.838973417989109e-12</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7752,10 +7752,10 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.68621881610815</v>
+        <v>-3.689104415219495</v>
       </c>
       <c r="G320">
-        <v>-0.04642098170746012</v>
+        <v>-0.0497362912789332</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7775,10 +7775,10 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.69050420932135</v>
+        <v>-3.698231626181721</v>
       </c>
       <c r="G321">
-        <v>-0.08197289279867004</v>
+        <v>-0.08970030965904119</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7798,10 +7798,10 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.68561739380376</v>
+        <v>-3.693331570824423</v>
       </c>
       <c r="G322">
-        <v>-0.1072031902109778</v>
+        <v>-0.1156370617196241</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7821,10 +7821,10 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.670524577133693</v>
+        <v>-3.679364462762597</v>
       </c>
       <c r="G323">
-        <v>-0.122100647787438</v>
+        <v>-0.1324692467114246</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7844,10 +7844,10 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.644096985294186</v>
+        <v>-3.651902044868854</v>
       </c>
       <c r="G324">
-        <v>-0.1255176222127945</v>
+        <v>-0.1358436362355628</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7867,10 +7867,10 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.606944310087012</v>
+        <v>-3.614235382595548</v>
       </c>
       <c r="G325">
-        <v>-0.1202523775166318</v>
+        <v>-0.1290137813801373</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7890,10 +7890,10 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.560255147246953</v>
+        <v>-3.567223305951336</v>
       </c>
       <c r="G326">
-        <v>-0.1040640282529908</v>
+        <v>-0.1128009977895514</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7913,10 +7913,10 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.504624215497765</v>
+        <v>-3.509565717162598</v>
       </c>
       <c r="G327">
-        <v>-0.08078801891369003</v>
+        <v>-0.08598021641869447</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7936,10 +7936,10 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.446404544907112</v>
+        <v>-3.44669817918206</v>
       </c>
       <c r="G328">
-        <v>-0.05340164354582566</v>
+        <v>-0.05394948585603887</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -7959,10 +7959,10 @@
         <v>8217</v>
       </c>
       <c r="F329">
-        <v>-3.36191188590814</v>
+        <v>-3.361911885903178</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>4.96269692007445e-12</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -7982,10 +7982,10 @@
         <v>0</v>
       </c>
       <c r="F330">
-        <v>-3.679881065597771</v>
+        <v>-3.679881065597996</v>
       </c>
       <c r="G330">
-        <v>0</v>
+        <v>-2.251532293939817e-13</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8005,10 +8005,10 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-3.695222743721926</v>
+        <v>-3.697233602225802</v>
       </c>
       <c r="G331">
-        <v>-0.04622148841720097</v>
+        <v>-0.04823234692107681</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8028,10 +8028,10 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.700024714768537</v>
+        <v>-3.703242927023863</v>
       </c>
       <c r="G332">
-        <v>-0.07815187032766113</v>
+        <v>-0.08515184564079004</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8051,10 +8051,10 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.693544763503552</v>
+        <v>-3.699403119095225</v>
       </c>
       <c r="G333">
-        <v>-0.1035896011307038</v>
+        <v>-0.1122222116338039</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8074,10 +8074,10 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.677101143723028</v>
+        <v>-3.682493057763555</v>
       </c>
       <c r="G334">
-        <v>-0.1202733440094854</v>
+        <v>-0.1262223242237863</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8097,10 +8097,10 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.651649309277662</v>
+        <v>-3.658041280861308</v>
       </c>
       <c r="G335">
-        <v>-0.1229881563870021</v>
+        <v>-0.1326807212431913</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8120,10 +8120,10 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.614442999269376</v>
+        <v>-3.620593476121201</v>
       </c>
       <c r="G336">
-        <v>-0.1191011951765366</v>
+        <v>-0.1261430904247358</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8143,10 +8143,10 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.56861065421028</v>
+        <v>-3.571907981330922</v>
       </c>
       <c r="G337">
-        <v>-0.1020659377790869</v>
+        <v>-0.1083677695561089</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8166,10 +8166,10 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.510707150617449</v>
+        <v>-3.516169579838268</v>
       </c>
       <c r="G338">
-        <v>-0.07748169559901064</v>
+        <v>-0.08353954198510671</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8189,10 +8189,10 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.454483469659019</v>
+        <v>-3.455123369233697</v>
       </c>
       <c r="G339">
-        <v>-0.05259940772428068</v>
+        <v>-0.05340350530218824</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8212,10 +8212,10 @@
         <v>10179</v>
       </c>
       <c r="F340">
-        <v>-3.370809690009857</v>
+        <v>-3.370809690004235</v>
       </c>
       <c r="G340">
-        <v>0</v>
+        <v>5.621725307491943e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.123560603167987</v>
+        <v>-3.124879391046773</v>
       </c>
       <c r="G20">
         <v>-0.09588288401362366</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.158747023076637</v>
+        <v>-3.175912136205922</v>
       </c>
       <c r="G23">
         <v>-0.1450250854097086</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.190285475501393</v>
+        <v>-3.192923051258973</v>
       </c>
       <c r="G24">
         <v>-0.1812154649969435</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.217589743713523</v>
+        <v>-3.226291917543949</v>
       </c>
       <c r="G35">
         <v>-0.2596909319963363</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.21439005910703</v>
+        <v>-3.223092232937459</v>
       </c>
       <c r="G36">
         <v>-0.2611431745523216</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.195157260697963</v>
+        <v>-3.209786069118608</v>
       </c>
       <c r="G38">
         <v>-0.2512142304682121</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.203008546655849</v>
+        <v>-3.208313083163581</v>
       </c>
       <c r="G39">
         <v>-0.2637174435885767</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.184131213039962</v>
+        <v>-3.205113398557088</v>
       </c>
       <c r="G40">
         <v>-0.2494920371351683</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.189758142817229</v>
+        <v>-3.200187015299124</v>
       </c>
       <c r="G41">
         <v>-0.2597708940749133</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.186558458210733</v>
+        <v>-3.193533933389698</v>
       </c>
       <c r="G42">
         <v>-0.2612231366308959</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.162454436618158</v>
+        <v>-3.186880851480266</v>
       </c>
       <c r="G43">
         <v>-0.2417710422007999</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.168003517864379</v>
+        <v>-3.180103329017512</v>
       </c>
       <c r="G44">
         <v>-0.2519720506094991</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.15448648073646</v>
+        <v>-3.173450247108085</v>
       </c>
       <c r="G45">
         <v>-0.2431069406440582</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.140699811665315</v>
+        <v>-3.165126226527425</v>
       </c>
       <c r="G46">
         <v>-0.2339721987353915</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.149770970787566</v>
+        <v>-3.163721921145488</v>
       </c>
       <c r="G47">
         <v>-0.2476952850201215</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.127449407826694</v>
+        <v>-3.144900347509837</v>
       </c>
       <c r="G48">
         <v>-0.2300256492217281</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.13116943841893</v>
+        <v>-3.14355180210814</v>
       </c>
       <c r="G49">
         <v>-0.2383976069764422</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.121152390616225</v>
+        <v>-3.129979004999986</v>
       </c>
       <c r="G50">
         <v>-0.2330324863362154</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.110943559401345</v>
+        <v>-3.123325923090555</v>
       </c>
       <c r="G51">
         <v>-0.2274755822838148</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.104290477491917</v>
+        <v>-3.115001902509896</v>
       </c>
       <c r="G52">
         <v>-0.2254744275368652</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.097693155562724</v>
+        <v>-3.110019759271698</v>
       </c>
       <c r="G53">
         <v>-0.2235290327701503</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.080722721131867</v>
+        <v>-3.094776023492309</v>
       </c>
       <c r="G54">
         <v>-0.2112105255017717</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.086452002911646</v>
+        <v>-3.087964829600126</v>
       </c>
       <c r="G55">
         <v>-0.2215917344440288</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.057210724752047</v>
+        <v>-3.061331743350184</v>
       </c>
       <c r="G56">
         <v>-0.1970023834469092</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.050557642842622</v>
+        <v>-3.051494896081042</v>
       </c>
       <c r="G57">
         <v>-0.1950012286999626</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.03531390706323</v>
+        <v>-3.036251160301652</v>
       </c>
       <c r="G58">
         <v>-0.1844094200830487</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.300136937311056</v>
+        <v>-3.308026829355379</v>
       </c>
       <c r="G78">
         <v>-0.04740814213580746</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.316284523461312</v>
+        <v>-3.318802654773416</v>
       </c>
       <c r="G80">
         <v>-0.06728545403884034</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.314116831441833</v>
+        <v>-3.326611916697479</v>
       </c>
       <c r="G81">
         <v>-0.06698262489574969</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.317712590947956</v>
+        <v>-3.324231653897186</v>
       </c>
       <c r="G82">
         <v>-0.07244324727826079</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.318967282231867</v>
+        <v>-3.329462211805341</v>
       </c>
       <c r="G83">
         <v>-0.07556280143855965</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.318489439044978</v>
+        <v>-3.330960694550858</v>
       </c>
       <c r="G84">
         <v>-0.07694982112805882</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.318962548844298</v>
+        <v>-3.332087193054831</v>
       </c>
       <c r="G85">
         <v>-0.07928779380376749</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.333060542116729</v>
+        <v>-3.348505084917862</v>
       </c>
       <c r="G86">
         <v>-0.09525064995258692</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.331503397914311</v>
+        <v>-3.336170274395798</v>
       </c>
       <c r="G87">
         <v>-0.09555836862655687</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.341979147760321</v>
+        <v>-3.345969226034216</v>
       </c>
       <c r="G88">
         <v>-0.1078989813489555</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.344249161450789</v>
+        <v>-3.352753240094705</v>
       </c>
       <c r="G89">
         <v>-0.1120338579158111</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.344871149246279</v>
+        <v>-3.34496102940502</v>
       </c>
       <c r="G90">
         <v>-0.11452070858769</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.34604363059669</v>
+        <v>-3.352453227406527</v>
       </c>
       <c r="G93">
         <v>-0.121287778567265</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.356774049518255</v>
+        <v>-3.360302306935507</v>
       </c>
       <c r="G94">
         <v>-0.1338830603652181</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.344486617614449</v>
+        <v>-3.362621175593469</v>
       </c>
       <c r="G95">
         <v>-0.1234604913378003</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.346843488686034</v>
+        <v>-3.360021413891155</v>
       </c>
       <c r="G97">
         <v>-0.1295470881621616</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.366086299109433</v>
+        <v>-3.369883543405971</v>
       </c>
       <c r="G101">
         <v>-0.1562493500911142</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.31358836702733</v>
+        <v>-3.31690202417031</v>
       </c>
       <c r="G157">
         <v>-0.208183739086752</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.306834980619507</v>
+        <v>-3.307646025517744</v>
       </c>
       <c r="G159">
         <v>-0.2051600784317049</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.293261184586611</v>
+        <v>-3.30087809371065</v>
       </c>
       <c r="G161">
         <v>-0.1953160081515855</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.294367304898863</v>
+        <v>-3.298411755203607</v>
       </c>
       <c r="G162">
         <v>-0.1982869913402263</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.290804237860839</v>
+        <v>-3.293413858803531</v>
       </c>
       <c r="G163">
         <v>-0.1965887871785903</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.286582592856294</v>
+        <v>-3.289164080860678</v>
       </c>
       <c r="G164">
         <v>-0.1942320050504329</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.283579347957958</v>
+        <v>-3.286121245937419</v>
       </c>
       <c r="G165">
         <v>-0.1930936230284863</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.278352322879079</v>
+        <v>-3.278911846115435</v>
       </c>
       <c r="G166">
         <v>-0.1897314608259948</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.275024689348708</v>
+        <v>-3.27591042865137</v>
       </c>
       <c r="G167">
         <v>-0.1882686901720116</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.272610002269344</v>
+        <v>-3.275128336451912</v>
       </c>
       <c r="G168">
         <v>-0.1877188659690363</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.263404198108198</v>
+        <v>-3.26733727640985</v>
       </c>
       <c r="G170">
         <v>-0.1822427875606667</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.257570738197086</v>
+        <v>-3.261392578054374</v>
       </c>
       <c r="G171">
         <v>-0.1782741905259428</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.254373622892418</v>
+        <v>-3.259228449089012</v>
       </c>
       <c r="G172">
         <v>-0.1769419380976638</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.2526641261249</v>
+        <v>-3.255099088696018</v>
       </c>
       <c r="G173">
         <v>-0.1770973042065336</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.245451084949008</v>
+        <v>-3.247694263209525</v>
       </c>
       <c r="G174">
         <v>-0.1717491259070295</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.243500047119039</v>
+        <v>-3.247789690518993</v>
       </c>
       <c r="G175">
         <v>-0.1716629509534494</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.236182959951199</v>
+        <v>-3.241956785620352</v>
       </c>
       <c r="G176">
         <v>-0.166210726661997</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.23632198421019</v>
+        <v>-3.236373912695765</v>
       </c>
       <c r="G177">
         <v>-0.1682146137973767</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.229163676521543</v>
+        <v>-3.234167422442597</v>
       </c>
       <c r="G178">
         <v>-0.1629211689851181</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.221012308363236</v>
+        <v>-3.226848166752846</v>
       </c>
       <c r="G179">
         <v>-0.156634663703199</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.221353583947566</v>
+        <v>-3.222523481472382</v>
       </c>
       <c r="G180">
         <v>-0.1588408021639173</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.213033384669951</v>
+        <v>-3.216468872555873</v>
       </c>
       <c r="G181">
         <v>-0.1523854657626906</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.206870753475554</v>
+        <v>-3.208910814332524</v>
       </c>
       <c r="G183">
         <v>-0.1499525603210694</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.197219575490595</v>
+        <v>-3.200872911716354</v>
       </c>
       <c r="G184">
         <v>-0.1421662452124993</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.196254060873356</v>
+        <v>-3.198494678612338</v>
       </c>
       <c r="G185">
         <v>-0.1430655934716479</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.191714804662891</v>
+        <v>-3.194502891198111</v>
       </c>
       <c r="G186">
         <v>-0.1403912001375709</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.185575469265546</v>
+        <v>-3.189942772410006</v>
       </c>
       <c r="G187">
         <v>-0.1361167276166148</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.18218800040916</v>
+        <v>-3.183811291258322</v>
       </c>
       <c r="G188">
         <v>-0.1345941216366167</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.177952925241607</v>
+        <v>-3.1783107003409</v>
       </c>
       <c r="G189">
         <v>-0.132223909345452</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.165615055600654</v>
+        <v>-3.168536593678417</v>
       </c>
       <c r="G191">
         <v>-0.1236157654572752</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.156880920189421</v>
+        <v>-3.165280881921249</v>
       </c>
       <c r="G192">
         <v>-0.1167464929224312</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.155569499373996</v>
+        <v>-3.159851154813457</v>
       </c>
       <c r="G193">
         <v>-0.1172999349833937</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.149283201151018</v>
+        <v>-3.15391621588835</v>
       </c>
       <c r="G194">
         <v>-0.1128784996368042</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.139023576945461</v>
+        <v>-3.140994890267179</v>
       </c>
       <c r="G196">
         <v>-0.1063486011840238</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.13221902970067</v>
+        <v>-3.137391156037452</v>
       </c>
       <c r="G197">
         <v>-0.1014089168156204</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.125408322653539</v>
+        <v>-3.132441289621505</v>
       </c>
       <c r="G198">
         <v>-0.09646307264487802</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.122835812866541</v>
+        <v>-3.123807322031263</v>
       </c>
       <c r="G199">
         <v>-0.09575542573426837</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.117569513256257</v>
+        <v>-3.118967172125306</v>
       </c>
       <c r="G200">
         <v>-0.09235398900037206</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.111667305809895</v>
+        <v>-3.11224512084049</v>
       </c>
       <c r="G201">
         <v>-0.08831664443039933</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.100627683397545</v>
+        <v>-3.101708909072259</v>
       </c>
       <c r="G203">
         <v>-0.08100674777082512</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.094212883780594</v>
+        <v>-3.094333157998679</v>
       </c>
       <c r="G204">
         <v>-0.07645681103026281</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.433641256780438</v>
+        <v>-3.441664601894059</v>
       </c>
       <c r="G221">
         <v>-0.07525543451871908</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.351914070348359</v>
+        <v>-3.351981791835195</v>
       </c>
       <c r="G227">
         <v>-0.1647133435666142</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.28047279038571</v>
+        <v>-3.28362928659911</v>
       </c>
       <c r="G228">
         <v>-0.1218029128506266</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.201005298231301</v>
+        <v>-3.202822879720085</v>
       </c>
       <c r="G229">
         <v>-0.07086626994288031</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.528736095929063</v>
+        <v>-3.529827473575495</v>
       </c>
       <c r="G233">
         <v>-0.1230438277634422</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.348372264479161</v>
+        <v>-3.35071770730235</v>
       </c>
       <c r="G239">
         <v>-0.1169211744199704</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.2686833603184</v>
+        <v>-3.269888254869889</v>
       </c>
       <c r="G240">
         <v>-0.06627246661028058</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.567993123223149</v>
+        <v>-3.570933898988859</v>
       </c>
       <c r="G244">
         <v>-0.109329908782009</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.314473042163795</v>
+        <v>-3.315158310422232</v>
       </c>
       <c r="G251">
         <v>-0.0625844238297395</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.613560858447512</v>
+        <v>-3.614358253031765</v>
       </c>
       <c r="G265">
         <v>-0.0565909962233202</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.634241113937688</v>
+        <v>-3.634963482740108</v>
       </c>
       <c r="G276">
         <v>-0.05378612425528972</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.652252210601596</v>
+        <v>-3.653218696480204</v>
       </c>
       <c r="G287">
         <v>-0.0528952813194854</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.666421791957262</v>
+        <v>-3.667528549335481</v>
       </c>
       <c r="G298">
         <v>-0.05138908676159337</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.67729280373922</v>
+        <v>-3.678494475042098</v>
       </c>
       <c r="G309">
         <v>-0.04911139799225239</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.209786069118608</v>
+        <v>-3.213239466421539</v>
       </c>
       <c r="G38">
         <v>-0.2512142304682121</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.165126226527425</v>
+        <v>-3.166797165198654</v>
       </c>
       <c r="G46">
         <v>-0.2339721987353915</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.163721921145488</v>
+        <v>-3.165448619796958</v>
       </c>
       <c r="G47">
         <v>-0.2476952850201215</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.129979004999986</v>
+        <v>-3.136898720198711</v>
       </c>
       <c r="G50">
         <v>-0.2330324863362154</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.123325923090555</v>
+        <v>-3.124996861761786</v>
       </c>
       <c r="G51">
         <v>-0.2274755822838148</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.061331743350184</v>
+        <v>-3.066738631860431</v>
       </c>
       <c r="G56">
         <v>-0.1970023834469092</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.332087193054831</v>
+        <v>-3.338213329947553</v>
       </c>
       <c r="G85">
         <v>-0.07928779380376749</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.34496102940502</v>
+        <v>-3.345368150114949</v>
       </c>
       <c r="G90">
         <v>-0.11452070858769</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.35051284517465</v>
+        <v>-3.367305157168916</v>
       </c>
       <c r="G92">
         <v>-0.1238921302688372</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.360021413891155</v>
+        <v>-3.360984910023899</v>
       </c>
       <c r="G97">
         <v>-0.1295470881621616</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.332804327317033</v>
+        <v>-3.333217893947759</v>
       </c>
       <c r="G152">
         <v>-0.2180753849945136</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.304475448858438</v>
+        <v>-3.30883717243037</v>
       </c>
       <c r="G160">
         <v>-0.2046654095470251</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.278911846115435</v>
+        <v>-3.279583546548877</v>
       </c>
       <c r="G166">
         <v>-0.1897314608259948</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.275128336451912</v>
+        <v>-3.275899464197962</v>
       </c>
       <c r="G168">
         <v>-0.1877188659690363</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.267889409558713</v>
+        <v>-3.273956657928005</v>
       </c>
       <c r="G169">
         <v>-0.184863136134793</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.226848166752846</v>
+        <v>-3.227204095718613</v>
       </c>
       <c r="G179">
         <v>-0.156634663703199</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.212987531851938</v>
+        <v>-3.214392388805822</v>
       </c>
       <c r="G182">
         <v>-0.1542044758210654</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.170281603551326</v>
+        <v>-3.172744646465995</v>
       </c>
       <c r="G190">
         <v>-0.1264174505315597</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.123807322031263</v>
+        <v>-3.125261697524175</v>
       </c>
       <c r="G199">
         <v>-0.09575542573426837</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.570933898988859</v>
+        <v>-3.572438945343145</v>
       </c>
       <c r="G244">
         <v>-0.109329908782009</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.678494475042098</v>
+        <v>-3.679320877274744</v>
       </c>
       <c r="G309">
         <v>-0.04911139799225239</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-2.563241007546191</v>
       </c>
       <c r="G2">
-        <v>3.108624468950438e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.791002561598755</v>
       </c>
       <c r="G3">
-        <v>-0.2443219643577255</v>
+        <v>-0.2443219643577286</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.77136939633834</v>
       </c>
       <c r="G4">
-        <v>-0.2412492094024747</v>
+        <v>-0.2412492094024783</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-2.751736231077925</v>
       </c>
       <c r="G5">
-        <v>-0.2381764544472236</v>
+        <v>-0.2381764544472269</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.732103065817509</v>
       </c>
       <c r="G6">
-        <v>-0.235103699491972</v>
+        <v>-0.2351036994919748</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.712469900557093</v>
       </c>
       <c r="G7">
-        <v>-0.2320309445367201</v>
+        <v>-0.2320309445367235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.675549326555451</v>
       </c>
       <c r="G8">
-        <v>-0.2116707808402423</v>
+        <v>-0.211670780840246</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.63862875255381</v>
       </c>
       <c r="G9">
-        <v>-0.1913106171437653</v>
+        <v>-0.1913106171437691</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.601708178552169</v>
       </c>
       <c r="G10">
-        <v>-0.1709504534472883</v>
+        <v>-0.1709504534472922</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.564787604550525</v>
       </c>
       <c r="G11">
-        <v>-0.1505902897508092</v>
+        <v>-0.1505902897508132</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.510579621807659</v>
       </c>
       <c r="G12">
-        <v>-0.1129427173131079</v>
+        <v>-0.1129427173131119</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.456371639064792</v>
       </c>
       <c r="G13">
-        <v>-0.07529514487540451</v>
+        <v>-0.07529514487540873</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.402163656321924</v>
       </c>
       <c r="G14">
-        <v>-0.03764757243770073</v>
+        <v>-0.03764757243770497</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.347955673579055</v>
       </c>
       <c r="G15">
-        <v>4.440892098500626e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-3.046285427804264</v>
       </c>
       <c r="G16">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-3.065933918614892</v>
       </c>
       <c r="G17">
-        <v>-0.02430041797309279</v>
+        <v>-0.024300417973107</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-3.085582409425521</v>
       </c>
       <c r="G18">
-        <v>-0.04860083594620024</v>
+        <v>-0.04860083594621356</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>-3.105230900236149</v>
       </c>
       <c r="G19">
-        <v>-0.07290125391930635</v>
+        <v>-0.07290125391931923</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.124879391046773</v>
+        <v>-3.123560603167988</v>
       </c>
       <c r="G20">
-        <v>-0.09588288401362366</v>
+        <v>-0.09588288401363609</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -878,7 +878,7 @@
         <v>-3.141890306099824</v>
       </c>
       <c r="G21">
-        <v>-0.1188645141079383</v>
+        <v>-0.1188645141079507</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.158901221152873</v>
+        <v>-3.158901221152875</v>
       </c>
       <c r="G22">
-        <v>-0.1405273563234659</v>
+        <v>-0.1405273563234792</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.175912136205922</v>
+        <v>-3.174593348327133</v>
       </c>
       <c r="G23">
-        <v>-0.1450250854097086</v>
+        <v>-0.1608714106602154</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.192923051258973</v>
+        <v>-3.191604263380184</v>
       </c>
       <c r="G24">
-        <v>-0.1812154649969435</v>
+        <v>-0.1825342528757443</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.207296390554448</v>
+        <v>-3.174080996788322</v>
       </c>
       <c r="G25">
-        <v>-0.2028783072124769</v>
+        <v>-0.1696629134463601</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.204504616720631</v>
+        <v>-3.189773123962585</v>
       </c>
       <c r="G26">
-        <v>-0.2047384605411389</v>
+        <v>-0.1900069677831016</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.218470045243427</v>
+        <v>-3.202623719992933</v>
       </c>
       <c r="G27">
-        <v>-0.2233558162264124</v>
+        <v>-0.207509490975927</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.232843384538906</v>
+        <v>-3.216793103902064</v>
       </c>
       <c r="G28">
-        <v>-0.2423810826843704</v>
+        <v>-0.2263308020475367</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.247216723834379</v>
+        <v>-3.215116162560697</v>
       </c>
       <c r="G29">
-        <v>-0.2614063491423209</v>
+        <v>-0.2293057878686469</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.242290340576418</v>
+        <v>-3.189979179643199</v>
       </c>
       <c r="G30">
-        <v>-0.2611318930468394</v>
+        <v>-0.2088207321136268</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.239090655969927</v>
+        <v>-3.194189255976002</v>
       </c>
       <c r="G31">
-        <v>-0.2625841356028267</v>
+        <v>-0.2176827356089079</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.232257373526935</v>
+        <v>-3.207039852006349</v>
       </c>
       <c r="G32">
-        <v>-0.2604027803223126</v>
+        <v>-0.2351852588017329</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.232691286756941</v>
+        <v>-3.200386770096916</v>
       </c>
       <c r="G33">
-        <v>-0.2654886207147973</v>
+        <v>-0.2331841040547782</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.229491602150447</v>
+        <v>-3.213441321513607</v>
       </c>
       <c r="G34">
-        <v>-0.2669408632707819</v>
+        <v>-0.2508905826339478</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.226291917543949</v>
+        <v>-3.171816762194007</v>
       </c>
       <c r="G35">
-        <v>-0.2596909319963363</v>
+        <v>-0.2139179504768249</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.223092232937459</v>
+        <v>-3.203588554997692</v>
       </c>
       <c r="G36">
-        <v>-0.2611431745523216</v>
+        <v>-0.2503416704429882</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.209407915868837</v>
+        <v>-3.197139428474598</v>
       </c>
       <c r="G37">
-        <v>-0.2608129584766072</v>
+        <v>-0.2485444710823725</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.213239466421539</v>
+        <v>-3.206152471282104</v>
       </c>
       <c r="G38">
-        <v>-0.2512142304682121</v>
+        <v>-0.2622094410523559</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.208313083163581</v>
+        <v>-3.204735245307315</v>
       </c>
       <c r="G39">
-        <v>-0.2637174435885767</v>
+        <v>-0.265444142240046</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.205113398557088</v>
+        <v>-3.190381905799032</v>
       </c>
       <c r="G40">
-        <v>-0.2494920371351683</v>
+        <v>-0.2557427298942403</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.200187015299124</v>
+        <v>-3.167678543252761</v>
       </c>
       <c r="G41">
-        <v>-0.2597708940749133</v>
+        <v>-0.2376912945104475</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.193533933389698</v>
+        <v>-3.175224602775381</v>
       </c>
       <c r="G42">
-        <v>-0.2612231366308959</v>
+        <v>-0.2498892811955453</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.186880851480266</v>
+        <v>-3.154372379433906</v>
       </c>
       <c r="G43">
-        <v>-0.2417710422007999</v>
+        <v>-0.233688985016548</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.180103329017512</v>
+        <v>-3.157932442370626</v>
       </c>
       <c r="G44">
-        <v>-0.2519720506094991</v>
+        <v>-0.2419009751157462</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.173450247108085</v>
+        <v>-3.168381671114154</v>
       </c>
       <c r="G45">
-        <v>-0.2431069406440582</v>
+        <v>-0.2570021310217523</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.166797165198654</v>
+        <v>-3.163455287856191</v>
       </c>
       <c r="G46">
-        <v>-0.2339721987353915</v>
+        <v>-0.2567276749262672</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.165448619796958</v>
+        <v>-3.14966861878505</v>
       </c>
       <c r="G47">
-        <v>-0.2476952850201215</v>
+        <v>-0.2475929330176037</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.144900347509837</v>
+        <v>-3.128090005307876</v>
       </c>
       <c r="G48">
-        <v>-0.2300256492217281</v>
+        <v>-0.2306662467029081</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.14355180210814</v>
+        <v>-3.123515772842354</v>
       </c>
       <c r="G49">
-        <v>-0.2383976069764422</v>
+        <v>-0.2307439413998644</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.136898720198711</v>
+        <v>-3.127608187105084</v>
       </c>
       <c r="G50">
-        <v>-0.2330324863362154</v>
+        <v>-0.2394882828250724</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.124996861761786</v>
+        <v>-3.107759794041631</v>
       </c>
       <c r="G51">
-        <v>-0.2274755822838148</v>
+        <v>-0.2242918169240968</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.115001902509896</v>
+        <v>-3.103826491392185</v>
       </c>
       <c r="G52">
-        <v>-0.2254744275368652</v>
+        <v>-0.225010441437129</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.110019759271698</v>
+        <v>-3.08743156302153</v>
       </c>
       <c r="G53">
-        <v>-0.2235290327701503</v>
+        <v>-0.2132674402289524</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.094776023492309</v>
+        <v>-3.072425201256891</v>
       </c>
       <c r="G54">
-        <v>-0.2112105255017717</v>
+        <v>-0.2029130056267907</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.087964829600126</v>
+        <v>-3.059010583521348</v>
       </c>
       <c r="G55">
-        <v>-0.2215917344440288</v>
+        <v>-0.1941503150537265</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.066738631860431</v>
+        <v>-3.049377190976808</v>
       </c>
       <c r="G56">
-        <v>-0.1970023834469092</v>
+        <v>-0.189168849671664</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.051494896081042</v>
+        <v>-3.046088007570797</v>
       </c>
       <c r="G57">
-        <v>-0.1950012286999626</v>
+        <v>-0.1905315934281304</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.036251160301652</v>
+        <v>-3.03105821114425</v>
       </c>
       <c r="G58">
-        <v>-0.1844094200830487</v>
+        <v>-0.1801537241640624</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.02698988648257</v>
+        <v>-3.013015778764267</v>
       </c>
       <c r="G59">
-        <v>-0.1807373266648673</v>
+        <v>-0.1667632189465569</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.007276515431353</v>
+        <v>-2.99518728573713</v>
       </c>
       <c r="G60">
-        <v>-0.1656758827761291</v>
+        <v>-0.1535866530818981</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.98756314438014</v>
+        <v>-2.983093509108314</v>
       </c>
       <c r="G61">
-        <v>-0.1506144388873945</v>
+        <v>-0.1461448036155598</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.967849773328925</v>
+        <v>-2.967849773328923</v>
       </c>
       <c r="G62">
-        <v>-0.1355529949986576</v>
+        <v>-0.135552994998647</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.948136402277709</v>
+        <v>-2.948136402277708</v>
       </c>
       <c r="G63">
-        <v>-0.1204915511099207</v>
+        <v>-0.1204915511099098</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.928423031226489</v>
+        <v>-2.928423031226492</v>
       </c>
       <c r="G64">
-        <v>-0.1054301072211788</v>
+        <v>-0.1054301072211722</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.908709660175276</v>
+        <v>-2.908709660175277</v>
       </c>
       <c r="G65">
-        <v>-0.09036866333244459</v>
+        <v>-0.09036866333243504</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1913,7 +1913,7 @@
         <v>-2.88899628912406</v>
       </c>
       <c r="G66">
-        <v>-0.07530721944370727</v>
+        <v>-0.07530721944369656</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>-2.869282918072844</v>
       </c>
       <c r="G67">
-        <v>-0.06024577555496899</v>
+        <v>-0.06024577555495758</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>-2.849569547021626</v>
       </c>
       <c r="G68">
-        <v>-0.04518433166622984</v>
+        <v>-0.04518433166621819</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>-2.829856175970409</v>
       </c>
       <c r="G69">
-        <v>-0.03012288777749116</v>
+        <v>-0.03012288777747879</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>-2.810142804919191</v>
       </c>
       <c r="G70">
-        <v>-0.01506144388875202</v>
+        <v>-0.0150614438887394</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>-2.790429433867974</v>
       </c>
       <c r="G71">
-        <v>-1.332267629550188e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>-3.263917972433557</v>
       </c>
       <c r="G72">
-        <v>2.087219286295294e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>-3.271269448587194</v>
       </c>
       <c r="G73">
-        <v>-0.009216339030004406</v>
+        <v>-0.009216339030025278</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>-3.278620924740831</v>
       </c>
       <c r="G74">
-        <v>-0.01843267806002968</v>
+        <v>-0.01843267806005011</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>-3.285972400894468</v>
       </c>
       <c r="G75">
-        <v>-0.02764901709005541</v>
+        <v>-0.02764901709007495</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2143,7 +2143,7 @@
         <v>-3.293323877048104</v>
       </c>
       <c r="G76">
-        <v>-0.03686535612008024</v>
+        <v>-0.03686535612009889</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.300675353201737</v>
+        <v>-3.297699436119212</v>
       </c>
       <c r="G77">
-        <v>-0.04608169515010063</v>
+        <v>-0.04310577806759497</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.308026829355379</v>
+        <v>-3.305050912272848</v>
       </c>
       <c r="G78">
-        <v>-0.04740814213580746</v>
+        <v>-0.05232211709761891</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.309426471343958</v>
+        <v>-3.308933047307674</v>
       </c>
       <c r="G79">
-        <v>-0.05856253904509812</v>
+        <v>-0.05806911500883194</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.318802654773416</v>
+        <v>-3.307465827832048</v>
       </c>
       <c r="G80">
-        <v>-0.06728545403884034</v>
+        <v>-0.05846675840959348</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.326611916697479</v>
+        <v>-3.310767632613553</v>
       </c>
       <c r="G81">
-        <v>-0.06698262489574969</v>
+        <v>-0.0636334260674869</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.324231653897186</v>
+        <v>-3.323555369494685</v>
       </c>
       <c r="G82">
-        <v>-0.07244324727826079</v>
+        <v>-0.07828602582500643</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2304,7 +2304,7 @@
         <v>-3.329462211805341</v>
       </c>
       <c r="G83">
-        <v>-0.07556280143855965</v>
+        <v>-0.08605773101205028</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.330960694550858</v>
+        <v>-3.328562221113886</v>
       </c>
       <c r="G84">
-        <v>-0.07694982112805882</v>
+        <v>-0.08702260319698274</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.338213329947553</v>
+        <v>-3.325675302233218</v>
       </c>
       <c r="G85">
-        <v>-0.07928779380376749</v>
+        <v>-0.08600054719270256</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.348505084917862</v>
+        <v>-3.331227873935938</v>
       </c>
       <c r="G86">
-        <v>-0.09525064995258692</v>
+        <v>-0.09341798177181104</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.336170274395798</v>
+        <v>-3.330811325728358</v>
       </c>
       <c r="G87">
-        <v>-0.09555836862655687</v>
+        <v>-0.09486629644061839</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.345969226034216</v>
+        <v>-3.321278750680885</v>
       </c>
       <c r="G88">
-        <v>-0.1078989813489555</v>
+        <v>-0.08719858426953309</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.352753240094705</v>
+        <v>-3.340286396295704</v>
       </c>
       <c r="G89">
-        <v>-0.1120338579158111</v>
+        <v>-0.1080710927607402</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.345368150114949</v>
+        <v>-3.332334476431095</v>
       </c>
       <c r="G90">
-        <v>-0.11452070858769</v>
+        <v>-0.101984035772519</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.353015652457846</v>
+        <v>-3.338532602880415</v>
       </c>
       <c r="G91">
-        <v>-0.1245300746756457</v>
+        <v>-0.1100470250982273</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.367305157168916</v>
+        <v>-3.353472899098749</v>
       </c>
       <c r="G92">
-        <v>-0.1238921302688372</v>
+        <v>-0.1268521841929484</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.352453227406527</v>
+        <v>-3.336018295309738</v>
       </c>
       <c r="G93">
-        <v>-0.121287778567265</v>
+        <v>-0.1112624432803253</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.360302306935507</v>
+        <v>-3.334039170979366</v>
       </c>
       <c r="G94">
-        <v>-0.1338830603652181</v>
+        <v>-0.1111481818263407</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.362621175593469</v>
+        <v>-3.361860256369612</v>
       </c>
       <c r="G95">
-        <v>-0.1234604913378003</v>
+        <v>-0.1408341300929745</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.369220694448478</v>
+        <v>-3.34824849437627</v>
       </c>
       <c r="G96">
-        <v>-0.1500594310482182</v>
+        <v>-0.1290872309760207</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.360984910023899</v>
+        <v>-3.347787992688768</v>
       </c>
       <c r="G97">
-        <v>-0.1295470881621616</v>
+        <v>-0.130491592164907</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.381307926873419</v>
+        <v>-3.354229889196986</v>
       </c>
       <c r="G98">
-        <v>-0.1658763892259358</v>
+        <v>-0.1387983515495126</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.365594091690292</v>
+        <v>-3.332478666458488</v>
       </c>
       <c r="G99">
-        <v>-0.1520274169191969</v>
+        <v>-0.1189119916874022</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.366216079485776</v>
+        <v>-3.35491812024542</v>
       </c>
       <c r="G100">
-        <v>-0.1545142675910691</v>
+        <v>-0.1432163083507225</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.369883543405971</v>
+        <v>-3.35472357800553</v>
       </c>
       <c r="G101">
-        <v>-0.1562493500911142</v>
+        <v>-0.1448866289872193</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.387014306906142</v>
+        <v>-3.341807263224316</v>
       </c>
       <c r="G102">
-        <v>-0.1790422207642113</v>
+        <v>-0.133835177082394</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.383372162670228</v>
+        <v>-3.371107416046489</v>
       </c>
       <c r="G103">
-        <v>-0.1772649394046857</v>
+        <v>-0.1650001927809539</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.380315358646943</v>
+        <v>-3.347127781692436</v>
       </c>
       <c r="G104">
-        <v>-0.1760729982577889</v>
+        <v>-0.1428854213032889</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.386222200957597</v>
+        <v>-3.360222072843039</v>
       </c>
       <c r="G105">
-        <v>-0.1838447034448314</v>
+        <v>-0.1578445753302802</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.393717118059263</v>
+        <v>-3.359571236945806</v>
       </c>
       <c r="G106">
-        <v>-0.1932044834228854</v>
+        <v>-0.1590586023094347</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.382189961163398</v>
+        <v>-3.351062678674917</v>
       </c>
       <c r="G107">
-        <v>-0.1835421894034086</v>
+        <v>-0.1524149069149345</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.38217433857945</v>
+        <v>-3.373000192460202</v>
       </c>
       <c r="G108">
-        <v>-0.1853914296958488</v>
+        <v>-0.1762172835766069</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.389119040093351</v>
+        <v>-3.376629055539107</v>
       </c>
       <c r="G109">
-        <v>-0.1942009940861382</v>
+        <v>-0.1817110095318997</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.405785778948895</v>
+        <v>-3.354124910438616</v>
       </c>
       <c r="G110">
-        <v>-0.2127325958180704</v>
+        <v>-0.161071727307796</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.383420656943792</v>
+        <v>-3.397082883376363</v>
       </c>
       <c r="G111">
-        <v>-0.1922323366893561</v>
+        <v>-0.2058945631219307</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.382764729876911</v>
+        <v>-3.364298760119309</v>
       </c>
       <c r="G112">
-        <v>-0.1934412724988626</v>
+        <v>-0.1749753027412644</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.403299133513724</v>
+        <v>-3.354233104766641</v>
       </c>
       <c r="G113">
-        <v>-0.2158405390120639</v>
+        <v>-0.1667745102649842</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.395795244888475</v>
+        <v>-3.353165103595891</v>
       </c>
       <c r="G114">
-        <v>-0.2102015132632036</v>
+        <v>-0.1675713719706224</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.391460565474456</v>
+        <v>-3.385057599381332</v>
       </c>
       <c r="G115">
-        <v>-0.2077316967255722</v>
+        <v>-0.2013287306324516</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.399749635372762</v>
+        <v>-3.392019155860754</v>
       </c>
       <c r="G116">
-        <v>-0.2178856295002665</v>
+        <v>-0.2101551499882608</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.41371753042258</v>
+        <v>-3.351582738558886</v>
       </c>
       <c r="G117">
-        <v>-0.2337183874264728</v>
+        <v>-0.17158359556278</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.416861196205883</v>
+        <v>-3.347815783540552</v>
       </c>
       <c r="G118">
-        <v>-0.2387269160861636</v>
+        <v>-0.1696815034208341</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.400826167367449</v>
+        <v>-3.36921920115613</v>
       </c>
       <c r="G119">
-        <v>-0.2245567501241181</v>
+        <v>-0.1929497839127996</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.397192085558805</v>
+        <v>-3.357407482761785</v>
       </c>
       <c r="G120">
-        <v>-0.2227875311918628</v>
+        <v>-0.1830029283948424</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.400249097666595</v>
+        <v>-3.358806395336462</v>
       </c>
       <c r="G121">
-        <v>-0.2277094061760407</v>
+        <v>-0.1862667038459076</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.407160402852832</v>
+        <v>-3.353365260018831</v>
       </c>
       <c r="G122">
-        <v>-0.236485574238666</v>
+        <v>-0.1826904314046645</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.397738962353664</v>
+        <v>-3.352103786639478</v>
       </c>
       <c r="G123">
-        <v>-0.2289289966158861</v>
+        <v>-0.1832938209016994</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.389047874153017</v>
+        <v>-3.362095994606526</v>
       </c>
       <c r="G124">
-        <v>-0.2221027712916275</v>
+        <v>-0.195150891745135</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.406784352451001</v>
+        <v>-3.375392045208953</v>
       </c>
       <c r="G125">
-        <v>-0.2417041124659995</v>
+        <v>-0.2103118052239505</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.400487468206923</v>
+        <v>-3.365216416226485</v>
       </c>
       <c r="G126">
-        <v>-0.2372720910983097</v>
+        <v>-0.202001039117869</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.395681752131675</v>
+        <v>-3.372336834121696</v>
       </c>
       <c r="G127">
-        <v>-0.2343312378994495</v>
+        <v>-0.2109863198894688</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.401910068740166</v>
+        <v>-3.358920950329406</v>
       </c>
       <c r="G128">
-        <v>-0.2424244173843291</v>
+        <v>-0.1994352989735662</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.395964884915497</v>
+        <v>-3.364391774308705</v>
       </c>
       <c r="G129">
-        <v>-0.2383440964360484</v>
+        <v>-0.206770985829253</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.39759711806028</v>
+        <v>-3.348287904440812</v>
       </c>
       <c r="G130">
-        <v>-0.2418411924572201</v>
+        <v>-0.1925319788377484</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.396673578107697</v>
+        <v>-3.366719089339022</v>
       </c>
       <c r="G131">
-        <v>-0.2427825153810244</v>
+        <v>-0.2128280266123457</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.39507878431163</v>
+        <v>-3.356900333920905</v>
       </c>
       <c r="G132">
-        <v>-0.2430525844613465</v>
+        <v>-0.2048741340706164</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.397564611248257</v>
+        <v>-3.356072937156881</v>
       </c>
       <c r="G133">
-        <v>-0.2474032742743613</v>
+        <v>-0.2059116001829804</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.393954717216191</v>
+        <v>-3.343897318692241</v>
       </c>
       <c r="G134">
-        <v>-0.245658243118684</v>
+        <v>-0.1956008445947288</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.393859560925109</v>
+        <v>-3.342574263570707</v>
       </c>
       <c r="G135">
-        <v>-0.24742794970399</v>
+        <v>-0.1961426523495824</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.390402922702429</v>
+        <v>-3.357047253098005</v>
       </c>
       <c r="G136">
-        <v>-0.245836174357698</v>
+        <v>-0.2124805047532679</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.38797974524487</v>
+        <v>-3.367706778222426</v>
       </c>
       <c r="G137">
-        <v>-0.2452778597765273</v>
+        <v>-0.2250048927540771</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.382378733277032</v>
+        <v>-3.346905542557779</v>
       </c>
       <c r="G138">
-        <v>-0.2415417106850781</v>
+        <v>-0.2060685199658177</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.382157415458783</v>
+        <v>-3.3460683121662</v>
       </c>
       <c r="G139">
-        <v>-0.2431852557432173</v>
+        <v>-0.2070961524506263</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.376492757794445</v>
+        <v>-3.327436189244132</v>
       </c>
       <c r="G140">
-        <v>-0.2393854609552675</v>
+        <v>-0.1903288924049467</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.374937627394661</v>
+        <v>-3.326882024996823</v>
       </c>
       <c r="G141">
-        <v>-0.2396951934318716</v>
+        <v>-0.1916395910340254</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.366121521467487</v>
+        <v>-3.337406493745705</v>
       </c>
       <c r="G142">
-        <v>-0.2327439503810855</v>
+        <v>-0.2040289226592951</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.366670572046974</v>
+        <v>-3.339524056991434</v>
       </c>
       <c r="G143">
-        <v>-0.2351578638369609</v>
+        <v>-0.2080113487814117</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.363949587650327</v>
+        <v>-3.323082578643398</v>
       </c>
       <c r="G144">
-        <v>-0.2343017423167018</v>
+        <v>-0.1934347333097637</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.358264067408352</v>
+        <v>-3.340655537802947</v>
       </c>
       <c r="G145">
-        <v>-0.2304810849511152</v>
+        <v>-0.2128725553457</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.354628208959895</v>
+        <v>-3.330122043869404</v>
       </c>
       <c r="G146">
-        <v>-0.2287100893790459</v>
+        <v>-0.2042039242885454</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.351800795747896</v>
+        <v>-3.320518507548334</v>
       </c>
       <c r="G147">
-        <v>-0.2277475390434356</v>
+        <v>-0.1964652508438627</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.348810981012564</v>
+        <v>-3.335090225199724</v>
       </c>
       <c r="G148">
-        <v>-0.2266225871844918</v>
+        <v>-0.2129018313716404</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.34176462580907</v>
+        <v>-3.320520739820037</v>
       </c>
       <c r="G149">
-        <v>-0.2214410948573859</v>
+        <v>-0.2001972088683412</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.340161610451658</v>
+        <v>-3.323599663385989</v>
       </c>
       <c r="G150">
-        <v>-0.2217029423763626</v>
+        <v>-0.2051409953106813</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.339502445746473</v>
+        <v>-3.326244250925645</v>
       </c>
       <c r="G151">
-        <v>-0.222908640547566</v>
+        <v>-0.2096504457267252</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.333217893947759</v>
+        <v>-3.305737745234695</v>
       </c>
       <c r="G152">
-        <v>-0.2180753849945136</v>
+        <v>-0.1910088029121633</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.327790815204598</v>
+        <v>-3.305386093128206</v>
       </c>
       <c r="G153">
-        <v>-0.2149267357584668</v>
+        <v>-0.1925220136820609</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.326625432432644</v>
+        <v>-3.30173432119394</v>
       </c>
       <c r="G154">
-        <v>-0.2156262158629012</v>
+        <v>-0.190735104624183</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.319362390024753</v>
+        <v>-3.285312131222043</v>
       </c>
       <c r="G155">
-        <v>-0.2102280363313982</v>
+        <v>-0.1761777775286739</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.319656838615048</v>
+        <v>-3.315315025029797</v>
       </c>
       <c r="G156">
-        <v>-0.2123873477980818</v>
+        <v>-0.208045534212816</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.31690202417031</v>
+        <v>-3.300238048927427</v>
       </c>
       <c r="G157">
-        <v>-0.208183739086752</v>
+        <v>-0.1948334209868339</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.309667495670269</v>
+        <v>-3.304602720193132</v>
       </c>
       <c r="G158">
-        <v>-0.2061277306060796</v>
+        <v>-0.2010629551289269</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.307646025517744</v>
+        <v>-3.284085649134858</v>
       </c>
       <c r="G159">
-        <v>-0.2051600784317049</v>
+        <v>-0.18241074694704</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.30883717243037</v>
+        <v>-3.298696732219732</v>
       </c>
       <c r="G160">
-        <v>-0.2046654095470251</v>
+        <v>-0.1988866929083017</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.30087809371065</v>
+        <v>-3.269669380835914</v>
       </c>
       <c r="G161">
-        <v>-0.1953160081515855</v>
+        <v>-0.1717242044008722</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.298411755203607</v>
+        <v>-3.295684021417797</v>
       </c>
       <c r="G162">
-        <v>-0.1982869913402263</v>
+        <v>-0.1996037078591433</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.293413858803531</v>
+        <v>-3.292086059108354</v>
       </c>
       <c r="G163">
-        <v>-0.1965887871785903</v>
+        <v>-0.1978706084260877</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.289164080860678</v>
+        <v>-3.273892961131966</v>
       </c>
       <c r="G164">
-        <v>-0.1942320050504329</v>
+        <v>-0.1815423733260879</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.286121245937419</v>
+        <v>-3.283466481980126</v>
       </c>
       <c r="G165">
-        <v>-0.1930936230284863</v>
+        <v>-0.1929807570506354</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.279583546548877</v>
+        <v>-3.272766181836764</v>
       </c>
       <c r="G166">
-        <v>-0.1897314608259948</v>
+        <v>-0.1841453197836607</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.27591042865137</v>
+        <v>-3.277967898245988</v>
       </c>
       <c r="G167">
-        <v>-0.1882686901720116</v>
+        <v>-0.1912118990692731</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.275899464197962</v>
+        <v>-3.274277445613884</v>
       </c>
       <c r="G168">
-        <v>-0.1877188659690363</v>
+        <v>-0.1893863093135564</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.273956657928005</v>
+        <v>-3.259641629399721</v>
       </c>
       <c r="G169">
-        <v>-0.184863136134793</v>
+        <v>-0.1766153559757808</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.26733727640985</v>
+        <v>-3.268381610376572</v>
       </c>
       <c r="G170">
-        <v>-0.1822427875606667</v>
+        <v>-0.1872201998290199</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.261392578054374</v>
+        <v>-3.26247213256952</v>
       </c>
       <c r="G171">
-        <v>-0.1782741905259428</v>
+        <v>-0.1831755848983563</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.259228449089012</v>
+        <v>-3.257327285188913</v>
       </c>
       <c r="G172">
-        <v>-0.1769419380976638</v>
+        <v>-0.1798956003941368</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.255099088696018</v>
+        <v>-3.242745782448386</v>
       </c>
       <c r="G173">
-        <v>-0.1770973042065336</v>
+        <v>-0.1671789605299978</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.247694263209525</v>
+        <v>-3.250518107330272</v>
       </c>
       <c r="G174">
-        <v>-0.1717491259070295</v>
+        <v>-0.1768161482882717</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.247789690518993</v>
+        <v>-3.243822556539383</v>
       </c>
       <c r="G175">
-        <v>-0.1716629509534494</v>
+        <v>-0.1719854603737707</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.241956785620352</v>
+        <v>-3.23224824164912</v>
       </c>
       <c r="G176">
-        <v>-0.166210726661997</v>
+        <v>-0.1622760083598945</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.236373912695765</v>
+        <v>-3.227111441476903</v>
       </c>
       <c r="G177">
-        <v>-0.1682146137973767</v>
+        <v>-0.1590040710640661</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.234167422442597</v>
+        <v>-3.228958169490958</v>
       </c>
       <c r="G178">
-        <v>-0.1629211689851181</v>
+        <v>-0.1627156619545089</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.227204095718613</v>
+        <v>-3.224396311062051</v>
       </c>
       <c r="G179">
-        <v>-0.156634663703199</v>
+        <v>-0.1600186664019895</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.222523481472382</v>
+        <v>-3.212667580608398</v>
       </c>
       <c r="G180">
-        <v>-0.1588408021639173</v>
+        <v>-0.1501547988247237</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.216468872555873</v>
+        <v>-3.211942153118274</v>
       </c>
       <c r="G181">
-        <v>-0.1523854657626906</v>
+        <v>-0.1512942342109882</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.214392388805822</v>
+        <v>-3.208643359249673</v>
       </c>
       <c r="G182">
-        <v>-0.1542044758210654</v>
+        <v>-0.1498603032187746</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.208910814332524</v>
+        <v>-3.199294174832537</v>
       </c>
       <c r="G183">
-        <v>-0.1499525603210694</v>
+        <v>-0.142375981678027</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.200872911716354</v>
+        <v>-3.194230867354485</v>
       </c>
       <c r="G184">
-        <v>-0.1421662452124993</v>
+        <v>-0.1391775370763627</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.198494678612338</v>
+        <v>-3.1982102207162</v>
       </c>
       <c r="G185">
-        <v>-0.1430655934716479</v>
+        <v>-0.145021753314465</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.194502891198111</v>
+        <v>-3.18800895470952</v>
       </c>
       <c r="G186">
-        <v>-0.1403912001375709</v>
+        <v>-0.1366853501841727</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.189942772410006</v>
+        <v>-3.185065713738802</v>
       </c>
       <c r="G187">
-        <v>-0.1361167276166148</v>
+        <v>-0.1356069720898425</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.183811291258322</v>
+        <v>-3.177928365649461</v>
       </c>
       <c r="G188">
-        <v>-0.1345941216366167</v>
+        <v>-0.1303344868768902</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.1783107003409</v>
+        <v>-3.173936045715689</v>
       </c>
       <c r="G189">
-        <v>-0.132223909345452</v>
+        <v>-0.1282070298195056</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.172744646465995</v>
+        <v>-3.169072256220062</v>
       </c>
       <c r="G190">
-        <v>-0.1264174505315597</v>
+        <v>-0.1252081032002661</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.168536593678417</v>
+        <v>-3.171349775340013</v>
       </c>
       <c r="G191">
-        <v>-0.1236157654572752</v>
+        <v>-0.1293504851966054</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.165280881921249</v>
+        <v>-3.160364548718647</v>
       </c>
       <c r="G192">
-        <v>-0.1167464929224312</v>
+        <v>-0.1202301214516269</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.159851154813457</v>
+        <v>-3.158885250438606</v>
       </c>
       <c r="G193">
-        <v>-0.1172999349833937</v>
+        <v>-0.1206156860479736</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.15391621588835</v>
+        <v>-3.151790085495331</v>
       </c>
       <c r="G194">
-        <v>-0.1128784996368042</v>
+        <v>-0.1153853839810868</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.146572625193246</v>
+        <v>-3.144670059406788</v>
       </c>
       <c r="G195">
-        <v>-0.112032786555421</v>
+        <v>-0.1101302207689309</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.140994890267179</v>
+        <v>-3.133095112251813</v>
       </c>
       <c r="G196">
-        <v>-0.1063486011840238</v>
+        <v>-0.100420136490344</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.137391156037452</v>
+        <v>-3.133935572387932</v>
       </c>
       <c r="G197">
-        <v>-0.1014089168156204</v>
+        <v>-0.1031254595028511</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.132441289621505</v>
+        <v>-3.124822484198591</v>
       </c>
       <c r="G198">
-        <v>-0.09646307264487802</v>
+        <v>-0.09587723418989774</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.125261697524175</v>
+        <v>-3.119840457404162</v>
       </c>
       <c r="G199">
-        <v>-0.09575542573426837</v>
+        <v>-0.09276007027185718</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.118967172125306</v>
+        <v>-3.11830271645841</v>
       </c>
       <c r="G200">
-        <v>-0.09235398900037206</v>
+        <v>-0.09308719220249245</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.11224512084049</v>
+        <v>-3.108340606804674</v>
       </c>
       <c r="G201">
-        <v>-0.08831664443039933</v>
+        <v>-0.08498994542514426</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.107202956937019</v>
+        <v>-3.106650165061993</v>
       </c>
       <c r="G202">
-        <v>-0.08571715843391098</v>
+        <v>-0.08516436655885068</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.101708909072259</v>
+        <v>-3.099214276879367</v>
       </c>
       <c r="G203">
-        <v>-0.08100674777082512</v>
+        <v>-0.07959334125261286</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.094333157998679</v>
+        <v>-3.092707750875149</v>
       </c>
       <c r="G204">
-        <v>-0.07645681103026281</v>
+        <v>-0.07495167812478248</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.089331764899902</v>
+        <v>-3.084792002000676</v>
       </c>
       <c r="G205">
-        <v>-0.07344055502595881</v>
+        <v>-0.0689007921266972</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.08445064601921</v>
+        <v>-3.078304271200542</v>
       </c>
       <c r="G206">
-        <v>-0.07042429902165476</v>
+        <v>-0.06427792420295148</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.078292142487552</v>
+        <v>-3.074640399861777</v>
       </c>
       <c r="G207">
-        <v>-0.06613065836638504</v>
+        <v>-0.06247891574057335</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.07091639141397</v>
+        <v>-3.068481896330117</v>
       </c>
       <c r="G208">
-        <v>-0.06061977016919098</v>
+        <v>-0.05818527508530216</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.063540640340385</v>
+        <v>-3.05988889771461</v>
       </c>
       <c r="G209">
-        <v>-0.05510888197199468</v>
+        <v>-0.05145713934618276</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.056164889266803</v>
+        <v>-3.053158236003578</v>
       </c>
       <c r="G210">
-        <v>-0.04959799377480062</v>
+        <v>-0.04659134051153879</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.048789138193218</v>
+        <v>-3.047571890651295</v>
       </c>
       <c r="G211">
-        <v>-0.0440871055776039</v>
+        <v>-0.04286985803564253</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.041413387119636</v>
+        <v>-3.040196139577711</v>
       </c>
       <c r="G212">
-        <v>-0.03857621738041037</v>
+        <v>-0.03735896983844664</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.034037636046055</v>
+        <v>-3.034037636046053</v>
       </c>
       <c r="G213">
-        <v>-0.03306532918321808</v>
+        <v>-0.0330653291831772</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.026661884972471</v>
+        <v>-3.026661884972472</v>
       </c>
       <c r="G214">
-        <v>-0.02755444098602181</v>
+        <v>-0.027554440985983</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5340,7 +5340,7 @@
         <v>-3.019286133898886</v>
       </c>
       <c r="G215">
-        <v>-0.02204355278882553</v>
+        <v>-0.02204355278878524</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5360,10 +5360,10 @@
         <v>144</v>
       </c>
       <c r="F216">
-        <v>-3.011910382825305</v>
+        <v>-3.011910382825304</v>
       </c>
       <c r="G216">
-        <v>-0.01653266459163191</v>
+        <v>-0.01653266459159104</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>-3.004534631751719</v>
       </c>
       <c r="G217">
-        <v>-0.01102177639443475</v>
+        <v>-0.01102177639439462</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5409,7 +5409,7 @@
         <v>-2.997158880678134</v>
       </c>
       <c r="G218">
-        <v>-0.005510888197238023</v>
+        <v>-0.005510888197196865</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5432,7 +5432,7 @@
         <v>-2.989783129604549</v>
       </c>
       <c r="G219">
-        <v>-4.130029651605582e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>-3.38599632153265</v>
       </c>
       <c r="G220">
-        <v>3.241851231905457e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.441664601894059</v>
+        <v>-3.433479623842082</v>
       </c>
       <c r="G221">
-        <v>-0.07525543451871908</v>
+        <v>-0.07509380158038681</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.468922505026586</v>
+        <v>-3.455977100954281</v>
       </c>
       <c r="G222">
-        <v>-0.1390675320115298</v>
+        <v>-0.1261221279392388</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.489165265378913</v>
+        <v>-3.462892534008497</v>
       </c>
       <c r="G223">
-        <v>-0.1878411416105181</v>
+        <v>-0.161568410240108</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.477290594435865</v>
+        <v>-3.451768665709797</v>
       </c>
       <c r="G224">
-        <v>-0.2044973199141329</v>
+        <v>-0.1789753911880618</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.451951875596751</v>
+        <v>-3.432315842155792</v>
       </c>
       <c r="G225">
-        <v>-0.2076894503216815</v>
+        <v>-0.1880534168807109</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.411676230699178</v>
+        <v>-3.387766479263078</v>
       </c>
       <c r="G226">
-        <v>-0.1959446546707704</v>
+        <v>-0.1720349032346495</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.351981791835195</v>
+        <v>-3.347055648661194</v>
       </c>
       <c r="G227">
-        <v>-0.1647133435666142</v>
+        <v>-0.1598549218794196</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.28362928659911</v>
+        <v>-3.2836091054567</v>
       </c>
       <c r="G228">
-        <v>-0.1218029128506266</v>
+        <v>-0.124939227921579</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.202822879720085</v>
+        <v>-3.199739150630081</v>
       </c>
       <c r="G229">
-        <v>-0.07086626994288031</v>
+        <v>-0.06960012234161345</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5685,7 +5685,7 @@
         <v>-3.101608179041814</v>
       </c>
       <c r="G230">
-        <v>-5.595524044110789e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>-3.463772660868219</v>
       </c>
       <c r="G231">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.505856079182125</v>
+        <v>-3.504555419826335</v>
       </c>
       <c r="G232">
-        <v>-0.07112361466543282</v>
+        <v>-0.06982295530925553</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.529827473575495</v>
+        <v>-3.525037829244817</v>
       </c>
       <c r="G233">
-        <v>-0.1230438277634422</v>
+        <v>-0.1193455610788772</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.542586794441924</v>
+        <v>-3.525571937896564</v>
       </c>
       <c r="G234">
-        <v>-0.1659347226273753</v>
+        <v>-0.1489198660817626</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.536639291781556</v>
+        <v>-3.526747262557631</v>
       </c>
       <c r="G235">
-        <v>-0.1890274163180785</v>
+        <v>-0.1791353870939694</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.502565097014314</v>
+        <v>-3.498725789516322</v>
       </c>
       <c r="G236">
-        <v>-0.1839934179019083</v>
+        <v>-0.1801541104037991</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.469772691296173</v>
+        <v>-3.45856387348518</v>
       </c>
       <c r="G237">
-        <v>-0.1802412085348393</v>
+        <v>-0.1690323907237965</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.416056726038409</v>
+        <v>-3.409572823354324</v>
       </c>
       <c r="G238">
-        <v>-0.1555654396281465</v>
+        <v>-0.1490815369440799</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.35071770730235</v>
+        <v>-3.347047239311745</v>
       </c>
       <c r="G239">
-        <v>-0.1169211744199704</v>
+        <v>-0.1155961492526403</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.269888254869889</v>
+        <v>-3.26748182752066</v>
       </c>
       <c r="G240">
-        <v>-0.06627246661028058</v>
+        <v>-0.06507093381269408</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>-3.172852122421985</v>
       </c>
       <c r="G241">
-        <v>2.220446049250313e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>-3.517558765035645</v>
       </c>
       <c r="G242">
-        <v>-5.364597654988756e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.550142014236223</v>
+        <v>-3.549354001275003</v>
       </c>
       <c r="G243">
-        <v>-0.06203102449809883</v>
+        <v>-0.06124301153638934</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.572438945343145</v>
+        <v>-3.568342481138025</v>
       </c>
       <c r="G244">
-        <v>-0.109329908782009</v>
+        <v>-0.1096792666964426</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.583863152423333</v>
+        <v>-3.56406862473506</v>
       </c>
       <c r="G245">
-        <v>-0.1546477132791773</v>
+        <v>-0.1348531855905084</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.571475020187506</v>
+        <v>-3.567306317027223</v>
       </c>
       <c r="G246">
-        <v>-0.1720274408544329</v>
+        <v>-0.1678587376938014</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.54812422074642</v>
+        <v>-3.542166610077758</v>
       </c>
       <c r="G247">
-        <v>-0.1781244167103304</v>
+        <v>-0.1721668060413666</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.504421540201422</v>
+        <v>-3.496099487911208</v>
       </c>
       <c r="G248">
-        <v>-0.163869511462317</v>
+        <v>-0.1555474591718482</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.458948809340267</v>
+        <v>-3.449305063378797</v>
       </c>
       <c r="G249">
-        <v>-0.1481646404122436</v>
+        <v>-0.1385208944505665</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.391444476244881</v>
+        <v>-3.388788746806763</v>
       </c>
       <c r="G250">
-        <v>-0.1101080826138412</v>
+        <v>-0.1074523531755635</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.315158310422232</v>
+        <v>-3.314340185388118</v>
       </c>
       <c r="G251">
-        <v>-0.0625844238297395</v>
+        <v>-0.06245156705394911</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>-3.222120758523039</v>
       </c>
       <c r="G252">
-        <v>-6.572520305780927e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6214,7 +6214,7 @@
         <v>-3.556935473849069</v>
       </c>
       <c r="G253">
-        <v>-7.287503933639528e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.589748863047773</v>
+        <v>-3.588838581863905</v>
       </c>
       <c r="G254">
-        <v>-0.06258234917644723</v>
+        <v>-0.06167206799187186</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.606117436060258</v>
+        <v>-3.602644452180849</v>
       </c>
       <c r="G255">
-        <v>-0.1089310095416716</v>
+        <v>-0.1054580256615738</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.609428941692467</v>
+        <v>-3.6016625567368</v>
       </c>
       <c r="G256">
-        <v>-0.1420114751508956</v>
+        <v>-0.1342450901945598</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.595115001696769</v>
+        <v>-3.589412745699939</v>
       </c>
       <c r="G257">
-        <v>-0.1576776225079355</v>
+        <v>-0.1519753665104568</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.576943718376927</v>
+        <v>-3.569122121888711</v>
       </c>
       <c r="G258">
-        <v>-0.169275299165109</v>
+        <v>-0.1614537026762639</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.537272194045017</v>
+        <v>-3.532286035958444</v>
       </c>
       <c r="G259">
-        <v>-0.1595838621859369</v>
+        <v>-0.1545977040987547</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.486838988289282</v>
+        <v>-3.481529959770415</v>
       </c>
       <c r="G260">
-        <v>-0.1389196164072168</v>
+        <v>-0.1336105878877607</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.425513204383097</v>
+        <v>-3.418824561263473</v>
       </c>
       <c r="G261">
-        <v>-0.1075739198537705</v>
+        <v>-0.1008852767335773</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.348959621800549</v>
+        <v>-3.34624764778426</v>
       </c>
       <c r="G262">
-        <v>-0.06078929724823712</v>
+        <v>-0.0580773232313993</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>-3.258190237200103</v>
       </c>
       <c r="G263">
-        <v>-5.293543381412746e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>-3.586994326131439</v>
       </c>
       <c r="G264">
-        <v>-7.189804307472514e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.614358253031765</v>
+        <v>-3.611651984221388</v>
       </c>
       <c r="G265">
-        <v>-0.0565909962233202</v>
+        <v>-0.05468212199645883</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.627315235450638</v>
+        <v>-3.622106208895369</v>
       </c>
       <c r="G266">
-        <v>-0.1005162979325194</v>
+        <v>-0.09530727137649508</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.632651458510412</v>
+        <v>-3.623845434984168</v>
       </c>
       <c r="G267">
-        <v>-0.1360234456983656</v>
+        <v>-0.127217422171348</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.621362936279268</v>
+        <v>-3.6120524473997</v>
       </c>
       <c r="G268">
-        <v>-0.1547593873737507</v>
+        <v>-0.1454488984933913</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.595498241125088</v>
+        <v>-3.587044082978032</v>
       </c>
       <c r="G269">
-        <v>-0.1590656169256441</v>
+        <v>-0.1506114587777778</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.557983662425814</v>
+        <v>-3.54733854698898</v>
       </c>
       <c r="G270">
-        <v>-0.1517219629324427</v>
+        <v>-0.1410768474947803</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.506321351390999</v>
+        <v>-3.502845226819909</v>
       </c>
       <c r="G271">
-        <v>-0.1300841158041566</v>
+        <v>-0.1266079912322207</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.44941112735984</v>
+        <v>-3.44176755503919</v>
       </c>
       <c r="G272">
-        <v>-0.10334481647907</v>
+        <v>-0.09570124415755543</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.37434398082382</v>
+        <v>-3.371662713309731</v>
       </c>
       <c r="G273">
-        <v>-0.05844859464912355</v>
+        <v>-0.05576732713415117</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>-3.285724461469525</v>
       </c>
       <c r="G274">
-        <v>-9.00612917575927e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>-3.610685827881414</v>
       </c>
       <c r="G275">
-        <v>6.146194664324867e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.634963482740108</v>
+        <v>-3.634105422772206</v>
       </c>
       <c r="G276">
-        <v>-0.05378612425528972</v>
+        <v>-0.05365043309034645</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.651379475867535</v>
+        <v>-3.646140871813088</v>
       </c>
       <c r="G277">
-        <v>-0.1012610266162337</v>
+        <v>-0.09602242256225102</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.650195831889802</v>
+        <v>-3.642025010469748</v>
       </c>
       <c r="G278">
-        <v>-0.1304139230695989</v>
+        <v>-0.1222431016499339</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.63824041043456</v>
+        <v>-3.630662746447314</v>
       </c>
       <c r="G279">
-        <v>-0.1487950420454531</v>
+        <v>-0.1412173780585211</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.616992065838857</v>
+        <v>-3.59793927097433</v>
       </c>
       <c r="G280">
-        <v>-0.1578832378808481</v>
+        <v>-0.1388304430165597</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.573604950446552</v>
+        <v>-3.566467957766454</v>
       </c>
       <c r="G281">
-        <v>-0.1448326629196401</v>
+        <v>-0.1376956702397052</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.523687068924358</v>
+        <v>-3.520344638961703</v>
       </c>
       <c r="G282">
-        <v>-0.1252513218285436</v>
+        <v>-0.121908891865977</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.468228836776008</v>
+        <v>-3.461579184538378</v>
       </c>
       <c r="G283">
-        <v>-0.1001296301112915</v>
+        <v>-0.09347997787367435</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.395454038546074</v>
+        <v>-3.390561135132503</v>
       </c>
       <c r="G284">
-        <v>-0.05769137231245464</v>
+        <v>-0.05279846889882123</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>-3.30742612580266</v>
       </c>
       <c r="G285">
-        <v>-1.381117442633695e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>-3.62983586399244</v>
       </c>
       <c r="G286">
-        <v>2.210676086633612e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.653218696480204</v>
+        <v>-3.65230549042191</v>
       </c>
       <c r="G287">
-        <v>-0.0528952813194854</v>
+        <v>-0.05294856114196955</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.665436971134482</v>
+        <v>-3.658361007736722</v>
       </c>
       <c r="G288">
-        <v>-0.09655897656491108</v>
+        <v>-0.0894830131692812</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.663410588522057</v>
+        <v>-3.653194428856366</v>
       </c>
       <c r="G289">
-        <v>-0.1250115286650257</v>
+        <v>-0.114795369001425</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.650062956980907</v>
+        <v>-3.637325243415809</v>
       </c>
       <c r="G290">
-        <v>-0.142142831836416</v>
+        <v>-0.1294051182733678</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.624250044068488</v>
+        <v>-3.612823762776032</v>
       </c>
       <c r="G291">
-        <v>-0.1468088536365368</v>
+        <v>-0.1353825723460902</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.586459388261531</v>
+        <v>-3.577959856262119</v>
       </c>
       <c r="G292">
-        <v>-0.1394971325421199</v>
+        <v>-0.1309976005446769</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.538796477226692</v>
+        <v>-3.531595119992692</v>
       </c>
       <c r="G293">
-        <v>-0.122313156219821</v>
+        <v>-0.1151117989877499</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.482809619975074</v>
+        <v>-3.474382512187547</v>
       </c>
       <c r="G294">
-        <v>-0.09680523368074245</v>
+        <v>-0.08837812589510396</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.412602750706797</v>
+        <v>-3.406741949180842</v>
       </c>
       <c r="G295">
-        <v>-0.0570772991250052</v>
+        <v>-0.0512164976008988</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>-3.324967759930202</v>
       </c>
       <c r="G296">
-        <v>1.808331262509455e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7226,7 +7226,7 @@
         <v>-3.645634132762194</v>
       </c>
       <c r="G297">
-        <v>2.102762408640046e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,10 +7246,10 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.667528549335481</v>
+        <v>-3.666358387933484</v>
       </c>
       <c r="G298">
-        <v>-0.05138908676159337</v>
+        <v>-0.05132568274001459</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7269,10 +7269,10 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.678255966690771</v>
+        <v>-3.671607660046684</v>
       </c>
       <c r="G299">
-        <v>-0.09382468906373109</v>
+        <v>-0.08717638242194026</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7292,10 +7292,10 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.676020981425814</v>
+        <v>-3.667974088559533</v>
       </c>
       <c r="G300">
-        <v>-0.1221911313674018</v>
+        <v>-0.1141442385035143</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.661171990343892</v>
+        <v>-3.649473838163458</v>
       </c>
       <c r="G301">
-        <v>-0.1380038068847549</v>
+        <v>-0.1263056547068122</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.638143188151026</v>
+        <v>-3.623734150198647</v>
       </c>
       <c r="G302">
-        <v>-0.1455764322605178</v>
+        <v>-0.1311673943107259</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.597452361805304</v>
+        <v>-3.587524401580485</v>
       </c>
       <c r="G303">
-        <v>-0.1354870334834235</v>
+        <v>-0.1255590732612892</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.547771008544313</v>
+        <v>-3.541464441568029</v>
       </c>
       <c r="G304">
-        <v>-0.1164673468217083</v>
+        <v>-0.1101607798482054</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.495361255809817</v>
+        <v>-3.486483163442399</v>
       </c>
       <c r="G305">
-        <v>-0.09465902165584028</v>
+        <v>-0.08578092929130066</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,10 +7430,10 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.426267557883536</v>
+        <v>-3.420095090248176</v>
       </c>
       <c r="G306">
-        <v>-0.05616675129818777</v>
+        <v>-0.04999428366580361</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7456,7 +7456,7 @@
         <v>-3.339439139983</v>
       </c>
       <c r="G307">
-        <v>3.072653242952583e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7479,7 +7479,7 @@
         <v>-3.658888680789056</v>
       </c>
       <c r="G308">
-        <v>-2.140509991477302e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.679320877274744</v>
+        <v>-3.677373427408072</v>
       </c>
       <c r="G309">
-        <v>-0.04911139799225239</v>
+        <v>-0.04919202166132131</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,10 +7522,10 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.688930022765788</v>
+        <v>-3.682635109651574</v>
       </c>
       <c r="G310">
-        <v>-0.09150298910830479</v>
+        <v>-0.08520807599474001</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7545,10 +7545,10 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.683913371260096</v>
+        <v>-3.675368657734217</v>
       </c>
       <c r="G311">
-        <v>-0.117193612644487</v>
+        <v>-0.1086488991196881</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,10 +7568,10 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.669107980356257</v>
+        <v>-3.659526031672565</v>
       </c>
       <c r="G312">
-        <v>-0.133142593830132</v>
+        <v>-0.1235606451479523</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7591,10 +7591,10 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.645013206403528</v>
+        <v>-3.63214121431943</v>
       </c>
       <c r="G313">
-        <v>-0.1397550949192778</v>
+        <v>-0.126883102837124</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.604903153935364</v>
+        <v>-3.59501883629391</v>
       </c>
       <c r="G314">
-        <v>-0.1303994145405991</v>
+        <v>-0.1205150969015198</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.561158358514219</v>
+        <v>-3.551949850174041</v>
       </c>
       <c r="G315">
-        <v>-0.1173618941613284</v>
+        <v>-0.1081533858239563</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.50371630110471</v>
+        <v>-3.49503712968235</v>
       </c>
       <c r="G316">
-        <v>-0.09067420884130406</v>
+        <v>-0.0819950374221815</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.437521259228201</v>
+        <v>-3.430220463593963</v>
       </c>
       <c r="G317">
-        <v>-0.05518644200666911</v>
+        <v>-0.04788564637610015</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7709,7 +7709,7 @@
         <v>-3.351580445127946</v>
       </c>
       <c r="G318">
-        <v>4.101163852965328e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7732,7 +7732,7 @@
         <v>-3.670167416996026</v>
       </c>
       <c r="G319">
-        <v>-1.838973417989109e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7752,10 +7752,10 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.689104415219495</v>
+        <v>-3.688595096559755</v>
       </c>
       <c r="G320">
-        <v>-0.0497362912789332</v>
+        <v>-0.0492269726180341</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7775,10 +7775,10 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.698231626181721</v>
+        <v>-3.690325932408124</v>
       </c>
       <c r="G321">
-        <v>-0.08970030965904119</v>
+        <v>-0.08179461588496517</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7798,10 +7798,10 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.693331570824423</v>
+        <v>-3.684286211597978</v>
       </c>
       <c r="G322">
-        <v>-0.1156370617196241</v>
+        <v>-0.1065917024933816</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7821,10 +7821,10 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.679364462762597</v>
+        <v>-3.666676969714998</v>
       </c>
       <c r="G323">
-        <v>-0.1324692467114246</v>
+        <v>-0.1197817536647063</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7844,10 +7844,10 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.651902044868854</v>
+        <v>-3.639194531845695</v>
       </c>
       <c r="G324">
-        <v>-0.1358436362355628</v>
+        <v>-0.1231361232139649</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7867,10 +7867,10 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.614235382595548</v>
+        <v>-3.603281307532899</v>
       </c>
       <c r="G325">
-        <v>-0.1290137813801373</v>
+        <v>-0.1180597063197308</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7890,10 +7890,10 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.567223305951336</v>
+        <v>-3.558297304970141</v>
       </c>
       <c r="G326">
-        <v>-0.1128009977895514</v>
+        <v>-0.1038749968112782</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7913,10 +7913,10 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.509565717162598</v>
+        <v>-3.505143255321637</v>
       </c>
       <c r="G327">
-        <v>-0.08598021641869447</v>
+        <v>-0.08155775458133574</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7936,10 +7936,10 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.44669817918206</v>
+        <v>-3.440011782733007</v>
       </c>
       <c r="G328">
-        <v>-0.05394948585603887</v>
+        <v>-0.04726308941126733</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -7962,7 +7962,7 @@
         <v>-3.361911885903178</v>
       </c>
       <c r="G329">
-        <v>4.96269692007445e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -7985,7 +7985,7 @@
         <v>-3.679881065597996</v>
       </c>
       <c r="G330">
-        <v>-2.251532293939817e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8005,10 +8005,10 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-3.697233602225802</v>
+        <v>-3.696600641172512</v>
       </c>
       <c r="G331">
-        <v>-0.04823234692107681</v>
+        <v>-0.04759938586814583</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8028,10 +8028,10 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.703242927023863</v>
+        <v>-3.698732507262291</v>
       </c>
       <c r="G332">
-        <v>-0.08515184564079004</v>
+        <v>-0.08064142588016088</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8051,10 +8051,10 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.699403119095225</v>
+        <v>-3.690484369777405</v>
       </c>
       <c r="G333">
-        <v>-0.1122222116338039</v>
+        <v>-0.1033034623175126</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8074,10 +8074,10 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.682493057763555</v>
+        <v>-3.672299833672609</v>
       </c>
       <c r="G334">
-        <v>-0.1262223242237863</v>
+        <v>-0.1160291001349534</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8097,10 +8097,10 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.658041280861308</v>
+        <v>-3.646614278732104</v>
       </c>
       <c r="G335">
-        <v>-0.1326807212431913</v>
+        <v>-0.1212537191166847</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8120,10 +8120,10 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.620593476121201</v>
+        <v>-3.611596781571777</v>
       </c>
       <c r="G336">
-        <v>-0.1261430904247358</v>
+        <v>-0.1171463958785943</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8143,10 +8143,10 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.571907981330922</v>
+        <v>-3.565506898992796</v>
       </c>
       <c r="G337">
-        <v>-0.1083677695561089</v>
+        <v>-0.1019666872218505</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8166,10 +8166,10 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.516169579838268</v>
+        <v>-3.511290226548019</v>
       </c>
       <c r="G338">
-        <v>-0.08353954198510671</v>
+        <v>-0.07866018869931046</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8189,10 +8189,10 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.455123369233697</v>
+        <v>-3.447653431417004</v>
       </c>
       <c r="G339">
-        <v>-0.05340350530218824</v>
+        <v>-0.04593356749053251</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8215,7 +8215,7 @@
         <v>-3.370809690004235</v>
       </c>
       <c r="G340">
-        <v>5.621725307491943e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.123560603167988</v>
+        <v>-3.124879391046772</v>
       </c>
       <c r="G20">
         <v>-0.09588288401363609</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.174080996788322</v>
+        <v>-3.18992732203882</v>
       </c>
       <c r="G25">
         <v>-0.1696629134463601</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.189773123962585</v>
+        <v>-3.204300661334299</v>
       </c>
       <c r="G26">
         <v>-0.1900069677831016</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.189979179643199</v>
+        <v>-3.213235265832995</v>
       </c>
       <c r="G30">
         <v>-0.2088207321136268</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.194189255976002</v>
+        <v>-3.221517632067959</v>
       </c>
       <c r="G31">
         <v>-0.2176827356089079</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.207039852006349</v>
+        <v>-3.218317947461468</v>
       </c>
       <c r="G32">
         <v>-0.2351852588017329</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.200386770096916</v>
+        <v>-3.20955170979577</v>
       </c>
       <c r="G33">
         <v>-0.2331841040547782</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.213441321513607</v>
+        <v>-3.231218300801914</v>
       </c>
       <c r="G34">
         <v>-0.2508905826339478</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.171816762194007</v>
+        <v>-3.211764380172244</v>
       </c>
       <c r="G35">
         <v>-0.2139179504768249</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.203588554997692</v>
+        <v>-3.206837996914279</v>
       </c>
       <c r="G36">
         <v>-0.2503416704429882</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.197139428474598</v>
+        <v>-3.214712452376564</v>
       </c>
       <c r="G37">
         <v>-0.2485444710823725</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.190381905799032</v>
+        <v>-3.203386699905619</v>
       </c>
       <c r="G40">
         <v>-0.2557427298942403</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.167678543252761</v>
+        <v>-3.19673361799619</v>
       </c>
       <c r="G41">
         <v>-0.2376912945104475</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.175224602775381</v>
+        <v>-3.18477599957903</v>
       </c>
       <c r="G42">
         <v>-0.2498892811955453</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.154372379433906</v>
+        <v>-3.179905376301309</v>
       </c>
       <c r="G43">
         <v>-0.233688985016548</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.157932442370626</v>
+        <v>-3.16794775788415</v>
       </c>
       <c r="G44">
         <v>-0.2419009751157462</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.168381671114154</v>
+        <v>-3.177028084964348</v>
       </c>
       <c r="G45">
         <v>-0.2570021310217523</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.163455287856191</v>
+        <v>-3.165126226527427</v>
       </c>
       <c r="G46">
         <v>-0.2567276749262672</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.14966861878505</v>
+        <v>-3.154917395312546</v>
       </c>
       <c r="G47">
         <v>-0.2475929330176037</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.128090005307876</v>
+        <v>-3.158795537887527</v>
       </c>
       <c r="G48">
         <v>-0.2306662467029081</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.123515772842354</v>
+        <v>-3.136632086909412</v>
       </c>
       <c r="G49">
         <v>-0.2307439413998644</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.107759794041631</v>
+        <v>-3.119589973251543</v>
       </c>
       <c r="G51">
         <v>-0.2242918169240968</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.103826491392185</v>
+        <v>-3.110532267238067</v>
       </c>
       <c r="G52">
         <v>-0.225010441437129</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.08743156302153</v>
+        <v>-3.09884434815399</v>
       </c>
       <c r="G53">
         <v>-0.2132674402289524</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.072425201256891</v>
+        <v>-3.087856308293582</v>
       </c>
       <c r="G54">
         <v>-0.2029130056267907</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.059010583521348</v>
+        <v>-3.07412539920267</v>
       </c>
       <c r="G55">
         <v>-0.1941503150537265</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.049377190976808</v>
+        <v>-3.063216621374264</v>
       </c>
       <c r="G56">
         <v>-0.189168849671664</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.013015778764267</v>
+        <v>-3.01805061593892</v>
       </c>
       <c r="G59">
         <v>-0.1667632189465569</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.99518728573713</v>
+        <v>-2.998337244887702</v>
       </c>
       <c r="G60">
         <v>-0.1535866530818981</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.983093509108314</v>
+        <v>-2.987563144380137</v>
       </c>
       <c r="G61">
         <v>-0.1461448036155598</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.307465827832048</v>
+        <v>-3.315791099425031</v>
       </c>
       <c r="G80">
         <v>-0.05846675840959348</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.310767632613553</v>
+        <v>-3.326118492661193</v>
       </c>
       <c r="G81">
         <v>-0.0636334260674869</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.323555369494685</v>
+        <v>-3.329578480191465</v>
       </c>
       <c r="G82">
         <v>-0.07828602582500643</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.329462211805341</v>
+        <v>-3.330449059877902</v>
       </c>
       <c r="G83">
         <v>-0.08605773101205028</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.328562221113886</v>
+        <v>-3.330464640727289</v>
       </c>
       <c r="G84">
         <v>-0.08702260319698274</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.325675302233218</v>
+        <v>-3.333757140756187</v>
       </c>
       <c r="G85">
         <v>-0.08600054719270256</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.331227873935938</v>
+        <v>-3.337918347126881</v>
       </c>
       <c r="G86">
         <v>-0.09341798177181104</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.330811325728358</v>
+        <v>-3.337657486427684</v>
       </c>
       <c r="G87">
         <v>-0.09486629644061839</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.321278750680885</v>
+        <v>-3.330672030416068</v>
       </c>
       <c r="G88">
         <v>-0.08719858426953309</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.340286396295704</v>
+        <v>-3.352937882380516</v>
       </c>
       <c r="G89">
         <v>-0.1080710927607402</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.332334476431095</v>
+        <v>-3.344951724652415</v>
       </c>
       <c r="G90">
         <v>-0.101984035772519</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.338532602880415</v>
+        <v>-3.344578451122427</v>
       </c>
       <c r="G91">
         <v>-0.1100470250982273</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.336018295309738</v>
+        <v>-3.352809792026223</v>
       </c>
       <c r="G93">
         <v>-0.1112624432803253</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.334039170979366</v>
+        <v>-3.355747106395364</v>
       </c>
       <c r="G94">
         <v>-0.1111481818263407</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.361860256369612</v>
+        <v>-3.362529196042072</v>
       </c>
       <c r="G95">
         <v>-0.1408341300929745</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.34824849437627</v>
+        <v>-3.361090490928091</v>
       </c>
       <c r="G96">
         <v>-0.1290872309760207</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.347787992688768</v>
+        <v>-3.352686828026644</v>
       </c>
       <c r="G97">
         <v>-0.130491592164907</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.354229889196986</v>
+        <v>-3.360477588790217</v>
       </c>
       <c r="G98">
         <v>-0.1387983515495126</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.332478666458488</v>
+        <v>-3.364873533016053</v>
       </c>
       <c r="G99">
         <v>-0.1189119916874022</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.35491812024542</v>
+        <v>-3.364028806583949</v>
       </c>
       <c r="G100">
         <v>-0.1432163083507225</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.35472357800553</v>
+        <v>-3.361186534567198</v>
       </c>
       <c r="G101">
         <v>-0.1448866289872193</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.341807263224316</v>
+        <v>-3.368394624671096</v>
       </c>
       <c r="G102">
         <v>-0.133835177082394</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.347127781692436</v>
+        <v>-3.366407739950256</v>
       </c>
       <c r="G104">
         <v>-0.1428854213032889</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.360222072843039</v>
+        <v>-3.365881868240321</v>
       </c>
       <c r="G105">
         <v>-0.1578445753302802</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.359571236945806</v>
+        <v>-3.37250384386841</v>
       </c>
       <c r="G106">
         <v>-0.1590586023094347</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.351062678674917</v>
+        <v>-3.36135924476877</v>
       </c>
       <c r="G107">
         <v>-0.1524149069149345</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.354124910438616</v>
+        <v>-3.373260170983122</v>
       </c>
       <c r="G110">
         <v>-0.161071727307796</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.364298760119309</v>
+        <v>-3.388419710119232</v>
       </c>
       <c r="G112">
         <v>-0.1749753027412644</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.354233104766641</v>
+        <v>-3.381657420718926</v>
       </c>
       <c r="G113">
         <v>-0.1667745102649842</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.353165103595891</v>
+        <v>-3.375404697709992</v>
       </c>
       <c r="G114">
         <v>-0.1675713719706224</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.351582738558886</v>
+        <v>-3.368270383880848</v>
       </c>
       <c r="G117">
         <v>-0.17158359556278</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.347815783540552</v>
+        <v>-3.384201220554998</v>
       </c>
       <c r="G118">
         <v>-0.1696815034208341</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.36921920115613</v>
+        <v>-3.391585590098051</v>
       </c>
       <c r="G119">
         <v>-0.1929497839127996</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.357407482761785</v>
+        <v>-3.373744767847819</v>
       </c>
       <c r="G120">
         <v>-0.1830029283948424</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.358806395336462</v>
+        <v>-3.365839459865659</v>
       </c>
       <c r="G121">
         <v>-0.1862667038459076</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.353365260018831</v>
+        <v>-3.37433688946252</v>
       </c>
       <c r="G122">
         <v>-0.1826904314046645</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.352103786639478</v>
+        <v>-3.365768089409162</v>
       </c>
       <c r="G123">
         <v>-0.1832938209016994</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.362095994606526</v>
+        <v>-3.374694814873206</v>
       </c>
       <c r="G124">
         <v>-0.195150891745135</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.365216416226485</v>
+        <v>-3.369270993091698</v>
       </c>
       <c r="G126">
         <v>-0.202001039117869</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.372336834121696</v>
+        <v>-3.37373049596548</v>
       </c>
       <c r="G127">
         <v>-0.2109863198894688</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.358920950329406</v>
+        <v>-3.366153362944165</v>
       </c>
       <c r="G128">
         <v>-0.1994352989735662</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.364391774308705</v>
+        <v>-3.376406078164745</v>
       </c>
       <c r="G129">
         <v>-0.206770985829253</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.348287904440812</v>
+        <v>-3.366369627733649</v>
       </c>
       <c r="G130">
         <v>-0.1925319788377484</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.366719089339022</v>
+        <v>-3.366951574631224</v>
       </c>
       <c r="G131">
         <v>-0.2128280266123457</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.356900333920905</v>
+        <v>-3.369252005870875</v>
       </c>
       <c r="G132">
         <v>-0.2048741340706164</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.356072937156881</v>
+        <v>-3.363197841921477</v>
       </c>
       <c r="G133">
         <v>-0.2059116001829804</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.343897318692241</v>
+        <v>-3.363941732819968</v>
       </c>
       <c r="G134">
         <v>-0.1956008445947288</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.342574263570707</v>
+        <v>-3.377865241319565</v>
       </c>
       <c r="G135">
         <v>-0.1961426523495824</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.346905542557779</v>
+        <v>-3.357514670758023</v>
       </c>
       <c r="G138">
         <v>-0.2060685199658177</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.3460683121662</v>
+        <v>-3.357244935844662</v>
       </c>
       <c r="G139">
         <v>-0.2070961524506263</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.327436189244132</v>
+        <v>-3.352513846500933</v>
       </c>
       <c r="G140">
         <v>-0.1903288924049467</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.326882024996823</v>
+        <v>-3.351009444610275</v>
       </c>
       <c r="G141">
         <v>-0.1916395910340254</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.337406493745705</v>
+        <v>-3.350485523069367</v>
       </c>
       <c r="G142">
         <v>-0.2040289226592951</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.339524056991434</v>
+        <v>-3.347672918384167</v>
       </c>
       <c r="G143">
         <v>-0.2080113487814117</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.323082578643398</v>
+        <v>-3.349340643530791</v>
       </c>
       <c r="G144">
         <v>-0.1934347333097637</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.340655537802947</v>
+        <v>-3.344979137384474</v>
       </c>
       <c r="G145">
         <v>-0.2128725553457</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.330122043869404</v>
+        <v>-3.343254702925279</v>
       </c>
       <c r="G146">
         <v>-0.2042039242885454</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.320518507548334</v>
+        <v>-3.340164552026661</v>
       </c>
       <c r="G147">
         <v>-0.1964652508438627</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.335090225199724</v>
+        <v>-3.341294186655797</v>
       </c>
       <c r="G148">
         <v>-0.2129018313716404</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.320520739820037</v>
+        <v>-3.331356742687202</v>
       </c>
       <c r="G149">
         <v>-0.2001972088683412</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.323599663385989</v>
+        <v>-3.328391949377843</v>
       </c>
       <c r="G150">
         <v>-0.2051409953106813</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.305737745234695</v>
+        <v>-3.326054280657363</v>
       </c>
       <c r="G152">
         <v>-0.1910088029121633</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.305386093128206</v>
+        <v>-3.312882002753211</v>
       </c>
       <c r="G153">
         <v>-0.1925220136820609</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.30173432119394</v>
+        <v>-3.30897464090982</v>
       </c>
       <c r="G154">
         <v>-0.190735104624183</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.285312131222043</v>
+        <v>-3.30880532397997</v>
       </c>
       <c r="G155">
         <v>-0.1761777775286739</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.300238048927427</v>
+        <v>-3.311519398457156</v>
       </c>
       <c r="G157">
         <v>-0.1948334209868339</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.304602720193132</v>
+        <v>-3.305302689689327</v>
       </c>
       <c r="G158">
         <v>-0.2010629551289269</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.284085649134858</v>
+        <v>-3.295179682050571</v>
       </c>
       <c r="G159">
         <v>-0.18241074694704</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.269669380835914</v>
+        <v>-3.293336675476546</v>
       </c>
       <c r="G161">
         <v>-0.1717242044008722</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.295684021417797</v>
+        <v>-3.29644758200681</v>
       </c>
       <c r="G162">
         <v>-0.1996037078591433</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.273892961131966</v>
+        <v>-3.28796667822182</v>
       </c>
       <c r="G164">
         <v>-0.1815423733260879</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.283466481980126</v>
+        <v>-3.287506484663964</v>
       </c>
       <c r="G165">
         <v>-0.1929807570506354</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.272766181836764</v>
+        <v>-3.281533361160421</v>
       </c>
       <c r="G166">
         <v>-0.1841453197836607</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.259641629399721</v>
+        <v>-3.268830437361087</v>
       </c>
       <c r="G169">
         <v>-0.1766153559757808</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.26247213256952</v>
+        <v>-3.263999439201954</v>
       </c>
       <c r="G171">
         <v>-0.1831755848983563</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.242745782448386</v>
+        <v>-3.255073124279616</v>
       </c>
       <c r="G173">
         <v>-0.1671789605299978</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.250518107330272</v>
+        <v>-3.251720720246029</v>
       </c>
       <c r="G174">
         <v>-0.1768161482882717</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.23224824164912</v>
+        <v>-3.237228355176164</v>
       </c>
       <c r="G176">
         <v>-0.1622760083598945</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.227111441476903</v>
+        <v>-3.233839791669991</v>
       </c>
       <c r="G177">
         <v>-0.1590040710640661</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.228958169490958</v>
+        <v>-3.2326265235932</v>
       </c>
       <c r="G178">
         <v>-0.1627156619545089</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.224396311062051</v>
+        <v>-3.227495268429553</v>
       </c>
       <c r="G179">
         <v>-0.1600186664019895</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.212667580608398</v>
+        <v>-3.222508356866042</v>
       </c>
       <c r="G180">
         <v>-0.1501547988247237</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.211942153118274</v>
+        <v>-3.215969625523016</v>
       </c>
       <c r="G181">
         <v>-0.1512942342109882</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.208643359249673</v>
+        <v>-3.213256362190614</v>
       </c>
       <c r="G182">
         <v>-0.1498603032187746</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.199294174832537</v>
+        <v>-3.205687662503184</v>
       </c>
       <c r="G183">
         <v>-0.142375981678027</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.194230867354485</v>
+        <v>-3.201718320633088</v>
       </c>
       <c r="G184">
         <v>-0.1391775370763627</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.18800895470952</v>
+        <v>-3.191837146254525</v>
       </c>
       <c r="G186">
         <v>-0.1366853501841727</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.185065713738802</v>
+        <v>-3.187201025658284</v>
       </c>
       <c r="G187">
         <v>-0.1356069720898425</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.177928365649461</v>
+        <v>-3.183143934263976</v>
       </c>
       <c r="G188">
         <v>-0.1303344868768902</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.173936045715689</v>
+        <v>-3.179700673956771</v>
       </c>
       <c r="G189">
         <v>-0.1282070298195056</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.169072256220062</v>
+        <v>-3.170934378167054</v>
       </c>
       <c r="G190">
         <v>-0.1252081032002661</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.160364548718647</v>
+        <v>-3.162449525056642</v>
       </c>
       <c r="G192">
         <v>-0.1202301214516269</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.144670059406788</v>
+        <v>-3.148687074535097</v>
       </c>
       <c r="G195">
         <v>-0.1101302207689309</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.133095112251813</v>
+        <v>-3.140985896590641</v>
       </c>
       <c r="G196">
         <v>-0.100420136490344</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.133935572387932</v>
+        <v>-3.134736049922041</v>
       </c>
       <c r="G197">
         <v>-0.1031254595028511</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.124822484198591</v>
+        <v>-3.129598634956051</v>
       </c>
       <c r="G198">
         <v>-0.09587723418989774</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.119840457404162</v>
+        <v>-3.123183835339105</v>
       </c>
       <c r="G199">
         <v>-0.09276007027185718</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.11830271645841</v>
+        <v>-3.118362853567453</v>
       </c>
       <c r="G200">
         <v>-0.09308719220249245</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.108340606804674</v>
+        <v>-3.110455715119191</v>
       </c>
       <c r="G201">
         <v>-0.08498994542514426</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.099214276879367</v>
+        <v>-3.101648771963214</v>
       </c>
       <c r="G203">
         <v>-0.07959334125261286</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.092707750875149</v>
+        <v>-3.096767653082528</v>
       </c>
       <c r="G204">
         <v>-0.07495167812478248</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.084792002000676</v>
+        <v>-3.087602496287644</v>
       </c>
       <c r="G205">
         <v>-0.0689007921266972</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.078304271200542</v>
+        <v>-3.080226745214063</v>
       </c>
       <c r="G206">
         <v>-0.06427792420295148</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.05988889771461</v>
+        <v>-3.062323392798459</v>
       </c>
       <c r="G209">
         <v>-0.05145713934618276</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.053158236003578</v>
+        <v>-3.054947641724878</v>
       </c>
       <c r="G210">
         <v>-0.04659134051153879</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.047571890651295</v>
+        <v>-3.048789138193218</v>
       </c>
       <c r="G211">
         <v>-0.04286985803564253</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.040196139577711</v>
+        <v>-3.041413387119638</v>
       </c>
       <c r="G212">
         <v>-0.03735896983844664</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.433479623842082</v>
+        <v>-3.440343839163535</v>
       </c>
       <c r="G221">
         <v>-0.07509380158038681</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.455977100954281</v>
+        <v>-3.460014079777809</v>
       </c>
       <c r="G222">
         <v>-0.1261221279392388</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.462892534008497</v>
+        <v>-3.467423634369806</v>
       </c>
       <c r="G223">
         <v>-0.161568410240108</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.432315842155792</v>
+        <v>-3.44118318546283</v>
       </c>
       <c r="G225">
         <v>-0.1880534168807109</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.387766479263078</v>
+        <v>-3.40028399453415</v>
       </c>
       <c r="G226">
         <v>-0.1720349032346495</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.347055648661194</v>
+        <v>-3.35346614809261</v>
       </c>
       <c r="G227">
         <v>-0.1598549218794196</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.199739150630081</v>
+        <v>-3.201360941681648</v>
       </c>
       <c r="G229">
         <v>-0.06960012234161345</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.525037829244817</v>
+        <v>-3.527288076804022</v>
       </c>
       <c r="G233">
         <v>-0.1193455610788772</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.525571937896564</v>
+        <v>-3.532215435694136</v>
       </c>
       <c r="G234">
         <v>-0.1489198660817626</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.45856387348518</v>
+        <v>-3.462253743233664</v>
       </c>
       <c r="G237">
         <v>-0.1690323907237965</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.409572823354324</v>
+        <v>-3.410492768337639</v>
       </c>
       <c r="G238">
         <v>-0.1490815369440799</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.347047239311745</v>
+        <v>-3.348096599578669</v>
       </c>
       <c r="G239">
         <v>-0.1155961492526403</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.26748182752066</v>
+        <v>-3.268460627057931</v>
       </c>
       <c r="G240">
         <v>-0.06507093381269408</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.568342481138025</v>
+        <v>-3.570162390132057</v>
       </c>
       <c r="G244">
         <v>-0.1096792666964426</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.56406862473506</v>
+        <v>-3.568874121068549</v>
       </c>
       <c r="G245">
         <v>-0.1348531855905084</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.496099487911208</v>
+        <v>-3.503693394512263</v>
       </c>
       <c r="G248">
         <v>-0.1555474591718482</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.449305063378797</v>
+        <v>-3.451257212707939</v>
       </c>
       <c r="G249">
         <v>-0.1385208944505665</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.314340185388118</v>
+        <v>-3.315402497279505</v>
       </c>
       <c r="G251">
         <v>-0.06245156705394911</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.6016625567368</v>
+        <v>-3.601715048066717</v>
       </c>
       <c r="G256">
         <v>-0.1342450901945598</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.589412745699939</v>
+        <v>-3.590568585783507</v>
       </c>
       <c r="G257">
         <v>-0.1519753665104568</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.481529959770415</v>
+        <v>-3.48331917872236</v>
       </c>
       <c r="G260">
         <v>-0.1336105878877607</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.418824561263473</v>
+        <v>-3.422614063302325</v>
       </c>
       <c r="G261">
         <v>-0.1008852767335773</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.34624764778426</v>
+        <v>-3.349117328789066</v>
       </c>
       <c r="G262">
         <v>-0.0580773232313993</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.611651984221388</v>
+        <v>-3.615097983040736</v>
       </c>
       <c r="G265">
         <v>-0.05468212199645883</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.622106208895369</v>
+        <v>-3.62667991216973</v>
       </c>
       <c r="G266">
         <v>-0.09530727137649508</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.623845434984168</v>
+        <v>-3.626797379748451</v>
       </c>
       <c r="G267">
         <v>-0.127217422171348</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.6120524473997</v>
+        <v>-3.612999444764246</v>
       </c>
       <c r="G268">
         <v>-0.1454488984933913</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.54733854698898</v>
+        <v>-3.549327204262176</v>
       </c>
       <c r="G270">
         <v>-0.1410768474947803</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.502845226819909</v>
+        <v>-3.504441403722232</v>
       </c>
       <c r="G271">
         <v>-0.1266079912322207</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.44176755503919</v>
+        <v>-3.444564331303606</v>
       </c>
       <c r="G272">
         <v>-0.09570124415755543</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.371662713309731</v>
+        <v>-3.372798976650905</v>
       </c>
       <c r="G273">
         <v>-0.05576732713415117</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.634105422772206</v>
+        <v>-3.635340774742331</v>
       </c>
       <c r="G276">
         <v>-0.05365043309034645</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.642025010469748</v>
+        <v>-3.643110587547491</v>
       </c>
       <c r="G278">
         <v>-0.1222431016499339</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.59793927097433</v>
+        <v>-3.600786146007706</v>
       </c>
       <c r="G280">
         <v>-0.1388304430165597</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.566467957766454</v>
+        <v>-3.569348955049026</v>
       </c>
       <c r="G281">
         <v>-0.1376956702397052</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.461579184538378</v>
+        <v>-3.462176036683837</v>
       </c>
       <c r="G283">
         <v>-0.09347997787367435</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.390561135132503</v>
+        <v>-3.392094042585494</v>
       </c>
       <c r="G284">
         <v>-0.05279846889882123</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.65230549042191</v>
+        <v>-3.652804545663333</v>
       </c>
       <c r="G287">
         <v>-0.05294856114196955</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.658361007736722</v>
+        <v>-3.661245461014011</v>
       </c>
       <c r="G288">
         <v>-0.0894830131692812</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.653194428856366</v>
+        <v>-3.655649493253323</v>
       </c>
       <c r="G289">
         <v>-0.114795369001425</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.637325243415809</v>
+        <v>-3.638664975547546</v>
       </c>
       <c r="G290">
         <v>-0.1294051182733678</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.612823762776032</v>
+        <v>-3.614335411930881</v>
       </c>
       <c r="G291">
         <v>-0.1353825723460902</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.577959856262119</v>
+        <v>-3.578923282942051</v>
       </c>
       <c r="G292">
         <v>-0.1309976005446769</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.531595119992692</v>
+        <v>-3.531898715661981</v>
       </c>
       <c r="G293">
         <v>-0.1151117989877499</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.474382512187547</v>
+        <v>-3.476302794655387</v>
       </c>
       <c r="G294">
         <v>-0.08837812589510396</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.406741949180842</v>
+        <v>-3.408366315094895</v>
       </c>
       <c r="G295">
         <v>-0.0512164976008988</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.666358387933484</v>
+        <v>-3.667376322144613</v>
       </c>
       <c r="G298">
         <v>-0.05132568274001459</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.671607660046684</v>
+        <v>-3.673637676951036</v>
       </c>
       <c r="G299">
         <v>-0.08717638242194026</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.649473838163458</v>
+        <v>-3.651382539939092</v>
       </c>
       <c r="G301">
         <v>-0.1263056547068122</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.623734150198647</v>
+        <v>-3.624325589245433</v>
       </c>
       <c r="G302">
         <v>-0.1311673943107259</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.587524401580485</v>
+        <v>-3.587945306314471</v>
       </c>
       <c r="G303">
         <v>-0.1255590732612892</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.541464441568029</v>
+        <v>-3.542423010527315</v>
       </c>
       <c r="G304">
         <v>-0.1101607798482054</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.486483163442399</v>
+        <v>-3.487728765855424</v>
       </c>
       <c r="G305">
         <v>-0.08578092929130066</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.420095090248176</v>
+        <v>-3.42126319373391</v>
       </c>
       <c r="G306">
         <v>-0.04999428366580361</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.682635109651574</v>
+        <v>-3.683538227002671</v>
       </c>
       <c r="G310">
         <v>-0.08520807599474001</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.675368657734217</v>
+        <v>-3.6769271363375</v>
       </c>
       <c r="G311">
         <v>-0.1086488991196881</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.63214121431943</v>
+        <v>-3.633168932121133</v>
       </c>
       <c r="G313">
         <v>-0.126883102837124</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.59501883629391</v>
+        <v>-3.59761195417326</v>
       </c>
       <c r="G314">
         <v>-0.1205150969015198</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.49503712968235</v>
+        <v>-3.496514283676844</v>
       </c>
       <c r="G316">
         <v>-0.0819950374221815</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.430220463593963</v>
+        <v>-3.43102016151549</v>
       </c>
       <c r="G317">
         <v>-0.04788564637610015</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.688595096559755</v>
+        <v>-3.689159633076596</v>
       </c>
       <c r="G320">
         <v>-0.0492269726180341</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.690325932408124</v>
+        <v>-3.692241100372894</v>
       </c>
       <c r="G321">
         <v>-0.08179461588496517</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.684286211597978</v>
+        <v>-3.685461550123587</v>
       </c>
       <c r="G322">
         <v>-0.1065917024933816</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.666676969714998</v>
+        <v>-3.667530438420909</v>
       </c>
       <c r="G323">
         <v>-0.1197817536647063</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.639194531845695</v>
+        <v>-3.640398073169722</v>
       </c>
       <c r="G324">
         <v>-0.1231361232139649</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.603281307532899</v>
+        <v>-3.605406438720047</v>
       </c>
       <c r="G325">
         <v>-0.1180597063197308</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.558297304970141</v>
+        <v>-3.559189851445946</v>
       </c>
       <c r="G326">
         <v>-0.1038749968112782</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.698732507262291</v>
+        <v>-3.699478994557944</v>
       </c>
       <c r="G332">
         <v>-0.08064142588016088</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.690484369777405</v>
+        <v>-3.692466639457163</v>
       </c>
       <c r="G333">
         <v>-0.1033034623175126</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.672299833672609</v>
+        <v>-3.674051128624895</v>
       </c>
       <c r="G334">
         <v>-0.1160291001349534</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.565506898992796</v>
+        <v>-3.565957777596269</v>
       </c>
       <c r="G337">
         <v>-0.1019666872218505</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.511290226548019</v>
+        <v>-3.512095807924089</v>
       </c>
       <c r="G338">
         <v>-0.07866018869931046</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.447653431417004</v>
+        <v>-3.448141507106536</v>
       </c>
       <c r="G339">
         <v>-0.04593356749053251</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.174593348327133</v>
+        <v>-3.175912136205922</v>
       </c>
       <c r="G23">
         <v>-0.1608714106602154</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.18992732203882</v>
+        <v>-3.207296390554449</v>
       </c>
       <c r="G25">
         <v>-0.1696629134463601</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.204300661334299</v>
+        <v>-3.221669729849924</v>
       </c>
       <c r="G26">
         <v>-0.1900069677831016</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.202623719992933</v>
+        <v>-3.236043069145399</v>
       </c>
       <c r="G27">
         <v>-0.207509490975927</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.216793103902064</v>
+        <v>-3.234366127804031</v>
       </c>
       <c r="G28">
         <v>-0.2263308020475367</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.215116162560697</v>
+        <v>-3.247216723834379</v>
       </c>
       <c r="G29">
         <v>-0.2293057878686469</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.213235265832995</v>
+        <v>-3.244017039227885</v>
       </c>
       <c r="G30">
         <v>-0.2088207321136268</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.221517632067959</v>
+        <v>-3.240817354621392</v>
       </c>
       <c r="G31">
         <v>-0.2176827356089079</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.218317947461468</v>
+        <v>-3.237617670014901</v>
       </c>
       <c r="G32">
         <v>-0.2351852588017329</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.20955170979577</v>
+        <v>-3.234417985408407</v>
       </c>
       <c r="G33">
         <v>-0.2331841040547782</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.211764380172244</v>
+        <v>-3.226291917543955</v>
       </c>
       <c r="G35">
         <v>-0.2139179504768249</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.206837996914279</v>
+        <v>-3.221365534285993</v>
       </c>
       <c r="G36">
         <v>-0.2503416704429882</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.214712452376564</v>
+        <v>-3.218165849679498</v>
       </c>
       <c r="G37">
         <v>-0.2485444710823725</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.206152471282104</v>
+        <v>-3.213239466421537</v>
       </c>
       <c r="G38">
         <v>-0.2622094410523559</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.204735245307315</v>
+        <v>-3.206406183978548</v>
       </c>
       <c r="G39">
         <v>-0.265444142240046</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.203386699905619</v>
+        <v>-3.205113398557087</v>
       </c>
       <c r="G40">
         <v>-0.2557427298942403</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.19673361799619</v>
+        <v>-3.198460316647657</v>
       </c>
       <c r="G41">
         <v>-0.2376912945104475</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.18477599957903</v>
+        <v>-3.186502698230497</v>
       </c>
       <c r="G42">
         <v>-0.2498892811955453</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.179905376301309</v>
+        <v>-3.184973952295243</v>
       </c>
       <c r="G43">
         <v>-0.233688985016548</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.16794775788415</v>
+        <v>-3.175034753023581</v>
       </c>
       <c r="G44">
         <v>-0.2419009751157462</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.165126226527427</v>
+        <v>-3.170375003054922</v>
       </c>
       <c r="G46">
         <v>-0.2567276749262672</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.127608187105084</v>
+        <v>-3.14024059754118</v>
       </c>
       <c r="G50">
         <v>-0.2394882828250724</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.110532267238067</v>
+        <v>-3.123592556379855</v>
       </c>
       <c r="G52">
         <v>-0.225010441437129</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.09884434815399</v>
+        <v>-3.103100044072969</v>
       </c>
       <c r="G53">
         <v>-0.2132674402289524</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.07412539920267</v>
+        <v>-3.081045114401401</v>
       </c>
       <c r="G55">
         <v>-0.1941503150537265</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.063216621374264</v>
+        <v>-3.065801378622012</v>
       </c>
       <c r="G56">
         <v>-0.189168849671664</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.046088007570797</v>
+        <v>-3.05055764284262</v>
       </c>
       <c r="G57">
         <v>-0.1905315934281304</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.03105821114425</v>
+        <v>-3.04223362226196</v>
       </c>
       <c r="G58">
         <v>-0.1801537241640624</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.01805061593892</v>
+        <v>-3.02698988648257</v>
       </c>
       <c r="G59">
         <v>-0.1667632189465569</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.998337244887702</v>
+        <v>-3.007276515431355</v>
       </c>
       <c r="G60">
         <v>-0.1535866530818981</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.297699436119212</v>
+        <v>-3.30067535320174</v>
       </c>
       <c r="G77">
         <v>-0.04310577806759497</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.326118492661193</v>
+        <v>-3.326154130927058</v>
       </c>
       <c r="G81">
         <v>-0.0636334260674869</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.330449059877902</v>
+        <v>-3.333918400996711</v>
       </c>
       <c r="G83">
         <v>-0.08605773101205028</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.330464640727289</v>
+        <v>-3.33528240471943</v>
       </c>
       <c r="G84">
         <v>-0.08702260319698274</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.333757140756187</v>
+        <v>-3.340695822993806</v>
       </c>
       <c r="G85">
         <v>-0.08600054719270256</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.337918347126881</v>
+        <v>-3.348505084917858</v>
       </c>
       <c r="G86">
         <v>-0.09341798177181104</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.337657486427684</v>
+        <v>-3.346089183851706</v>
       </c>
       <c r="G87">
         <v>-0.09486629644061839</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.330672030416068</v>
+        <v>-3.347392614870628</v>
       </c>
       <c r="G88">
         <v>-0.08719858426953309</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.352937882380516</v>
+        <v>-3.361682773261881</v>
       </c>
       <c r="G89">
         <v>-0.1080710927607402</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.344951724652415</v>
+        <v>-3.35405377862767</v>
       </c>
       <c r="G90">
         <v>-0.101984035772519</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.344578451122427</v>
+        <v>-3.363917099850557</v>
       </c>
       <c r="G91">
         <v>-0.1100470250982273</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.353472899098749</v>
+        <v>-3.358326301356747</v>
       </c>
       <c r="G92">
         <v>-0.1268521841929484</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.352809792026223</v>
+        <v>-3.366542081100043</v>
       </c>
       <c r="G93">
         <v>-0.1112624432803253</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.355747106395364</v>
+        <v>-3.376392170278833</v>
       </c>
       <c r="G94">
         <v>-0.1111481818263407</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.362529196042072</v>
+        <v>-3.373830384717577</v>
       </c>
       <c r="G95">
         <v>-0.1408341300929745</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.361090490928091</v>
+        <v>-3.383836571925813</v>
       </c>
       <c r="G96">
         <v>-0.1290872309760207</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.352686828026644</v>
+        <v>-3.380940091472053</v>
       </c>
       <c r="G97">
         <v>-0.130491592164907</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.360477588790217</v>
+        <v>-3.381969725718069</v>
       </c>
       <c r="G98">
         <v>-0.1387983515495126</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.364873533016053</v>
+        <v>-3.382113880472748</v>
       </c>
       <c r="G99">
         <v>-0.1189119916874022</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.364028806583949</v>
+        <v>-3.39087462436646</v>
       </c>
       <c r="G100">
         <v>-0.1432163083507225</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.361186534567198</v>
+        <v>-3.386008952908312</v>
       </c>
       <c r="G101">
         <v>-0.1448866289872193</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.368394624671096</v>
+        <v>-3.394021606884368</v>
       </c>
       <c r="G102">
         <v>-0.133835177082394</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.371107416046489</v>
+        <v>-3.395862430249081</v>
       </c>
       <c r="G103">
         <v>-0.1650001927809539</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.366407739950256</v>
+        <v>-3.403020085388088</v>
       </c>
       <c r="G104">
         <v>-0.1428854213032889</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.365881868240321</v>
+        <v>-3.398126126108194</v>
       </c>
       <c r="G105">
         <v>-0.1578445753302802</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.37250384386841</v>
+        <v>-3.40202363400786</v>
       </c>
       <c r="G106">
         <v>-0.1590586023094347</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.36135924476877</v>
+        <v>-3.410734858462591</v>
       </c>
       <c r="G107">
         <v>-0.1524149069149345</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.373000192460202</v>
+        <v>-3.384709048211175</v>
       </c>
       <c r="G108">
         <v>-0.1762172835766069</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.376629055539107</v>
+        <v>-3.391526928062812</v>
       </c>
       <c r="G109">
         <v>-0.1817110095318997</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.373260170983122</v>
+        <v>-3.387482746339325</v>
       </c>
       <c r="G110">
         <v>-0.161071727307796</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.397082883376363</v>
+        <v>-3.405213849539329</v>
       </c>
       <c r="G111">
         <v>-0.2058945631219307</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.388419710119232</v>
+        <v>-3.396929701444359</v>
       </c>
       <c r="G112">
         <v>-0.1749753027412644</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.381657420718926</v>
+        <v>-3.393180261611894</v>
       </c>
       <c r="G113">
         <v>-0.1667745102649842</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.375404697709992</v>
+        <v>-3.405914261601871</v>
       </c>
       <c r="G114">
         <v>-0.1675713719706224</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.385057599381332</v>
+        <v>-3.396856150898586</v>
       </c>
       <c r="G115">
         <v>-0.2013287306324516</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.392019155860754</v>
+        <v>-3.414735373943943</v>
       </c>
       <c r="G116">
         <v>-0.2101551499882608</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.368270383880848</v>
+        <v>-3.415977767591841</v>
       </c>
       <c r="G117">
         <v>-0.17158359556278</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.384201220554998</v>
+        <v>-3.40425426574409</v>
       </c>
       <c r="G118">
         <v>-0.1696815034208341</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.391585590098051</v>
+        <v>-3.398907215840613</v>
       </c>
       <c r="G119">
         <v>-0.1929497839127996</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.373744767847819</v>
+        <v>-3.415206147587354</v>
       </c>
       <c r="G120">
         <v>-0.1830029283948424</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.365839459865659</v>
+        <v>-3.408159515846602</v>
       </c>
       <c r="G121">
         <v>-0.1862667038459076</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.37433688946252</v>
+        <v>-3.409174766291578</v>
       </c>
       <c r="G122">
         <v>-0.1826904314046645</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.365768089409162</v>
+        <v>-3.405773951173776</v>
       </c>
       <c r="G123">
         <v>-0.1832938209016994</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.374694814873206</v>
+        <v>-3.406993985062521</v>
       </c>
       <c r="G124">
         <v>-0.195150891745135</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.375392045208953</v>
+        <v>-3.399761287933567</v>
       </c>
       <c r="G125">
         <v>-0.2103118052239505</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.369270993091698</v>
+        <v>-3.403867750957151</v>
       </c>
       <c r="G126">
         <v>-0.202001039117869</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.37373049596548</v>
+        <v>-3.410497641412062</v>
       </c>
       <c r="G127">
         <v>-0.2109863198894688</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.366153362944165</v>
+        <v>-3.402488884957921</v>
       </c>
       <c r="G128">
         <v>-0.1994352989735662</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.376406078164745</v>
+        <v>-3.403710846170934</v>
       </c>
       <c r="G129">
         <v>-0.206770985829253</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.366369627733649</v>
+        <v>-3.406951010133222</v>
       </c>
       <c r="G130">
         <v>-0.1925319788377484</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.366951574631224</v>
+        <v>-3.406175838452756</v>
       </c>
       <c r="G131">
         <v>-0.2128280266123457</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.369252005870875</v>
+        <v>-3.401868433951067</v>
       </c>
       <c r="G132">
         <v>-0.2048741340706164</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.363197841921477</v>
+        <v>-3.402313950521346</v>
       </c>
       <c r="G133">
         <v>-0.2059116001829804</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.363941732819968</v>
+        <v>-3.398704056489283</v>
       </c>
       <c r="G134">
         <v>-0.1956008445947288</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.377865241319565</v>
+        <v>-3.395740206170353</v>
       </c>
       <c r="G135">
         <v>-0.1961426523495824</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.357047253098005</v>
+        <v>-3.390313312589542</v>
       </c>
       <c r="G136">
         <v>-0.2124805047532679</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.367706778222426</v>
+        <v>-3.391241451896735</v>
       </c>
       <c r="G137">
         <v>-0.2250048927540771</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.357514670758023</v>
+        <v>-3.386307982352211</v>
       </c>
       <c r="G138">
         <v>-0.2060685199658177</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.357244935844662</v>
+        <v>-3.380691209645494</v>
       </c>
       <c r="G139">
         <v>-0.2070961524506263</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.352513846500933</v>
+        <v>-3.378304655504444</v>
       </c>
       <c r="G140">
         <v>-0.1903288924049467</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.351009444610275</v>
+        <v>-3.373423536623751</v>
       </c>
       <c r="G141">
         <v>-0.1916395910340254</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.350485523069367</v>
+        <v>-3.370523332001317</v>
       </c>
       <c r="G142">
         <v>-0.2040289226592951</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.347672918384167</v>
+        <v>-3.369155924636771</v>
       </c>
       <c r="G143">
         <v>-0.2080113487814117</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.349340643530791</v>
+        <v>-3.361209971577868</v>
       </c>
       <c r="G144">
         <v>-0.1934347333097637</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.344979137384474</v>
+        <v>-3.35652199865282</v>
       </c>
       <c r="G145">
         <v>-0.2128725553457</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.343254702925279</v>
+        <v>-3.360738629581951</v>
       </c>
       <c r="G146">
         <v>-0.2042039242885454</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.340164552026661</v>
+        <v>-3.346813270087528</v>
       </c>
       <c r="G147">
         <v>-0.1964652508438627</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.341294186655797</v>
+        <v>-3.355208160886887</v>
       </c>
       <c r="G148">
         <v>-0.2129018313716404</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.331356742687202</v>
+        <v>-3.345794875406694</v>
       </c>
       <c r="G149">
         <v>-0.2001972088683412</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.328391949377843</v>
+        <v>-3.33266470043673</v>
       </c>
       <c r="G150">
         <v>-0.2051409953106813</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.326244250925645</v>
+        <v>-3.337804432374865</v>
       </c>
       <c r="G151">
         <v>-0.2096504457267252</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.326054280657363</v>
+        <v>-3.333535238981321</v>
       </c>
       <c r="G152">
         <v>-0.1910088029121633</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.312882002753211</v>
+        <v>-3.330261712712138</v>
       </c>
       <c r="G153">
         <v>-0.1925220136820609</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.30897464090982</v>
+        <v>-3.316364495544796</v>
       </c>
       <c r="G154">
         <v>-0.190735104624183</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.30880532397997</v>
+        <v>-3.315471322819601</v>
       </c>
       <c r="G155">
         <v>-0.1761777775286739</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.311519398457156</v>
+        <v>-3.312999670566001</v>
       </c>
       <c r="G157">
         <v>-0.1948334209868339</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.305302689689327</v>
+        <v>-3.309239130857471</v>
       </c>
       <c r="G158">
         <v>-0.2010629551289269</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.295179682050571</v>
+        <v>-3.299894367629851</v>
       </c>
       <c r="G159">
         <v>-0.18241074694704</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.293336675476546</v>
+        <v>-3.294187441755565</v>
       </c>
       <c r="G161">
         <v>-0.1717242044008722</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.28796667822182</v>
+        <v>-3.288009039509633</v>
       </c>
       <c r="G164">
         <v>-0.1815423733260879</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.281533361160421</v>
+        <v>-3.284997684468709</v>
       </c>
       <c r="G166">
         <v>-0.1841453197836607</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.274277445613884</v>
+        <v>-3.275293354432534</v>
       </c>
       <c r="G168">
         <v>-0.1893863093135564</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.257327285188913</v>
+        <v>-3.25793160374677</v>
       </c>
       <c r="G172">
         <v>-0.1798956003941368</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.255073124279616</v>
+        <v>-3.255814937907981</v>
       </c>
       <c r="G173">
         <v>-0.1671789605299978</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.233839791669991</v>
+        <v>-3.234512857763099</v>
       </c>
       <c r="G177">
         <v>-0.1590040710640661</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.222508356866042</v>
+        <v>-3.223133538001537</v>
       </c>
       <c r="G180">
         <v>-0.1501547988247237</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.187201025658284</v>
+        <v>-3.18780534421614</v>
       </c>
       <c r="G187">
         <v>-0.1356069720898425</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.158885250438606</v>
+        <v>-3.159072798988644</v>
       </c>
       <c r="G193">
         <v>-0.1206156860479736</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.140985896590641</v>
+        <v>-3.142459823468183</v>
       </c>
       <c r="G196">
         <v>-0.100420136490344</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.134736049922041</v>
+        <v>-3.135280231370854</v>
       </c>
       <c r="G197">
         <v>-0.1031254595028511</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.129598634956051</v>
+        <v>-3.130815882497974</v>
       </c>
       <c r="G198">
         <v>-0.09587723418989774</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.123183835339105</v>
+        <v>-3.124401082881028</v>
       </c>
       <c r="G199">
         <v>-0.09276007027185718</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.118362853567453</v>
+        <v>-3.120797348651303</v>
       </c>
       <c r="G200">
         <v>-0.09308719220249245</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.110455715119191</v>
+        <v>-3.112688394375567</v>
       </c>
       <c r="G201">
         <v>-0.08498994542514426</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.087602496287644</v>
+        <v>-3.089391902008942</v>
       </c>
       <c r="G205">
         <v>-0.0689007921266972</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.080226745214063</v>
+        <v>-3.08445064601921</v>
       </c>
       <c r="G206">
         <v>-0.06427792420295148</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.074640399861777</v>
+        <v>-3.078292142487552</v>
       </c>
       <c r="G207">
         <v>-0.06247891574057335</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.068481896330117</v>
+        <v>-3.07091639141397</v>
       </c>
       <c r="G208">
         <v>-0.05818527508530216</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.062323392798459</v>
+        <v>-3.063540640340387</v>
       </c>
       <c r="G209">
         <v>-0.05145713934618276</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.054947641724878</v>
+        <v>-3.056164889266805</v>
       </c>
       <c r="G210">
         <v>-0.04659134051153879</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.440343839163535</v>
+        <v>-3.444697029346385</v>
       </c>
       <c r="G221">
         <v>-0.07509380158038681</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.460014079777809</v>
+        <v>-3.467497948105064</v>
       </c>
       <c r="G222">
         <v>-0.1261221279392388</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.467423634369806</v>
+        <v>-3.490908062022479</v>
       </c>
       <c r="G223">
         <v>-0.161568410240108</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.451768665709797</v>
+        <v>-3.488431123025915</v>
       </c>
       <c r="G224">
         <v>-0.1789753911880618</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.44118318546283</v>
+        <v>-3.443775557821067</v>
       </c>
       <c r="G225">
         <v>-0.1880534168807109</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.40028399453415</v>
+        <v>-3.410587817315769</v>
       </c>
       <c r="G226">
         <v>-0.1720349032346495</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.35346614809261</v>
+        <v>-3.353824687209341</v>
       </c>
       <c r="G227">
         <v>-0.1598549218794196</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.2836091054567</v>
+        <v>-3.283841881507941</v>
       </c>
       <c r="G228">
         <v>-0.124939227921579</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.201360941681648</v>
+        <v>-3.201940020609361</v>
       </c>
       <c r="G229">
         <v>-0.06960012234161345</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.504555419826335</v>
+        <v>-3.507275642389149</v>
       </c>
       <c r="G232">
         <v>-0.06982295530925553</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.527288076804022</v>
+        <v>-3.530214849188464</v>
       </c>
       <c r="G233">
         <v>-0.1193455610788772</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.532215435694136</v>
+        <v>-3.534830181505662</v>
       </c>
       <c r="G234">
         <v>-0.1489198660817626</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.526747262557631</v>
+        <v>-3.531516293752225</v>
       </c>
       <c r="G235">
         <v>-0.1791353870939694</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.498725789516322</v>
+        <v>-3.504386146119767</v>
       </c>
       <c r="G236">
         <v>-0.1801541104037991</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.462253743233664</v>
+        <v>-3.46809614173273</v>
       </c>
       <c r="G237">
         <v>-0.1690323907237965</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.410492768337639</v>
+        <v>-3.412190493741556</v>
       </c>
       <c r="G238">
         <v>-0.1490815369440799</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.268460627057931</v>
+        <v>-3.268809722275102</v>
       </c>
       <c r="G240">
         <v>-0.06507093381269408</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.549354001275003</v>
+        <v>-3.551324770303685</v>
       </c>
       <c r="G243">
         <v>-0.06124301153638934</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.570162390132057</v>
+        <v>-3.574370310011574</v>
       </c>
       <c r="G244">
         <v>-0.1096792666964426</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.568874121068549</v>
+        <v>-3.575554912410514</v>
       </c>
       <c r="G245">
         <v>-0.1348531855905084</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.567306317027223</v>
+        <v>-3.571201346092761</v>
       </c>
       <c r="G246">
         <v>-0.1678587376938014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.542166610077758</v>
+        <v>-3.549984753201412</v>
       </c>
       <c r="G247">
         <v>-0.1721668060413666</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.503693394512263</v>
+        <v>-3.507557155369875</v>
       </c>
       <c r="G248">
         <v>-0.1555474591718482</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.451257212707939</v>
+        <v>-3.459805191787565</v>
       </c>
       <c r="G249">
         <v>-0.1385208944505665</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.388788746806763</v>
+        <v>-3.394043036757461</v>
       </c>
       <c r="G250">
         <v>-0.1074523531755635</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.315402497279505</v>
+        <v>-3.315868217354714</v>
       </c>
       <c r="G251">
         <v>-0.06245156705394911</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.588838581863905</v>
+        <v>-3.590759533619106</v>
       </c>
       <c r="G254">
         <v>-0.06167206799187186</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.602644452180849</v>
+        <v>-3.604720168743352</v>
       </c>
       <c r="G255">
         <v>-0.1054580256615738</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.601715048066717</v>
+        <v>-3.606312521079502</v>
       </c>
       <c r="G256">
         <v>-0.1342450901945598</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.590568585783507</v>
+        <v>-3.59813877688888</v>
       </c>
       <c r="G257">
         <v>-0.1519753665104568</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.569122121888711</v>
+        <v>-3.579401717375646</v>
       </c>
       <c r="G258">
         <v>-0.1614537026762639</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.532286035958444</v>
+        <v>-3.539575124219158</v>
       </c>
       <c r="G259">
         <v>-0.1545977040987547</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.48331917872236</v>
+        <v>-3.490571240452621</v>
       </c>
       <c r="G260">
         <v>-0.1336105878877607</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.422614063302325</v>
+        <v>-3.42554314239344</v>
       </c>
       <c r="G261">
         <v>-0.1008852767335773</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.349117328789066</v>
+        <v>-3.350929139901309</v>
       </c>
       <c r="G262">
         <v>-0.0580773232313993</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.615097983040736</v>
+        <v>-3.616698565094518</v>
       </c>
       <c r="G265">
         <v>-0.05468212199645883</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.62667991216973</v>
+        <v>-3.630352880297026</v>
       </c>
       <c r="G266">
         <v>-0.09530727137649508</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.626797379748451</v>
+        <v>-3.633605715618285</v>
       </c>
       <c r="G267">
         <v>-0.127217422171348</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.612999444764246</v>
+        <v>-3.620462719242652</v>
       </c>
       <c r="G268">
         <v>-0.1454488984933913</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.587044082978032</v>
+        <v>-3.596677416667217</v>
       </c>
       <c r="G269">
         <v>-0.1506114587777778</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.549327204262176</v>
+        <v>-3.56103739448639</v>
       </c>
       <c r="G270">
         <v>-0.1410768474947803</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.504441403722232</v>
+        <v>-3.51337004231419</v>
       </c>
       <c r="G271">
         <v>-0.1266079912322207</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.444564331303606</v>
+        <v>-3.450838705237</v>
       </c>
       <c r="G272">
         <v>-0.09570124415755543</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.372798976650905</v>
+        <v>-3.375528423048801</v>
       </c>
       <c r="G273">
         <v>-0.05576732713415117</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.635340774742331</v>
+        <v>-3.636678930966523</v>
       </c>
       <c r="G276">
         <v>-0.05365043309034645</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.646140871813088</v>
+        <v>-3.649364401006539</v>
       </c>
       <c r="G277">
         <v>-0.09602242256225102</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.643110587547491</v>
+        <v>-3.650425969786268</v>
       </c>
       <c r="G278">
         <v>-0.1222431016499339</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.630662746447314</v>
+        <v>-3.640351237625274</v>
       </c>
       <c r="G279">
         <v>-0.1412173780585211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.600786146007706</v>
+        <v>-3.614094025899509</v>
       </c>
       <c r="G280">
         <v>-0.1388304430165597</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.569348955049026</v>
+        <v>-3.58162715304393</v>
       </c>
       <c r="G281">
         <v>-0.1376956702397052</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.520344638961703</v>
+        <v>-3.532356314556284</v>
       </c>
       <c r="G282">
         <v>-0.121908891865977</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.462176036683837</v>
+        <v>-3.468447248150815</v>
       </c>
       <c r="G283">
         <v>-0.09347997787367435</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.392094042585494</v>
+        <v>-3.397491567315403</v>
       </c>
       <c r="G284">
         <v>-0.05279846889882123</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.652804545663333</v>
+        <v>-3.653808210418201</v>
       </c>
       <c r="G287">
         <v>-0.05294856114196955</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.661245461014011</v>
+        <v>-3.665817656889224</v>
       </c>
       <c r="G288">
         <v>-0.0894830131692812</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.655649493253323</v>
+        <v>-3.66337985913653</v>
       </c>
       <c r="G289">
         <v>-0.114795369001425</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.638664975547546</v>
+        <v>-3.65181361044593</v>
       </c>
       <c r="G290">
         <v>-0.1294051182733678</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.614335411930881</v>
+        <v>-3.63048178712058</v>
       </c>
       <c r="G291">
         <v>-0.1353825723460902</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.578923282942051</v>
+        <v>-3.594337488982007</v>
       </c>
       <c r="G292">
         <v>-0.1309976005446769</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.531898715661981</v>
+        <v>-3.544417924375578</v>
       </c>
       <c r="G293">
         <v>-0.1151117989877499</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.476302794655387</v>
+        <v>-3.482947516333363</v>
       </c>
       <c r="G294">
         <v>-0.08837812589510396</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.408366315094895</v>
+        <v>-3.413927553465886</v>
       </c>
       <c r="G295">
         <v>-0.0512164976008988</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.667376322144613</v>
+        <v>-3.66808530964206</v>
       </c>
       <c r="G298">
         <v>-0.05132568274001459</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.673637676951036</v>
+        <v>-3.679305836565101</v>
       </c>
       <c r="G299">
         <v>-0.08717638242194026</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.667974088559533</v>
+        <v>-3.679237061988029</v>
       </c>
       <c r="G300">
         <v>-0.1141442385035143</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.651382539939092</v>
+        <v>-3.66498233117904</v>
       </c>
       <c r="G301">
         <v>-0.1263056547068122</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.624325589245433</v>
+        <v>-3.641224695564591</v>
       </c>
       <c r="G302">
         <v>-0.1311673943107259</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.587945306314471</v>
+        <v>-3.604294677359944</v>
       </c>
       <c r="G303">
         <v>-0.1255590732612892</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.542423010527315</v>
+        <v>-3.557659719728634</v>
       </c>
       <c r="G304">
         <v>-0.1101607798482054</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.487728765855424</v>
+        <v>-3.495284162939641</v>
       </c>
       <c r="G305">
         <v>-0.08578092929130066</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.42126319373391</v>
+        <v>-3.427769938054324</v>
       </c>
       <c r="G306">
         <v>-0.04999428366580361</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.677373427408072</v>
+        <v>-3.678960451478637</v>
       </c>
       <c r="G309">
         <v>-0.04919202166132131</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.683538227002671</v>
+        <v>-3.690068087902483</v>
       </c>
       <c r="G310">
         <v>-0.08520807599474001</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.6769271363375</v>
+        <v>-3.689200612205159</v>
       </c>
       <c r="G311">
         <v>-0.1086488991196881</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.659526031672565</v>
+        <v>-3.675527814068537</v>
       </c>
       <c r="G312">
         <v>-0.1235606451479523</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.633168932121133</v>
+        <v>-3.65133059641012</v>
       </c>
       <c r="G313">
         <v>-0.126883102837124</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.59761195417326</v>
+        <v>-3.614520891807307</v>
       </c>
       <c r="G314">
         <v>-0.1205150969015198</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.551949850174041</v>
+        <v>-3.56626688550136</v>
       </c>
       <c r="G315">
         <v>-0.1081533858239563</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.496514283676844</v>
+        <v>-3.505080983695413</v>
       </c>
       <c r="G316">
         <v>-0.0819950374221815</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.43102016151549</v>
+        <v>-3.438299870105433</v>
       </c>
       <c r="G317">
         <v>-0.04788564637610015</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.689159633076596</v>
+        <v>-3.69048862492855</v>
       </c>
       <c r="G320">
         <v>-0.0492269726180341</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.692241100372894</v>
+        <v>-3.700465638787862</v>
       </c>
       <c r="G321">
         <v>-0.08179461588496517</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.685461550123587</v>
+        <v>-3.698261478843733</v>
       </c>
       <c r="G322">
         <v>-0.1065917024933816</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.667530438420909</v>
+        <v>-3.684065072577681</v>
       </c>
       <c r="G323">
         <v>-0.1197817536647063</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.640398073169722</v>
+        <v>-3.661219076211382</v>
       </c>
       <c r="G324">
         <v>-0.1231361232139649</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.605406438720047</v>
+        <v>-3.622016527238358</v>
       </c>
       <c r="G325">
         <v>-0.1180597063197308</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.559189851445946</v>
+        <v>-3.574768931945173</v>
       </c>
       <c r="G326">
         <v>-0.1038749968112782</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.505143255321637</v>
+        <v>-3.515406418382085</v>
       </c>
       <c r="G327">
         <v>-0.08155775458133574</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.440011782733007</v>
+        <v>-3.447748108151008</v>
       </c>
       <c r="G328">
         <v>-0.04726308941126733</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-3.696600641172512</v>
+        <v>-3.698996165976881</v>
       </c>
       <c r="G331">
         <v>-0.04759938586814583</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.699478994557944</v>
+        <v>-3.708019306158276</v>
       </c>
       <c r="G332">
         <v>-0.08064142588016088</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.692466639457163</v>
+        <v>-3.705027473647118</v>
       </c>
       <c r="G333">
         <v>-0.1033034623175126</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.674051128624895</v>
+        <v>-3.691652822501759</v>
       </c>
       <c r="G334">
         <v>-0.1160291001349534</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.646614278732104</v>
+        <v>-3.66668396931754</v>
       </c>
       <c r="G335">
         <v>-0.1212537191166847</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.611596781571777</v>
+        <v>-3.628627220833798</v>
       </c>
       <c r="G336">
         <v>-0.1171463958785943</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.565957777596269</v>
+        <v>-3.580461135656122</v>
       </c>
       <c r="G337">
         <v>-0.1019666872218505</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.512095807924089</v>
+        <v>-3.522734777843124</v>
       </c>
       <c r="G338">
         <v>-0.07866018869931046</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.448141507106536</v>
+        <v>-3.455555657343192</v>
       </c>
       <c r="G339">
         <v>-0.04593356749053251</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.191604263380184</v>
+        <v>-3.192923051258971</v>
       </c>
       <c r="G24">
         <v>-0.1825342528757443</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.234366127804031</v>
+        <v>-3.250416408440872</v>
       </c>
       <c r="G28">
         <v>-0.2263308020475367</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.226291917543955</v>
+        <v>-3.228018616195422</v>
       </c>
       <c r="G35">
         <v>-0.2139179504768249</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.221365534285993</v>
+        <v>-3.22309223293746</v>
       </c>
       <c r="G36">
         <v>-0.2503416704429882</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.218165849679498</v>
+        <v>-3.219892548330966</v>
       </c>
       <c r="G37">
         <v>-0.2485444710823725</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.206406183978548</v>
+        <v>-3.210039781815046</v>
       </c>
       <c r="G39">
         <v>-0.265444142240046</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.186502698230497</v>
+        <v>-3.191807234738227</v>
       </c>
       <c r="G42">
         <v>-0.2498892811955453</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.14024059754118</v>
+        <v>-3.141911536212413</v>
       </c>
       <c r="G50">
         <v>-0.2394882828250724</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.119589973251543</v>
+        <v>-3.121260911922776</v>
       </c>
       <c r="G51">
         <v>-0.2242918169240968</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.103100044072969</v>
+        <v>-3.110019759271697</v>
       </c>
       <c r="G53">
         <v>-0.2132674402289524</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.065801378622012</v>
+        <v>-3.071208267132258</v>
       </c>
       <c r="G56">
         <v>-0.189168849671664</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.05055764284262</v>
+        <v>-3.057477358041349</v>
       </c>
       <c r="G57">
         <v>-0.1905315934281304</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.308933047307674</v>
+        <v>-3.312402388426484</v>
       </c>
       <c r="G79">
         <v>-0.05806911500883194</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.315791099425031</v>
+        <v>-3.318767016507558</v>
       </c>
       <c r="G80">
         <v>-0.05846675840959348</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.329578480191465</v>
+        <v>-3.333963392851114</v>
       </c>
       <c r="G82">
         <v>-0.07828602582500643</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.33528240471943</v>
+        <v>-3.337800536031541</v>
       </c>
       <c r="G84">
         <v>-0.08702260319698274</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.340695822993806</v>
+        <v>-3.344658588148896</v>
       </c>
       <c r="G85">
         <v>-0.08600054719270256</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.346089183851706</v>
+        <v>-3.351436010145986</v>
       </c>
       <c r="G87">
         <v>-0.09486629644061839</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.347392614870628</v>
+        <v>-3.355282506914949</v>
       </c>
       <c r="G88">
         <v>-0.08719858426953309</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.361682773261881</v>
+        <v>-3.364658690344409</v>
       </c>
       <c r="G89">
         <v>-0.1080710927607402</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.35405377862767</v>
+        <v>-3.358509967819042</v>
       </c>
       <c r="G90">
         <v>-0.101984035772519</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.358326301356747</v>
+        <v>-3.366638340905634</v>
       </c>
       <c r="G92">
         <v>-0.1268521841929484</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.366542081100043</v>
+        <v>-3.366999866870465</v>
       </c>
       <c r="G93">
         <v>-0.1112624432803253</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.376392170278833</v>
+        <v>-3.378997207807989</v>
       </c>
       <c r="G94">
         <v>-0.1111481818263407</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.383836571925813</v>
+        <v>-3.38631906497206</v>
       </c>
       <c r="G96">
         <v>-0.1290872309760207</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.380940091472053</v>
+        <v>-3.381926939544616</v>
       </c>
       <c r="G97">
         <v>-0.130491592164907</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.381969725718069</v>
+        <v>-3.385403428571018</v>
       </c>
       <c r="G98">
         <v>-0.1387983515495126</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.382113880472748</v>
+        <v>-3.399161512028576</v>
       </c>
       <c r="G99">
         <v>-0.1189119916874022</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.386008952908312</v>
+        <v>-3.394830176753741</v>
       </c>
       <c r="G101">
         <v>-0.1448866289872193</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.394021606884368</v>
+        <v>-3.396507015542214</v>
       </c>
       <c r="G102">
         <v>-0.133835177082394</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.395862430249081</v>
+        <v>-3.402165522782404</v>
       </c>
       <c r="G103">
         <v>-0.1650001927809539</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.403020085388088</v>
+        <v>-3.408794861014407</v>
       </c>
       <c r="G104">
         <v>-0.1428854213032889</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.398126126108194</v>
+        <v>-3.405263662667148</v>
       </c>
       <c r="G105">
         <v>-0.1578445753302802</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.40202363400786</v>
+        <v>-3.403961691887124</v>
       </c>
       <c r="G106">
         <v>-0.1590586023094347</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.410734858462591</v>
+        <v>-3.412317409653317</v>
       </c>
       <c r="G107">
         <v>-0.1524149069149345</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.384709048211175</v>
+        <v>-3.401167271904962</v>
       </c>
       <c r="G108">
         <v>-0.1762172835766069</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.391526928062812</v>
+        <v>-3.406882520077265</v>
       </c>
       <c r="G109">
         <v>-0.1817110095318997</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.387482746339325</v>
+        <v>-3.410715514170947</v>
       </c>
       <c r="G110">
         <v>-0.161071727307796</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.405213849539329</v>
+        <v>-3.419355462093968</v>
       </c>
       <c r="G111">
         <v>-0.2058945631219307</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.396929701444359</v>
+        <v>-3.419765340398384</v>
       </c>
       <c r="G112">
         <v>-0.1749753027412644</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.393180261611894</v>
+        <v>-3.415392375258179</v>
       </c>
       <c r="G113">
         <v>-0.1667745102649842</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.405914261601871</v>
+        <v>-3.417398059923061</v>
       </c>
       <c r="G114">
         <v>-0.1675713719706224</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.396856150898586</v>
+        <v>-3.415957681501712</v>
       </c>
       <c r="G115">
         <v>-0.2013287306324516</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.414735373943943</v>
+        <v>-3.415173281708769</v>
       </c>
       <c r="G116">
         <v>-0.2101551499882608</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.415977767591841</v>
+        <v>-3.417205160017833</v>
       </c>
       <c r="G117">
         <v>-0.17158359556278</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.40425426574409</v>
+        <v>-3.421988870187895</v>
       </c>
       <c r="G118">
         <v>-0.1696815034208341</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.398907215840613</v>
+        <v>-3.410459665212304</v>
       </c>
       <c r="G119">
         <v>-0.1929497839127996</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.415206147587354</v>
+        <v>-3.415219233560326</v>
       </c>
       <c r="G120">
         <v>-0.1830029283948424</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.409174766291578</v>
+        <v>-3.413040329422055</v>
       </c>
       <c r="G122">
         <v>-0.1826904314046645</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.405773951173776</v>
+        <v>-3.414796148634903</v>
       </c>
       <c r="G123">
         <v>-0.1832938209016994</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.406993985062521</v>
+        <v>-3.409800457285781</v>
       </c>
       <c r="G124">
         <v>-0.195150891745135</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.399761287933567</v>
+        <v>-3.400360920843927</v>
       </c>
       <c r="G125">
         <v>-0.2103118052239505</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.403867750957151</v>
+        <v>-3.404513794670285</v>
       </c>
       <c r="G126">
         <v>-0.202001039117869</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.410497641412062</v>
+        <v>-3.411233295238087</v>
       </c>
       <c r="G127">
         <v>-0.2109863198894688</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.402488884957921</v>
+        <v>-3.403794295784285</v>
       </c>
       <c r="G128">
         <v>-0.1994352989735662</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.403710846170934</v>
+        <v>-3.406471521886699</v>
       </c>
       <c r="G129">
         <v>-0.206770985829253</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.406951010133222</v>
+        <v>-3.409718504989445</v>
       </c>
       <c r="G130">
         <v>-0.1925319788377484</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.390313312589542</v>
+        <v>-3.391589639276924</v>
       </c>
       <c r="G136">
         <v>-0.2124805047532679</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.391241451896735</v>
+        <v>-3.391934744434944</v>
       </c>
       <c r="G137">
         <v>-0.2250048927540771</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.380691209645494</v>
+        <v>-3.380775717919624</v>
       </c>
       <c r="G139">
         <v>-0.2070961524506263</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.378304655504444</v>
+        <v>-3.380185300749684</v>
       </c>
       <c r="G140">
         <v>-0.1903288924049467</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.373423536623751</v>
+        <v>-3.375478300256014</v>
       </c>
       <c r="G141">
         <v>-0.1916395910340254</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.370523332001317</v>
+        <v>-3.371710048575816</v>
       </c>
       <c r="G142">
         <v>-0.2040289226592951</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.369155924636771</v>
+        <v>-3.369960325998049</v>
       </c>
       <c r="G143">
         <v>-0.2080113487814117</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.361209971577868</v>
+        <v>-3.366341771355</v>
       </c>
       <c r="G144">
         <v>-0.1934347333097637</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.35652199865282</v>
+        <v>-3.358632209545877</v>
       </c>
       <c r="G145">
         <v>-0.2128725553457</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.360738629581951</v>
+        <v>-3.360828239694842</v>
       </c>
       <c r="G146">
         <v>-0.2042039242885454</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.346813270087528</v>
+        <v>-3.351417061145232</v>
       </c>
       <c r="G147">
         <v>-0.1964652508438627</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.345794875406694</v>
+        <v>-3.347113985212937</v>
       </c>
       <c r="G149">
         <v>-0.2001972088683412</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.33266470043673</v>
+        <v>-3.343181859395929</v>
       </c>
       <c r="G150">
         <v>-0.2051409953106813</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.337804432374865</v>
+        <v>-3.337894042487756</v>
       </c>
       <c r="G151">
         <v>-0.2096504457267252</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.333535238981321</v>
+        <v>-3.335658114016315</v>
       </c>
       <c r="G152">
         <v>-0.1910088029121633</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.330261712712138</v>
+        <v>-3.332358201499684</v>
       </c>
       <c r="G153">
         <v>-0.1925220136820609</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.315471322819601</v>
+        <v>-3.315964746855882</v>
       </c>
       <c r="G155">
         <v>-0.1761777775286739</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.315315025029797</v>
+        <v>-3.31611432455232</v>
       </c>
       <c r="G156">
         <v>-0.208045534212816</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.309239130857471</v>
+        <v>-3.312548006976077</v>
       </c>
       <c r="G158">
         <v>-0.2010629551289269</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.299894367629851</v>
+        <v>-3.30572192040961</v>
       </c>
       <c r="G159">
         <v>-0.18241074694704</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.298696732219732</v>
+        <v>-3.304516300865277</v>
       </c>
       <c r="G160">
         <v>-0.1988866929083017</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.294187441755565</v>
+        <v>-3.301781339717385</v>
       </c>
       <c r="G161">
         <v>-0.1717242044008722</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.292086059108354</v>
+        <v>-3.294024826380287</v>
       </c>
       <c r="G163">
         <v>-0.1978706084260877</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.288009039509633</v>
+        <v>-3.289926308071395</v>
       </c>
       <c r="G164">
         <v>-0.1815423733260879</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.284997684468709</v>
+        <v>-3.286316794274953</v>
       </c>
       <c r="G166">
         <v>-0.1841453197836607</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.277967898245988</v>
+        <v>-3.280606117858474</v>
       </c>
       <c r="G167">
         <v>-0.1912118990692731</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.275293354432534</v>
+        <v>-3.276612464238778</v>
       </c>
       <c r="G168">
         <v>-0.1893863093135564</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.268830437361087</v>
+        <v>-3.26962973688361</v>
       </c>
       <c r="G169">
         <v>-0.1766153559757808</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.263999439201954</v>
+        <v>-3.264645482915088</v>
       </c>
       <c r="G171">
         <v>-0.1831755848983563</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.25793160374677</v>
+        <v>-3.259514442052932</v>
       </c>
       <c r="G172">
         <v>-0.1798956003941368</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.251720720246029</v>
+        <v>-3.251894838633053</v>
       </c>
       <c r="G174">
         <v>-0.1768161482882717</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.243822556539383</v>
+        <v>-3.246772593233751</v>
       </c>
       <c r="G175">
         <v>-0.1719854603737707</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.237228355176164</v>
+        <v>-3.2395460930223</v>
       </c>
       <c r="G176">
         <v>-0.1622760083598945</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.234512857763099</v>
+        <v>-3.236484171084815</v>
       </c>
       <c r="G177">
         <v>-0.1590040710640661</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.2326265235932</v>
+        <v>-3.233251704728696</v>
       </c>
       <c r="G178">
         <v>-0.1627156619545089</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.227495268429553</v>
+        <v>-3.228120449565048</v>
       </c>
       <c r="G179">
         <v>-0.1600186664019895</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.223133538001537</v>
+        <v>-3.224125909743901</v>
       </c>
       <c r="G180">
         <v>-0.1501547988247237</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.215969625523016</v>
+        <v>-3.217240850371645</v>
       </c>
       <c r="G181">
         <v>-0.1512942342109882</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.201718320633088</v>
+        <v>-3.201760045788365</v>
       </c>
       <c r="G184">
         <v>-0.1391775370763627</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.1982102207162</v>
+        <v>-3.199481445564829</v>
       </c>
       <c r="G185">
         <v>-0.145021753314465</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.191837146254525</v>
+        <v>-3.192162189875077</v>
       </c>
       <c r="G186">
         <v>-0.1366853501841727</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.18780534421614</v>
+        <v>-3.189663497472694</v>
       </c>
       <c r="G187">
         <v>-0.1356069720898425</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.183143934263976</v>
+        <v>-3.183817000357086</v>
       </c>
       <c r="G188">
         <v>-0.1303344868768902</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.179700673956771</v>
+        <v>-3.181046806142994</v>
       </c>
       <c r="G189">
         <v>-0.1282070298195056</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.170934378167054</v>
+        <v>-3.172071580372882</v>
       </c>
       <c r="G190">
         <v>-0.1252081032002661</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.162449525056642</v>
+        <v>-3.163726909707608</v>
       </c>
       <c r="G192">
         <v>-0.1202301214516269</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.148687074535097</v>
+        <v>-3.149291393092954</v>
       </c>
       <c r="G195">
         <v>-0.1101302207689309</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.142459823468183</v>
+        <v>-3.143737208119149</v>
       </c>
       <c r="G196">
         <v>-0.100420136490344</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.135280231370854</v>
+        <v>-3.136557616021821</v>
       </c>
       <c r="G197">
         <v>-0.1031254595028511</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.112688394375567</v>
+        <v>-3.113965779026534</v>
       </c>
       <c r="G201">
         <v>-0.08498994542514426</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.106650165061993</v>
+        <v>-3.109084660145843</v>
       </c>
       <c r="G202">
         <v>-0.08516436655885068</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.089391902008942</v>
+        <v>-3.090609149550866</v>
       </c>
       <c r="G205">
         <v>-0.0689007921266972</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.444697029346385</v>
+        <v>-3.445757249754268</v>
       </c>
       <c r="G221">
         <v>-0.07509380158038681</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.467497948105064</v>
+        <v>-3.4765841691843</v>
       </c>
       <c r="G222">
         <v>-0.1261221279392388</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.490908062022479</v>
+        <v>-3.497671768717189</v>
       </c>
       <c r="G223">
         <v>-0.161568410240108</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.488431123025915</v>
+        <v>-3.490665954021334</v>
       </c>
       <c r="G224">
         <v>-0.1789753911880618</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.443775557821067</v>
+        <v>-3.451885063260682</v>
       </c>
       <c r="G225">
         <v>-0.1880534168807109</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.410587817315769</v>
+        <v>-3.412864063258464</v>
       </c>
       <c r="G226">
         <v>-0.1720349032346495</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.353824687209341</v>
+        <v>-3.355507844416328</v>
       </c>
       <c r="G227">
         <v>-0.1598549218794196</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.507275642389149</v>
+        <v>-3.508771247720364</v>
       </c>
       <c r="G232">
         <v>-0.06982295530925553</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.530214849188464</v>
+        <v>-3.533005878102931</v>
       </c>
       <c r="G233">
         <v>-0.1193455610788772</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.534830181505662</v>
+        <v>-3.535669513957431</v>
       </c>
       <c r="G234">
         <v>-0.1489198660817626</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.531516293752225</v>
+        <v>-3.5326117569421</v>
       </c>
       <c r="G235">
         <v>-0.1791353870939694</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.504386146119767</v>
+        <v>-3.506165916625647</v>
       </c>
       <c r="G236">
         <v>-0.1801541104037991</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.46809614173273</v>
+        <v>-3.468421502356524</v>
       </c>
       <c r="G237">
         <v>-0.1690323907237965</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.412190493741556</v>
+        <v>-3.412527709662589</v>
       </c>
       <c r="G238">
         <v>-0.1490815369440799</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.348096599578669</v>
+        <v>-3.348165192313415</v>
       </c>
       <c r="G239">
         <v>-0.1155961492526403</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.551324770303685</v>
+        <v>-3.555453649914193</v>
       </c>
       <c r="G243">
         <v>-0.06124301153638934</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.574370310011574</v>
+        <v>-3.575565065392785</v>
       </c>
       <c r="G244">
         <v>-0.1096792666964426</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.575554912410514</v>
+        <v>-3.580673849871405</v>
       </c>
       <c r="G245">
         <v>-0.1348531855905084</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.571201346092761</v>
+        <v>-3.574007999999256</v>
       </c>
       <c r="G246">
         <v>-0.1678587376938014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.549984753201412</v>
+        <v>-3.551043117130321</v>
       </c>
       <c r="G247">
         <v>-0.1721668060413666</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.507557155369875</v>
+        <v>-3.508049055656686</v>
       </c>
       <c r="G248">
         <v>-0.1555474591718482</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.459805191787565</v>
+        <v>-3.460301246765566</v>
       </c>
       <c r="G249">
         <v>-0.1385208944505665</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.394043036757461</v>
+        <v>-3.394507457242034</v>
       </c>
       <c r="G250">
         <v>-0.1074523531755635</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.315868217354714</v>
+        <v>-3.316672997273324</v>
       </c>
       <c r="G251">
         <v>-0.06245156705394911</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.590759533619106</v>
+        <v>-3.591116250452589</v>
       </c>
       <c r="G254">
         <v>-0.06167206799187186</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.604720168743352</v>
+        <v>-3.605617578062529</v>
       </c>
       <c r="G255">
         <v>-0.1054580256615738</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.606312521079502</v>
+        <v>-3.606919889290861</v>
       </c>
       <c r="G256">
         <v>-0.1342450901945598</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.59813877688888</v>
+        <v>-3.601346352618411</v>
       </c>
       <c r="G257">
         <v>-0.1519753665104568</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.579401717375646</v>
+        <v>-3.580633815854896</v>
       </c>
       <c r="G258">
         <v>-0.1614537026762639</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.539575124219158</v>
+        <v>-3.540404234003524</v>
       </c>
       <c r="G259">
         <v>-0.1545977040987547</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.490571240452621</v>
+        <v>-3.491472216308837</v>
       </c>
       <c r="G260">
         <v>-0.1336105878877607</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.42554314239344</v>
+        <v>-3.425952766722415</v>
       </c>
       <c r="G261">
         <v>-0.1008852767335773</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.350929139901309</v>
+        <v>-3.351020500747234</v>
       </c>
       <c r="G262">
         <v>-0.0580773232313993</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.616698565094518</v>
+        <v>-3.617699846715267</v>
       </c>
       <c r="G265">
         <v>-0.05468212199645883</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.630352880297026</v>
+        <v>-3.632123566003318</v>
       </c>
       <c r="G266">
         <v>-0.09530727137649508</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.633605715618285</v>
+        <v>-3.639114281621936</v>
       </c>
       <c r="G267">
         <v>-0.127217422171348</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.620462719242652</v>
+        <v>-3.623155442362279</v>
       </c>
       <c r="G268">
         <v>-0.1454488984933913</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.596677416667217</v>
+        <v>-3.598935220425364</v>
       </c>
       <c r="G269">
         <v>-0.1506114587777778</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.56103739448639</v>
+        <v>-3.562383473800514</v>
       </c>
       <c r="G270">
         <v>-0.1410768474947803</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.51337004231419</v>
+        <v>-3.515068116843395</v>
       </c>
       <c r="G271">
         <v>-0.1266079912322207</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.450838705237</v>
+        <v>-3.451079215288299</v>
       </c>
       <c r="G272">
         <v>-0.09570124415755543</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.375528423048801</v>
+        <v>-3.375865463025049</v>
       </c>
       <c r="G273">
         <v>-0.05576732713415117</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.636678930966523</v>
+        <v>-3.636997950849877</v>
       </c>
       <c r="G276">
         <v>-0.05365043309034645</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.649364401006539</v>
+        <v>-3.64952990889908</v>
       </c>
       <c r="G277">
         <v>-0.09602242256225102</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.650425969786268</v>
+        <v>-3.65139060168089</v>
       </c>
       <c r="G278">
         <v>-0.1222431016499339</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.640351237625274</v>
+        <v>-3.642051875440569</v>
       </c>
       <c r="G279">
         <v>-0.1412173780585211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.614094025899509</v>
+        <v>-3.615950570936703</v>
       </c>
       <c r="G280">
         <v>-0.1388304430165597</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.58162715304393</v>
+        <v>-3.582860431156954</v>
       </c>
       <c r="G281">
         <v>-0.1376956702397052</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.532356314556284</v>
+        <v>-3.533364406268455</v>
       </c>
       <c r="G282">
         <v>-0.121908891865977</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.468447248150815</v>
+        <v>-3.468696496678892</v>
       </c>
       <c r="G283">
         <v>-0.09347997787367435</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.397491567315403</v>
+        <v>-3.397762645471812</v>
       </c>
       <c r="G284">
         <v>-0.05279846889882123</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.653808210418201</v>
+        <v>-3.654306207374353</v>
       </c>
       <c r="G287">
         <v>-0.05294856114196955</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.665817656889224</v>
+        <v>-3.667448519801923</v>
       </c>
       <c r="G288">
         <v>-0.0894830131692812</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.66337985913653</v>
+        <v>-3.664676031750634</v>
       </c>
       <c r="G289">
         <v>-0.114795369001425</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.65181361044593</v>
+        <v>-3.65497927871673</v>
       </c>
       <c r="G290">
         <v>-0.1294051182733678</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.63048178712058</v>
+        <v>-3.634069082292609</v>
       </c>
       <c r="G291">
         <v>-0.1353825723460902</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.594337488982007</v>
+        <v>-3.597038237730274</v>
       </c>
       <c r="G292">
         <v>-0.1309976005446769</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.544417924375578</v>
+        <v>-3.54583965325128</v>
       </c>
       <c r="G293">
         <v>-0.1151117989877499</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.482947516333363</v>
+        <v>-3.48305235996249</v>
       </c>
       <c r="G294">
         <v>-0.08837812589510396</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.413927553465886</v>
+        <v>-3.414561130268671</v>
       </c>
       <c r="G295">
         <v>-0.0512164976008988</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.66808530964206</v>
+        <v>-3.668710006728179</v>
       </c>
       <c r="G298">
         <v>-0.05132568274001459</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.679305836565101</v>
+        <v>-3.679648174618437</v>
       </c>
       <c r="G299">
         <v>-0.08717638242194026</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.679237061988029</v>
+        <v>-3.680130304294805</v>
       </c>
       <c r="G300">
         <v>-0.1141442385035143</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.66498233117904</v>
+        <v>-3.666795044048055</v>
       </c>
       <c r="G301">
         <v>-0.1263056547068122</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.641224695564591</v>
+        <v>-3.644427842142199</v>
       </c>
       <c r="G302">
         <v>-0.1311673943107259</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.604294677359944</v>
+        <v>-3.607715204462167</v>
       </c>
       <c r="G303">
         <v>-0.1255590732612892</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.557659719728634</v>
+        <v>-3.561332595039938</v>
       </c>
       <c r="G304">
         <v>-0.1101607798482054</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.495284162939641</v>
+        <v>-3.495519717924515</v>
       </c>
       <c r="G305">
         <v>-0.08578092929130066</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.427769938054324</v>
+        <v>-3.42848707780425</v>
       </c>
       <c r="G306">
         <v>-0.04999428366580361</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.678960451478637</v>
+        <v>-3.68078504270268</v>
       </c>
       <c r="G309">
         <v>-0.04919202166132131</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.690068087902483</v>
+        <v>-3.692333886544679</v>
       </c>
       <c r="G310">
         <v>-0.08520807599474001</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.689200612205159</v>
+        <v>-3.692318860931061</v>
       </c>
       <c r="G311">
         <v>-0.1086488991196881</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.675527814068537</v>
+        <v>-3.678109378106423</v>
       </c>
       <c r="G312">
         <v>-0.1235606451479523</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.65133059641012</v>
+        <v>-3.656151855262215</v>
       </c>
       <c r="G313">
         <v>-0.126883102837124</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.614520891807307</v>
+        <v>-3.618876372867232</v>
       </c>
       <c r="G314">
         <v>-0.1205150969015198</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.56626688550136</v>
+        <v>-3.570642856838368</v>
       </c>
       <c r="G315">
         <v>-0.1081533858239563</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.505080983695413</v>
+        <v>-3.505933263113047</v>
       </c>
       <c r="G316">
         <v>-0.0819950374221815</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.438299870105433</v>
+        <v>-3.438716540108719</v>
       </c>
       <c r="G317">
         <v>-0.04788564637610015</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.69048862492855</v>
+        <v>-3.690621825930123</v>
       </c>
       <c r="G320">
         <v>-0.0492269726180341</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.700465638787862</v>
+        <v>-3.701281831154992</v>
       </c>
       <c r="G321">
         <v>-0.08179461588496517</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.698261478843733</v>
+        <v>-3.70003190360845</v>
       </c>
       <c r="G322">
         <v>-0.1065917024933816</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.684065072577681</v>
+        <v>-3.687914615601005</v>
       </c>
       <c r="G323">
         <v>-0.1197817536647063</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.661219076211382</v>
+        <v>-3.665086765512157</v>
       </c>
       <c r="G324">
         <v>-0.1231361232139649</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.622016527238358</v>
+        <v>-3.628300237982585</v>
       </c>
       <c r="G325">
         <v>-0.1180597063197308</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.574768931945173</v>
+        <v>-3.579536906695529</v>
       </c>
       <c r="G326">
         <v>-0.1038749968112782</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.515406418382085</v>
+        <v>-3.518809220869942</v>
       </c>
       <c r="G327">
         <v>-0.08155775458133574</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.447748108151008</v>
+        <v>-3.448540952108954</v>
       </c>
       <c r="G328">
         <v>-0.04726308941126733</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-3.698996165976881</v>
+        <v>-3.699535253656838</v>
       </c>
       <c r="G331">
         <v>-0.04759938586814583</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.708019306158276</v>
+        <v>-3.710018749610681</v>
       </c>
       <c r="G332">
         <v>-0.08064142588016088</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.705027473647118</v>
+        <v>-3.708682442840712</v>
       </c>
       <c r="G333">
         <v>-0.1033034623175126</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.691652822501759</v>
+        <v>-3.697181071252324</v>
       </c>
       <c r="G334">
         <v>-0.1160291001349534</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.66668396931754</v>
+        <v>-3.671395125321873</v>
       </c>
       <c r="G335">
         <v>-0.1212537191166847</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.628627220833798</v>
+        <v>-3.635228004655711</v>
       </c>
       <c r="G336">
         <v>-0.1171463958785943</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.580461135656122</v>
+        <v>-3.586968883447017</v>
       </c>
       <c r="G337">
         <v>-0.1019666872218505</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.522734777843124</v>
+        <v>-3.526670019056582</v>
       </c>
       <c r="G338">
         <v>-0.07866018869931046</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.455555657343192</v>
+        <v>-3.456023492849615</v>
       </c>
       <c r="G339">
         <v>-0.04593356749053251</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.154917395312546</v>
+        <v>-3.158417384637765</v>
       </c>
       <c r="G47">
         <v>-0.2475929330176037</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.305050912272848</v>
+        <v>-3.308026829355375</v>
       </c>
       <c r="G78">
         <v>-0.05232211709761891</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.312402388426484</v>
+        <v>-3.315378305509011</v>
       </c>
       <c r="G79">
         <v>-0.05806911500883194</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.318767016507558</v>
+        <v>-3.322729781662646</v>
       </c>
       <c r="G80">
         <v>-0.05846675840959348</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.326154130927058</v>
+        <v>-3.330081257816283</v>
       </c>
       <c r="G81">
         <v>-0.0636334260674869</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.337800536031541</v>
+        <v>-3.341234238884489</v>
       </c>
       <c r="G84">
         <v>-0.08702260319698274</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.344658588148896</v>
+        <v>-3.345116373919317</v>
       </c>
       <c r="G85">
         <v>-0.08600054719270256</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.348505084917858</v>
+        <v>-3.348998508954139</v>
       </c>
       <c r="G86">
         <v>-0.09341798177181104</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.364658690344409</v>
+        <v>-3.365187752646551</v>
       </c>
       <c r="G89">
         <v>-0.1080710927607402</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.358509967819042</v>
+        <v>-3.363859322329496</v>
       </c>
       <c r="G90">
         <v>-0.101984035772519</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.373830384717577</v>
+        <v>-3.378004376778144</v>
       </c>
       <c r="G95">
         <v>-0.1408341300929745</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.385403428571018</v>
+        <v>-3.385861214341438</v>
       </c>
       <c r="G98">
         <v>-0.1387983515495126</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.396507015542214</v>
+        <v>-3.400063262878072</v>
       </c>
       <c r="G102">
         <v>-0.133835177082394</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.403961691887124</v>
+        <v>-3.404455115923406</v>
       </c>
       <c r="G106">
         <v>-0.1590586023094347</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.412317409653317</v>
+        <v>-3.413339895991748</v>
       </c>
       <c r="G107">
         <v>-0.1524149069149345</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.401167271904962</v>
+        <v>-3.419791430289865</v>
       </c>
       <c r="G108">
         <v>-0.1762172835766069</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.415392375258179</v>
+        <v>-3.415850161028599</v>
       </c>
       <c r="G113">
         <v>-0.1667745102649842</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.417398059923061</v>
+        <v>-3.417712404745455</v>
       </c>
       <c r="G114">
         <v>-0.1675713719706224</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.415957681501712</v>
+        <v>-3.416451105537996</v>
       </c>
       <c r="G115">
         <v>-0.2013287306324516</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.415173281708769</v>
+        <v>-3.419258591346767</v>
       </c>
       <c r="G116">
         <v>-0.2101551499882608</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.417205160017833</v>
+        <v>-3.417698584054113</v>
       </c>
       <c r="G117">
         <v>-0.17158359556278</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.421988870187895</v>
+        <v>-3.425598105579038</v>
       </c>
       <c r="G118">
         <v>-0.1696815034208341</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.410459665212304</v>
+        <v>-3.421752681653544</v>
       </c>
       <c r="G119">
         <v>-0.1929497839127996</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.408159515846602</v>
+        <v>-3.412576524375348</v>
       </c>
       <c r="G121">
         <v>-0.1862667038459076</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.413040329422055</v>
+        <v>-3.418605911168908</v>
       </c>
       <c r="G122">
         <v>-0.1826904314046645</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.386307982352211</v>
+        <v>-3.387389328074932</v>
       </c>
       <c r="G138">
         <v>-0.2060685199658177</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.371710048575816</v>
+        <v>-3.372335229711314</v>
       </c>
       <c r="G142">
         <v>-0.2040289226592951</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.360828239694842</v>
+        <v>-3.361563893520869</v>
       </c>
       <c r="G146">
         <v>-0.2042039242885454</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.355208160886887</v>
+        <v>-3.356568995848408</v>
       </c>
       <c r="G148">
         <v>-0.2129018313716404</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.347113985212937</v>
+        <v>-3.347849639038962</v>
       </c>
       <c r="G149">
         <v>-0.2001972088683412</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.337894042487756</v>
+        <v>-3.339254877449278</v>
       </c>
       <c r="G151">
         <v>-0.2096504457267252</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.335658114016315</v>
+        <v>-3.336104289227516</v>
       </c>
       <c r="G152">
         <v>-0.1910088029121633</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.332358201499684</v>
+        <v>-3.335225694817492</v>
       </c>
       <c r="G153">
         <v>-0.1925220136820609</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.316364495544796</v>
+        <v>-3.31917504442032</v>
       </c>
       <c r="G154">
         <v>-0.190735104624183</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.315964746855882</v>
+        <v>-3.316687100407442</v>
       </c>
       <c r="G155">
         <v>-0.1761777775286739</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.31611432455232</v>
+        <v>-3.32105990026256</v>
       </c>
       <c r="G156">
         <v>-0.208045534212816</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.312999670566001</v>
+        <v>-3.314645690864023</v>
       </c>
       <c r="G157">
         <v>-0.1948334209868339</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.312548006976077</v>
+        <v>-3.313104440576317</v>
       </c>
       <c r="G158">
         <v>-0.2010629551289269</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.30572192040961</v>
+        <v>-3.306347101545105</v>
       </c>
       <c r="G159">
         <v>-0.18241074694704</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.301781339717385</v>
+        <v>-3.305377420124885</v>
       </c>
       <c r="G161">
         <v>-0.1717242044008722</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.294024826380287</v>
+        <v>-3.29467087009342</v>
       </c>
       <c r="G163">
         <v>-0.1978706084260877</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.289926308071395</v>
+        <v>-3.290748602533725</v>
       </c>
       <c r="G164">
         <v>-0.1815423733260879</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.286316794274953</v>
+        <v>-3.287010722945701</v>
       </c>
       <c r="G166">
         <v>-0.1841453197836607</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.280606117858474</v>
+        <v>-3.281640214756118</v>
       </c>
       <c r="G167">
         <v>-0.1912118990692731</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.276612464238778</v>
+        <v>-3.277646561136422</v>
       </c>
       <c r="G168">
         <v>-0.1893863093135564</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.26962973688361</v>
+        <v>-3.27131823469117</v>
       </c>
       <c r="G169">
         <v>-0.1766153559757808</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.259514442052932</v>
+        <v>-3.26033970599185</v>
       </c>
       <c r="G172">
         <v>-0.1798956003941368</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.246772593233751</v>
+        <v>-3.246841340769005</v>
       </c>
       <c r="G175">
         <v>-0.1719854603737707</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.2395460930223</v>
+        <v>-3.240498012221674</v>
       </c>
       <c r="G176">
         <v>-0.1622760083598945</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.236484171084815</v>
+        <v>-3.236589541936586</v>
       </c>
       <c r="G177">
         <v>-0.1590040710640661</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.228120449565048</v>
+        <v>-3.228189197100302</v>
       </c>
       <c r="G179">
         <v>-0.1600186664019895</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.224125909743901</v>
+        <v>-3.22566128492349</v>
       </c>
       <c r="G180">
         <v>-0.1501547988247237</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.217240850371645</v>
+        <v>-3.218518235022612</v>
       </c>
       <c r="G181">
         <v>-0.1512942342109882</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.151790085495331</v>
+        <v>-3.153755741965827</v>
       </c>
       <c r="G194">
         <v>-0.1153853839810868</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.136557616021821</v>
+        <v>-3.136626363557076</v>
       </c>
       <c r="G197">
         <v>-0.1031254595028511</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.130815882497974</v>
+        <v>-3.132093267148941</v>
       </c>
       <c r="G198">
         <v>-0.09587723418989774</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.124401082881028</v>
+        <v>-3.125074148974139</v>
       </c>
       <c r="G199">
         <v>-0.09276007027185718</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.445757249754268</v>
+        <v>-3.446599688582046</v>
       </c>
       <c r="G221">
         <v>-0.07509380158038681</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.4765841691843</v>
+        <v>-3.478527666002379</v>
       </c>
       <c r="G222">
         <v>-0.1261221279392388</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.497671768717189</v>
+        <v>-3.499145794122106</v>
       </c>
       <c r="G223">
         <v>-0.161568410240108</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.451885063260682</v>
+        <v>-3.452592702203057</v>
       </c>
       <c r="G225">
         <v>-0.1880534168807109</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.412864063258464</v>
+        <v>-3.414584570909292</v>
       </c>
       <c r="G226">
         <v>-0.1720349032346495</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.508771247720364</v>
+        <v>-3.510389703457965</v>
       </c>
       <c r="G232">
         <v>-0.06982295530925553</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.533005878102931</v>
+        <v>-3.534107209302489</v>
       </c>
       <c r="G233">
         <v>-0.1193455610788772</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.535669513957431</v>
+        <v>-3.539050252812892</v>
       </c>
       <c r="G234">
         <v>-0.1489198660817626</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.5326117569421</v>
+        <v>-3.533236437056837</v>
       </c>
       <c r="G235">
         <v>-0.1791353870939694</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.506165916625647</v>
+        <v>-3.507357839169871</v>
       </c>
       <c r="G236">
         <v>-0.1801541104037991</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.412527709662589</v>
+        <v>-3.412915588450467</v>
       </c>
       <c r="G238">
         <v>-0.1490815369440799</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.268809722275102</v>
+        <v>-3.268979006456623</v>
       </c>
       <c r="G240">
         <v>-0.06507093381269408</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.555453649914193</v>
+        <v>-3.5568249590545</v>
       </c>
       <c r="G243">
         <v>-0.06124301153638934</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.575565065392785</v>
+        <v>-3.577316130245065</v>
       </c>
       <c r="G244">
         <v>-0.1096792666964426</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.580673849871405</v>
+        <v>-3.581114626331617</v>
       </c>
       <c r="G245">
         <v>-0.1348531855905084</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.574007999999256</v>
+        <v>-3.578682372153643</v>
       </c>
       <c r="G246">
         <v>-0.1678587376938014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.551043117130321</v>
+        <v>-3.552896553290009</v>
       </c>
       <c r="G247">
         <v>-0.1721668060413666</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.508049055656686</v>
+        <v>-3.508633276136937</v>
       </c>
       <c r="G248">
         <v>-0.1555474591718482</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.316672997273324</v>
+        <v>-3.316865488774956</v>
       </c>
       <c r="G251">
         <v>-0.06245156705394911</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.605617578062529</v>
+        <v>-3.606009212797919</v>
       </c>
       <c r="G255">
         <v>-0.1054580256615738</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.606919889290861</v>
+        <v>-3.60744372518993</v>
       </c>
       <c r="G256">
         <v>-0.1342450901945598</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.601346352618411</v>
+        <v>-3.602497760207431</v>
       </c>
       <c r="G257">
         <v>-0.1519753665104568</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.580633815854896</v>
+        <v>-3.582160191171466</v>
       </c>
       <c r="G258">
         <v>-0.1614537026762639</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.540404234003524</v>
+        <v>-3.540567006211116</v>
       </c>
       <c r="G259">
         <v>-0.1545977040987547</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.491472216308837</v>
+        <v>-3.491676216679395</v>
       </c>
       <c r="G260">
         <v>-0.1336105878877607</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.425952766722415</v>
+        <v>-3.425996244567071</v>
       </c>
       <c r="G261">
         <v>-0.1008852767335773</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.351020500747234</v>
+        <v>-3.351153773216031</v>
       </c>
       <c r="G262">
         <v>-0.0580773232313993</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.632123566003318</v>
+        <v>-3.632797788847148</v>
       </c>
       <c r="G266">
         <v>-0.09530727137649508</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.639114281621936</v>
+        <v>-3.639788035336527</v>
       </c>
       <c r="G267">
         <v>-0.127217422171348</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.623155442362279</v>
+        <v>-3.623190704070268</v>
       </c>
       <c r="G268">
         <v>-0.1454488984933913</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.598935220425364</v>
+        <v>-3.599562009260537</v>
       </c>
       <c r="G269">
         <v>-0.1506114587777778</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.562383473800514</v>
+        <v>-3.563167646025358</v>
       </c>
       <c r="G270">
         <v>-0.1410768474947803</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.515068116843395</v>
+        <v>-3.515697516491586</v>
       </c>
       <c r="G271">
         <v>-0.1266079912322207</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.636997950849877</v>
+        <v>-3.637042518902883</v>
       </c>
       <c r="G276">
         <v>-0.05365043309034645</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.64952990889908</v>
+        <v>-3.650159700522706</v>
       </c>
       <c r="G277">
         <v>-0.09602242256225102</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.65139060168089</v>
+        <v>-3.651831055898227</v>
       </c>
       <c r="G278">
         <v>-0.1222431016499339</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.642051875440569</v>
+        <v>-3.642664138854083</v>
       </c>
       <c r="G279">
         <v>-0.1412173780585211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.615950570936703</v>
+        <v>-3.616553681071945</v>
       </c>
       <c r="G280">
         <v>-0.1388304430165597</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.582860431156954</v>
+        <v>-3.583070039597338</v>
       </c>
       <c r="G281">
         <v>-0.1376956702397052</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.533364406268455</v>
+        <v>-3.53349081500553</v>
       </c>
       <c r="G282">
         <v>-0.121908891865977</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.468696496678892</v>
+        <v>-3.46877978093388</v>
       </c>
       <c r="G283">
         <v>-0.09347997787367435</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.397762645471812</v>
+        <v>-3.398149799084519</v>
       </c>
       <c r="G284">
         <v>-0.05279846889882123</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.654306207374353</v>
+        <v>-3.654534390357602</v>
       </c>
       <c r="G287">
         <v>-0.05294856114196955</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.667448519801923</v>
+        <v>-3.667870366255902</v>
       </c>
       <c r="G288">
         <v>-0.0894830131692812</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.664676031750634</v>
+        <v>-3.665390182633398</v>
       </c>
       <c r="G289">
         <v>-0.114795369001425</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.65497927871673</v>
+        <v>-3.655590739664035</v>
       </c>
       <c r="G290">
         <v>-0.1294051182733678</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.634069082292609</v>
+        <v>-3.634087819914241</v>
       </c>
       <c r="G291">
         <v>-0.1353825723460902</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.597038237730274</v>
+        <v>-3.597166777182686</v>
       </c>
       <c r="G292">
         <v>-0.1309976005446769</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.414561130268671</v>
+        <v>-3.414623997216331</v>
       </c>
       <c r="G295">
         <v>-0.0512164976008988</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.668710006728179</v>
+        <v>-3.668974455845939</v>
       </c>
       <c r="G298">
         <v>-0.05132568274001459</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.679648174618437</v>
+        <v>-3.679690983982987</v>
       </c>
       <c r="G299">
         <v>-0.08717638242194026</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.680130304294805</v>
+        <v>-3.68063509698334</v>
       </c>
       <c r="G300">
         <v>-0.1141442385035143</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.666795044048055</v>
+        <v>-3.66710088413222</v>
       </c>
       <c r="G301">
         <v>-0.1263056547068122</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.644427842142199</v>
+        <v>-3.644795960866871</v>
       </c>
       <c r="G302">
         <v>-0.1311673943107259</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.607715204462167</v>
+        <v>-3.607985150146119</v>
       </c>
       <c r="G303">
         <v>-0.1255590732612892</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.561332595039938</v>
+        <v>-3.561438825290831</v>
       </c>
       <c r="G304">
         <v>-0.1101607798482054</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.495519717924515</v>
+        <v>-3.495612163288782</v>
       </c>
       <c r="G305">
         <v>-0.08578092929130066</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.68078504270268</v>
+        <v>-3.681370497349388</v>
       </c>
       <c r="G309">
         <v>-0.04919202166132131</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.692333886544679</v>
+        <v>-3.692505614963476</v>
       </c>
       <c r="G310">
         <v>-0.08520807599474001</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.692318860931061</v>
+        <v>-3.692878422345437</v>
       </c>
       <c r="G311">
         <v>-0.1086488991196881</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.678109378106423</v>
+        <v>-3.678241645745117</v>
       </c>
       <c r="G312">
         <v>-0.1235606451479523</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.656151855262215</v>
+        <v>-3.656252811854249</v>
       </c>
       <c r="G313">
         <v>-0.126883102837124</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.618876372867232</v>
+        <v>-3.618992582286444</v>
       </c>
       <c r="G314">
         <v>-0.1205150969015198</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.570642856838368</v>
+        <v>-3.570704506472553</v>
       </c>
       <c r="G315">
         <v>-0.1081533858239563</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.505933263113047</v>
+        <v>-3.506038294019701</v>
       </c>
       <c r="G316">
         <v>-0.0819950374221815</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.690621825930123</v>
+        <v>-3.690804580222089</v>
       </c>
       <c r="G320">
         <v>-0.0492269726180341</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.701281831154992</v>
+        <v>-3.701477875242583</v>
       </c>
       <c r="G321">
         <v>-0.08179461588496517</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.687914615601005</v>
+        <v>-3.68813495503995</v>
       </c>
       <c r="G323">
         <v>-0.1197817536647063</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.665086765512157</v>
+        <v>-3.665350197625223</v>
       </c>
       <c r="G324">
         <v>-0.1231361232139649</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.628300237982585</v>
+        <v>-3.628545114307401</v>
       </c>
       <c r="G325">
         <v>-0.1180597063197308</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.579536906695529</v>
+        <v>-3.579921019644097</v>
       </c>
       <c r="G326">
         <v>-0.1038749968112782</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.518809220869942</v>
+        <v>-3.519349852689666</v>
       </c>
       <c r="G327">
         <v>-0.08155775458133574</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-3.699535253656838</v>
+        <v>-3.699693551924597</v>
       </c>
       <c r="G331">
         <v>-0.04759938586814583</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.710018749610681</v>
+        <v>-3.710603067559866</v>
       </c>
       <c r="G332">
         <v>-0.08064142588016088</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.708682442840712</v>
+        <v>-3.708997604999482</v>
       </c>
       <c r="G333">
         <v>-0.1033034623175126</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.697181071252324</v>
+        <v>-3.697453563144825</v>
       </c>
       <c r="G334">
         <v>-0.1160291001349534</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.671395125321873</v>
+        <v>-3.671616308795048</v>
       </c>
       <c r="G335">
         <v>-0.1212537191166847</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.635228004655711</v>
+        <v>-3.635585925848461</v>
       </c>
       <c r="G336">
         <v>-0.1171463958785943</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.586968883447017</v>
+        <v>-3.587376541391241</v>
       </c>
       <c r="G337">
         <v>-0.1019666872218505</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.526670019056582</v>
+        <v>-3.52720602714998</v>
       </c>
       <c r="G338">
         <v>-0.07866018869931046</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.456023492849615</v>
+        <v>-3.456049398502838</v>
       </c>
       <c r="G339">
         <v>-0.04593356749053251</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.136632086909412</v>
+        <v>-3.139973964251879</v>
       </c>
       <c r="G49">
         <v>-0.2307439413998644</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.333918400996711</v>
+        <v>-3.334376186767131</v>
       </c>
       <c r="G83">
         <v>-0.08605773101205028</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.348998508954139</v>
+        <v>-3.351974426036666</v>
       </c>
       <c r="G86">
         <v>-0.09341798177181104</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.365187752646551</v>
+        <v>-3.365645538416972</v>
       </c>
       <c r="G89">
         <v>-0.1080710927607402</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.363859322329496</v>
+        <v>-3.367293025182444</v>
       </c>
       <c r="G90">
         <v>-0.101984035772519</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.378004376778144</v>
+        <v>-3.378040015044005</v>
       </c>
       <c r="G95">
         <v>-0.1408341300929745</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.394830176753741</v>
+        <v>-3.395265556302399</v>
       </c>
       <c r="G101">
         <v>-0.1448866289872193</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.400063262878072</v>
+        <v>-3.401050110950635</v>
       </c>
       <c r="G102">
         <v>-0.133835177082394</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.402165522782404</v>
+        <v>-3.402536402335781</v>
       </c>
       <c r="G103">
         <v>-0.1650001927809539</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.405263662667148</v>
+        <v>-3.40621487247385</v>
       </c>
       <c r="G105">
         <v>-0.1578445753302802</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.404455115923406</v>
+        <v>-3.407172101556851</v>
       </c>
       <c r="G106">
         <v>-0.1590586023094347</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.417712404745455</v>
+        <v>-3.421045461796237</v>
       </c>
       <c r="G114">
         <v>-0.1675713719706224</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.347849639038962</v>
+        <v>-3.349435304857955</v>
       </c>
       <c r="G149">
         <v>-0.2001972088683412</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.343181859395929</v>
+        <v>-3.347200368332899</v>
       </c>
       <c r="G150">
         <v>-0.2051409953106813</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.339254877449278</v>
+        <v>-3.339880058584773</v>
       </c>
       <c r="G151">
         <v>-0.2096504457267252</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.336104289227516</v>
+        <v>-3.33675033294065</v>
       </c>
       <c r="G152">
         <v>-0.1910088029121633</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.335225694817492</v>
+        <v>-3.336586529779013</v>
       </c>
       <c r="G153">
         <v>-0.1925220136820609</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.316687100407442</v>
+        <v>-3.316880305808704</v>
       </c>
       <c r="G155">
         <v>-0.1761777775286739</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.32105990026256</v>
+        <v>-3.322778825424554</v>
       </c>
       <c r="G156">
         <v>-0.208045534212816</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.305377420124885</v>
+        <v>-3.306490287325368</v>
       </c>
       <c r="G161">
         <v>-0.1717242044008722</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.255814937907981</v>
+        <v>-3.256371371508223</v>
       </c>
       <c r="G173">
         <v>-0.1671789605299978</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.251894838633053</v>
+        <v>-3.252451272233296</v>
       </c>
       <c r="G174">
         <v>-0.1768161482882717</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.233251704728696</v>
+        <v>-3.233945633399446</v>
       </c>
       <c r="G178">
         <v>-0.1627156619545089</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.201760045788365</v>
+        <v>-3.202385226923862</v>
       </c>
       <c r="G184">
         <v>-0.1391775370763627</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.159072798988644</v>
+        <v>-3.159309926939629</v>
       </c>
       <c r="G193">
         <v>-0.1206156860479736</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.136626363557076</v>
+        <v>-3.137230682114934</v>
       </c>
       <c r="G197">
         <v>-0.1031254595028511</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.113965779026534</v>
+        <v>-3.115243163677501</v>
       </c>
       <c r="G201">
         <v>-0.08498994542514426</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.101648771963214</v>
+        <v>-3.102926156614181</v>
       </c>
       <c r="G203">
         <v>-0.07959334125261286</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.478527666002379</v>
+        <v>-3.482516806789095</v>
       </c>
       <c r="G222">
         <v>-0.1261221279392388</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.414584570909292</v>
+        <v>-3.415149125396185</v>
       </c>
       <c r="G226">
         <v>-0.1720349032346495</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.355507844416328</v>
+        <v>-3.355999793425885</v>
       </c>
       <c r="G227">
         <v>-0.1598549218794196</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.283841881507941</v>
+        <v>-3.284547363981579</v>
       </c>
       <c r="G228">
         <v>-0.124939227921579</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.539050252812892</v>
+        <v>-3.54045258350942</v>
       </c>
       <c r="G234">
         <v>-0.1489198660817626</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.533236437056837</v>
+        <v>-3.533315171470584</v>
       </c>
       <c r="G235">
         <v>-0.1791353870939694</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.577316130245065</v>
+        <v>-3.578888152823385</v>
       </c>
       <c r="G244">
         <v>-0.1096792666964426</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.581114626331617</v>
+        <v>-3.582576003614719</v>
       </c>
       <c r="G245">
         <v>-0.1348531855905084</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.578682372153643</v>
+        <v>-3.579191726972956</v>
       </c>
       <c r="G246">
         <v>-0.1678587376938014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.552896553290009</v>
+        <v>-3.553445448574905</v>
       </c>
       <c r="G247">
         <v>-0.1721668060413666</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.508633276136937</v>
+        <v>-3.509700042331058</v>
       </c>
       <c r="G248">
         <v>-0.1555474591718482</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.460301246765566</v>
+        <v>-3.460425892655643</v>
       </c>
       <c r="G249">
         <v>-0.1385208944505665</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.591116250452589</v>
+        <v>-3.591167510758831</v>
       </c>
       <c r="G254">
         <v>-0.06167206799187186</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.606009212797919</v>
+        <v>-3.606214254022889</v>
       </c>
       <c r="G255">
         <v>-0.1054580256615738</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.602497760207431</v>
+        <v>-3.602552722863558</v>
       </c>
       <c r="G257">
         <v>-0.1519753665104568</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.582160191171466</v>
+        <v>-3.582211451477708</v>
       </c>
       <c r="G258">
         <v>-0.1614537026762639</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.540567006211116</v>
+        <v>-3.5407915792277</v>
       </c>
       <c r="G259">
         <v>-0.1545977040987547</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.491676216679395</v>
+        <v>-3.49197211255768</v>
       </c>
       <c r="G260">
         <v>-0.1336105878877607</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.617699846715267</v>
+        <v>-3.617735108423254</v>
       </c>
       <c r="G265">
         <v>-0.05468212199645883</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.632797788847148</v>
+        <v>-3.63292009809508</v>
       </c>
       <c r="G266">
         <v>-0.09530727137649508</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.623190704070268</v>
+        <v>-3.623296489194236</v>
       </c>
       <c r="G268">
         <v>-0.1454488984933913</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.599562009260537</v>
+        <v>-3.600280807509639</v>
       </c>
       <c r="G269">
         <v>-0.1506114587777778</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.563167646025358</v>
+        <v>-3.563278904339177</v>
       </c>
       <c r="G270">
         <v>-0.1410768474947803</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.515697516491586</v>
+        <v>-3.515797151805243</v>
       </c>
       <c r="G271">
         <v>-0.1266079912322207</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.451079215288299</v>
+        <v>-3.45109696641837</v>
       </c>
       <c r="G272">
         <v>-0.09570124415755543</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.375865463025049</v>
+        <v>-3.376165777182718</v>
       </c>
       <c r="G273">
         <v>-0.05576732713415117</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.637042518902883</v>
+        <v>-3.637157261434428</v>
       </c>
       <c r="G276">
         <v>-0.05365043309034645</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.650159700522706</v>
+        <v>-3.650374385838879</v>
       </c>
       <c r="G277">
         <v>-0.09602242256225102</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.651831055898227</v>
+        <v>-3.65204612047906</v>
       </c>
       <c r="G278">
         <v>-0.1222431016499339</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.642664138854083</v>
+        <v>-3.643169982565146</v>
       </c>
       <c r="G279">
         <v>-0.1412173780585211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.616553681071945</v>
+        <v>-3.616901093935527</v>
       </c>
       <c r="G280">
         <v>-0.1388304430165597</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.654534390357602</v>
+        <v>-3.654785913240938</v>
       </c>
       <c r="G287">
         <v>-0.05294856114196955</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.667870366255902</v>
+        <v>-3.668066487957166</v>
       </c>
       <c r="G288">
         <v>-0.0894830131692812</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.665390182633398</v>
+        <v>-3.665731386092201</v>
       </c>
       <c r="G289">
         <v>-0.114795369001425</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.655590739664035</v>
+        <v>-3.655657993909417</v>
       </c>
       <c r="G290">
         <v>-0.1294051182733678</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.634087819914241</v>
+        <v>-3.634278147586241</v>
       </c>
       <c r="G291">
         <v>-0.1353825723460902</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.597166777182686</v>
+        <v>-3.597310516506461</v>
       </c>
       <c r="G292">
         <v>-0.1309976005446769</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.48305235996249</v>
+        <v>-3.483088098722908</v>
       </c>
       <c r="G294">
         <v>-0.08837812589510396</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.668974455845939</v>
+        <v>-3.669106872499514</v>
       </c>
       <c r="G298">
         <v>-0.05132568274001459</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.68063509698334</v>
+        <v>-3.680692176136073</v>
       </c>
       <c r="G300">
         <v>-0.1141442385035143</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.66710088413222</v>
+        <v>-3.667349312421122</v>
       </c>
       <c r="G301">
         <v>-0.1263056547068122</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.644795960866871</v>
+        <v>-3.644878241761828</v>
       </c>
       <c r="G302">
         <v>-0.1311673943107259</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.607985150146119</v>
+        <v>-3.608006603501991</v>
       </c>
       <c r="G303">
         <v>-0.1255590732612892</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.681370497349388</v>
+        <v>-3.681381613569057</v>
       </c>
       <c r="G309">
         <v>-0.04919202166132131</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.692505614963476</v>
+        <v>-3.692516731183145</v>
       </c>
       <c r="G310">
         <v>-0.08520807599474001</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.692878422345437</v>
+        <v>-3.693385201654843</v>
       </c>
       <c r="G311">
         <v>-0.1086488991196881</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.678241645745117</v>
+        <v>-3.678546343244423</v>
       </c>
       <c r="G312">
         <v>-0.1235606451479523</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.656252811854249</v>
+        <v>-3.656317380259672</v>
       </c>
       <c r="G313">
         <v>-0.126883102837124</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.618992582286444</v>
+        <v>-3.619037047165116</v>
       </c>
       <c r="G314">
         <v>-0.1205150969015198</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.506038294019701</v>
+        <v>-3.506087890333728</v>
       </c>
       <c r="G316">
         <v>-0.0819950374221815</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.438716540108719</v>
+        <v>-3.438731487442665</v>
       </c>
       <c r="G317">
         <v>-0.04788564637610015</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.690804580222089</v>
+        <v>-3.691086249732978</v>
       </c>
       <c r="G320">
         <v>-0.0492269726180341</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.701477875242583</v>
+        <v>-3.70152634564703</v>
       </c>
       <c r="G321">
         <v>-0.08179461588496517</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.70003190360845</v>
+        <v>-3.700200458587604</v>
       </c>
       <c r="G322">
         <v>-0.1065917024933816</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.68813495503995</v>
+        <v>-3.688152609496159</v>
       </c>
       <c r="G323">
         <v>-0.1197817536647063</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.665350197625223</v>
+        <v>-3.665385506537641</v>
       </c>
       <c r="G324">
         <v>-0.1231361232139649</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.628545114307401</v>
+        <v>-3.62872646706243</v>
       </c>
       <c r="G325">
         <v>-0.1180597063197308</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.579921019644097</v>
+        <v>-3.579944042417823</v>
       </c>
       <c r="G326">
         <v>-0.1038749968112782</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.710603067559866</v>
+        <v>-3.710709233595208</v>
       </c>
       <c r="G332">
         <v>-0.08064142588016088</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.708997604999482</v>
+        <v>-3.709094236328479</v>
       </c>
       <c r="G333">
         <v>-0.1033034623175126</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.697453563144825</v>
+        <v>-3.6977549407808</v>
       </c>
       <c r="G334">
         <v>-0.1160291001349534</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.671616308795048</v>
+        <v>-3.671630560358715</v>
       </c>
       <c r="G335">
         <v>-0.1212537191166847</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.635585925848461</v>
+        <v>-3.635601621057434</v>
       </c>
       <c r="G336">
         <v>-0.1171463958785943</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.071208267132258</v>
+        <v>-3.072721093820738</v>
       </c>
       <c r="G56">
         <v>-0.189168849671664</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.341234238884489</v>
+        <v>-3.34126987715035</v>
       </c>
       <c r="G84">
         <v>-0.08702260319698274</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.365645538416972</v>
+        <v>-3.368621455499499</v>
       </c>
       <c r="G89">
         <v>-0.1080710927607402</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.366638340905634</v>
+        <v>-3.375282609110471</v>
       </c>
       <c r="G92">
         <v>-0.1268521841929484</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.366999866870465</v>
+        <v>-3.368160270556638</v>
       </c>
       <c r="G93">
         <v>-0.1112624432803253</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.378997207807989</v>
+        <v>-3.379526270110131</v>
       </c>
       <c r="G94">
         <v>-0.1111481818263407</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.395265556302399</v>
+        <v>-3.395758980338681</v>
       </c>
       <c r="G101">
         <v>-0.1448866289872193</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.401050110950635</v>
+        <v>-3.402210514636808</v>
       </c>
       <c r="G102">
         <v>-0.133835177082394</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.406882520077265</v>
+        <v>-3.415067566500041</v>
       </c>
       <c r="G109">
         <v>-0.1817110095318997</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.416451105537996</v>
+        <v>-3.422034037074265</v>
       </c>
       <c r="G115">
         <v>-0.2013287306324516</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.419258591346767</v>
+        <v>-3.419752015383048</v>
       </c>
       <c r="G116">
         <v>-0.2101551499882608</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.415219233560326</v>
+        <v>-3.420278305297911</v>
       </c>
       <c r="G120">
         <v>-0.1830029283948424</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.372335229711314</v>
+        <v>-3.372786292459781</v>
       </c>
       <c r="G142">
         <v>-0.2040289226592951</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.351417061145232</v>
+        <v>-3.352539202230859</v>
       </c>
       <c r="G147">
         <v>-0.1964652508438627</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.336586529779013</v>
+        <v>-3.336676139891904</v>
       </c>
       <c r="G153">
         <v>-0.1925220136820609</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.31917504442032</v>
+        <v>-3.321406049076504</v>
       </c>
       <c r="G154">
         <v>-0.190735104624183</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.287010722945701</v>
+        <v>-3.287656766658835</v>
       </c>
       <c r="G166">
         <v>-0.1841453197836607</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.264645482915088</v>
+        <v>-3.26471423045034</v>
       </c>
       <c r="G171">
         <v>-0.1831755848983563</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.256371371508223</v>
+        <v>-3.257732206469742</v>
       </c>
       <c r="G173">
         <v>-0.1671789605299978</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.252451272233296</v>
+        <v>-3.252663539039006</v>
       </c>
       <c r="G174">
         <v>-0.1768161482882717</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.236589541936586</v>
+        <v>-3.238639203730098</v>
       </c>
       <c r="G177">
         <v>-0.1590040710640661</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.228189197100302</v>
+        <v>-3.228514240720844</v>
       </c>
       <c r="G179">
         <v>-0.1600186664019895</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.213256362190614</v>
+        <v>-3.213325109725868</v>
       </c>
       <c r="G182">
         <v>-0.1498603032187746</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.132093267148941</v>
+        <v>-3.1326975857068</v>
       </c>
       <c r="G198">
         <v>-0.09587723418989774</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.482516806789095</v>
+        <v>-3.482695876079547</v>
       </c>
       <c r="G222">
         <v>-0.1261221279392388</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.452592702203057</v>
+        <v>-3.455164415092525</v>
       </c>
       <c r="G225">
         <v>-0.1880534168807109</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.355999793425885</v>
+        <v>-3.356880880785769</v>
       </c>
       <c r="G227">
         <v>-0.1598549218794196</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.284547363981579</v>
+        <v>-3.285685244144826</v>
       </c>
       <c r="G228">
         <v>-0.124939227921579</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.201940020609361</v>
+        <v>-3.202410855926575</v>
       </c>
       <c r="G229">
         <v>-0.06960012234161345</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.534107209302489</v>
+        <v>-3.53448623086457</v>
       </c>
       <c r="G233">
         <v>-0.1193455610788772</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.54045258350942</v>
+        <v>-3.541688291499266</v>
       </c>
       <c r="G234">
         <v>-0.1489198660817626</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.533315171470584</v>
+        <v>-3.533899425271227</v>
       </c>
       <c r="G235">
         <v>-0.1791353870939694</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.5568249590545</v>
+        <v>-3.556906990665547</v>
       </c>
       <c r="G243">
         <v>-0.06124301153638934</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.582576003614719</v>
+        <v>-3.582767038180289</v>
       </c>
       <c r="G245">
         <v>-0.1348531855905084</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.579191726972956</v>
+        <v>-3.579555667524959</v>
       </c>
       <c r="G246">
         <v>-0.1678587376938014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.553445448574905</v>
+        <v>-3.553681201554319</v>
       </c>
       <c r="G247">
         <v>-0.1721668060413666</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.460425892655643</v>
+        <v>-3.460444443874107</v>
       </c>
       <c r="G249">
         <v>-0.1385208944505665</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.394507457242034</v>
+        <v>-3.394769392291959</v>
       </c>
       <c r="G250">
         <v>-0.1074523531755635</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.591167510758831</v>
+        <v>-3.591296515309623</v>
       </c>
       <c r="G254">
         <v>-0.06167206799187186</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.606214254022889</v>
+        <v>-3.606747694562807</v>
       </c>
       <c r="G255">
         <v>-0.1054580256615738</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.582211451477708</v>
+        <v>-3.582369982873531</v>
       </c>
       <c r="G258">
         <v>-0.1614537026762639</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.5407915792277</v>
+        <v>-3.540916981493131</v>
       </c>
       <c r="G259">
         <v>-0.1545977040987547</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.49197211255768</v>
+        <v>-3.492074633170165</v>
       </c>
       <c r="G260">
         <v>-0.1336105878877607</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.617735108423254</v>
+        <v>-3.617921272991452</v>
       </c>
       <c r="G265">
         <v>-0.05468212199645883</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.63292009809508</v>
+        <v>-3.633501269976806</v>
       </c>
       <c r="G266">
         <v>-0.09530727137649508</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.600280807509639</v>
+        <v>-3.60029083795406</v>
       </c>
       <c r="G269">
         <v>-0.1506114587777778</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.563278904339177</v>
+        <v>-3.563419951171133</v>
       </c>
       <c r="G270">
         <v>-0.1410768474947803</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.515797151805243</v>
+        <v>-3.515889388795304</v>
       </c>
       <c r="G271">
         <v>-0.1266079912322207</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.376165777182718</v>
+        <v>-3.376184484292193</v>
       </c>
       <c r="G273">
         <v>-0.05576732713415117</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.637157261434428</v>
+        <v>-3.637172657044785</v>
       </c>
       <c r="G276">
         <v>-0.05365043309034645</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.65204612047906</v>
+        <v>-3.652348432455477</v>
       </c>
       <c r="G278">
         <v>-0.1222431016499339</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.643169982565146</v>
+        <v>-3.643387503751531</v>
       </c>
       <c r="G279">
         <v>-0.1412173780585211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.616901093935527</v>
+        <v>-3.617340682000159</v>
       </c>
       <c r="G280">
         <v>-0.1388304430165597</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.583070039597338</v>
+        <v>-3.583088276179232</v>
       </c>
       <c r="G281">
         <v>-0.1376956702397052</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.53349081500553</v>
+        <v>-3.533520483361868</v>
       </c>
       <c r="G282">
         <v>-0.121908891865977</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.46877978093388</v>
+        <v>-3.46890340302149</v>
       </c>
       <c r="G283">
         <v>-0.09347997787367435</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.398149799084519</v>
+        <v>-3.398215248908043</v>
       </c>
       <c r="G284">
         <v>-0.05279846889882123</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.668066487957166</v>
+        <v>-3.668222979649718</v>
       </c>
       <c r="G288">
         <v>-0.0894830131692812</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.665731386092201</v>
+        <v>-3.665797031681083</v>
       </c>
       <c r="G289">
         <v>-0.114795369001425</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.655657993909417</v>
+        <v>-3.655728779643943</v>
       </c>
       <c r="G290">
         <v>-0.1294051182733678</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.634278147586241</v>
+        <v>-3.634478944718181</v>
       </c>
       <c r="G291">
         <v>-0.1353825723460902</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.597310516506461</v>
+        <v>-3.597453075224718</v>
       </c>
       <c r="G292">
         <v>-0.1309976005446769</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.483088098722908</v>
+        <v>-3.483130666557463</v>
       </c>
       <c r="G294">
         <v>-0.08837812589510396</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.414623997216331</v>
+        <v>-3.414692843634314</v>
       </c>
       <c r="G295">
         <v>-0.0512164976008988</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.669106872499514</v>
+        <v>-3.669121142287695</v>
       </c>
       <c r="G298">
         <v>-0.05132568274001459</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.679690983982987</v>
+        <v>-3.679746959363762</v>
       </c>
       <c r="G299">
         <v>-0.08717638242194026</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.680692176136073</v>
+        <v>-3.68090435038369</v>
       </c>
       <c r="G300">
         <v>-0.1141442385035143</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.667349312421122</v>
+        <v>-3.66759264891506</v>
       </c>
       <c r="G301">
         <v>-0.1263056547068122</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.644878241761828</v>
+        <v>-3.645132417712111</v>
       </c>
       <c r="G302">
         <v>-0.1311673943107259</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.608006603501991</v>
+        <v>-3.608132751357644</v>
       </c>
       <c r="G303">
         <v>-0.1255590732612892</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.692516731183145</v>
+        <v>-3.692615225996629</v>
       </c>
       <c r="G310">
         <v>-0.08520807599474001</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.693385201654843</v>
+        <v>-3.693552477654144</v>
       </c>
       <c r="G311">
         <v>-0.1086488991196881</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.678546343244423</v>
+        <v>-3.678942210619468</v>
       </c>
       <c r="G312">
         <v>-0.1235606451479523</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.619037047165116</v>
+        <v>-3.619170707568882</v>
       </c>
       <c r="G314">
         <v>-0.1205150969015198</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.506087890333728</v>
+        <v>-3.506182427555378</v>
       </c>
       <c r="G316">
         <v>-0.0819950374221815</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.438731487442665</v>
+        <v>-3.438758716508719</v>
       </c>
       <c r="G317">
         <v>-0.04788564637610015</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.691086249732978</v>
+        <v>-3.69144438558264</v>
       </c>
       <c r="G320">
         <v>-0.0492269726180341</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.70152634564703</v>
+        <v>-3.701544000103239</v>
       </c>
       <c r="G321">
         <v>-0.08179461588496517</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.700200458587604</v>
+        <v>-3.700392040107674</v>
       </c>
       <c r="G322">
         <v>-0.1065917024933816</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.688152609496159</v>
+        <v>-3.688206919179691</v>
       </c>
       <c r="G323">
         <v>-0.1197817536647063</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.579944042417823</v>
+        <v>-3.579994108606614</v>
       </c>
       <c r="G326">
         <v>-0.1038749968112782</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.519349852689666</v>
+        <v>-3.519383629999189</v>
       </c>
       <c r="G327">
         <v>-0.08155775458133574</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.710709233595208</v>
+        <v>-3.71079944260082</v>
       </c>
       <c r="G332">
         <v>-0.08064142588016088</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.709094236328479</v>
+        <v>-3.709188643802844</v>
       </c>
       <c r="G333">
         <v>-0.1033034623175126</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.6977549407808</v>
+        <v>-3.698005762445521</v>
       </c>
       <c r="G334">
         <v>-0.1160291001349534</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.671630560358715</v>
+        <v>-3.67173124282821</v>
       </c>
       <c r="G335">
         <v>-0.1212537191166847</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.635601621057434</v>
+        <v>-3.635616673362573</v>
       </c>
       <c r="G336">
         <v>-0.1171463958785943</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.587376541391241</v>
+        <v>-3.587425811780232</v>
       </c>
       <c r="G337">
         <v>-0.1019666872218505</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.22309223293746</v>
+        <v>-3.22481893158893</v>
       </c>
       <c r="G36">
         <v>-0.2503416704429882</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.213239466421537</v>
+        <v>-3.214966165073011</v>
       </c>
       <c r="G38">
         <v>-0.2622094410523559</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.198460316647657</v>
+        <v>-3.200187015299129</v>
       </c>
       <c r="G41">
         <v>-0.2376912945104475</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.191807234738227</v>
+        <v>-3.195260632041169</v>
       </c>
       <c r="G42">
         <v>-0.2498892811955453</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.184973952295243</v>
+        <v>-3.190334248783207</v>
       </c>
       <c r="G43">
         <v>-0.233688985016548</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.175034753023581</v>
+        <v>-3.185407865525246</v>
       </c>
       <c r="G44">
         <v>-0.2419009751157462</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.177028084964348</v>
+        <v>-3.178754783615818</v>
       </c>
       <c r="G45">
         <v>-0.2570021310217523</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.170375003054922</v>
+        <v>-3.17210170170639</v>
       </c>
       <c r="G46">
         <v>-0.2567276749262672</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.158417384637765</v>
+        <v>-3.165448619796962</v>
       </c>
       <c r="G47">
         <v>-0.2475929330176037</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.139973964251879</v>
+        <v>-3.152142455978103</v>
       </c>
       <c r="G49">
         <v>-0.2307439413998644</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.141911536212413</v>
+        <v>-3.145489374068674</v>
       </c>
       <c r="G50">
         <v>-0.2394882828250724</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.121260911922776</v>
+        <v>-3.138836292159244</v>
       </c>
       <c r="G51">
         <v>-0.2242918169240968</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.123592556379855</v>
+        <v>-3.132183210249814</v>
       </c>
       <c r="G52">
         <v>-0.225010441437129</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.110019759271697</v>
+        <v>-3.118452301158905</v>
       </c>
       <c r="G53">
         <v>-0.2132674402289524</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.087856308293582</v>
+        <v>-3.103208565379517</v>
       </c>
       <c r="G54">
         <v>-0.2029130056267907</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.081045114401401</v>
+        <v>-3.087964829600127</v>
       </c>
       <c r="G55">
         <v>-0.1941503150537265</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.333963392851114</v>
+        <v>-3.337432733969925</v>
       </c>
       <c r="G82">
         <v>-0.07828602582500643</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.334376186767131</v>
+        <v>-3.344784210123561</v>
       </c>
       <c r="G83">
         <v>-0.08605773101205028</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.34126987715035</v>
+        <v>-3.352135686277194</v>
       </c>
       <c r="G84">
         <v>-0.08702260319698274</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.345116373919317</v>
+        <v>-3.355560035541602</v>
       </c>
       <c r="G85">
         <v>-0.08600054719270256</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.351974426036666</v>
+        <v>-3.35898438480601</v>
       </c>
       <c r="G86">
         <v>-0.09341798177181104</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.351436010145986</v>
+        <v>-3.362408734070418</v>
       </c>
       <c r="G87">
         <v>-0.09486629644061839</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.355282506914949</v>
+        <v>-3.365833083334825</v>
       </c>
       <c r="G88">
         <v>-0.08719858426953309</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.368621455499499</v>
+        <v>-3.369257432599233</v>
       </c>
       <c r="G89">
         <v>-0.1080710927607402</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.367293025182444</v>
+        <v>-3.372681781863638</v>
       </c>
       <c r="G90">
         <v>-0.101984035772519</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.363917099850557</v>
+        <v>-3.376034854596323</v>
       </c>
       <c r="G91">
         <v>-0.1100470250982273</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.375282609110471</v>
+        <v>-3.379423565594871</v>
       </c>
       <c r="G92">
         <v>-0.1268521841929484</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.368160270556638</v>
+        <v>-3.382776638327556</v>
       </c>
       <c r="G93">
         <v>-0.1112624432803253</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.379526270110131</v>
+        <v>-3.386165349326097</v>
       </c>
       <c r="G94">
         <v>-0.1111481818263407</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.378040015044005</v>
+        <v>-3.389554060324646</v>
       </c>
       <c r="G95">
         <v>-0.1408341300929745</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.38631906497206</v>
+        <v>-3.39294277132319</v>
       </c>
       <c r="G96">
         <v>-0.1290872309760207</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.381926939544616</v>
+        <v>-3.395344634249175</v>
       </c>
       <c r="G97">
         <v>-0.130491592164907</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.385861214341438</v>
+        <v>-3.398204282945582</v>
       </c>
       <c r="G98">
         <v>-0.1387983515495126</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.399161512028576</v>
+        <v>-3.401099569907847</v>
       </c>
       <c r="G99">
         <v>-0.1189119916874022</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.39087462436646</v>
+        <v>-3.403501432833826</v>
       </c>
       <c r="G100">
         <v>-0.1432163083507225</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.395758980338681</v>
+        <v>-3.405903295759809</v>
       </c>
       <c r="G101">
         <v>-0.1448866289872193</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.402210514636808</v>
+        <v>-3.408269520419937</v>
       </c>
       <c r="G102">
         <v>-0.133835177082394</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.402536402335781</v>
+        <v>-3.410707021611777</v>
       </c>
       <c r="G103">
         <v>-0.1650001927809539</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.408794861014407</v>
+        <v>-3.41215767473106</v>
       </c>
       <c r="G104">
         <v>-0.1428854213032889</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.40621487247385</v>
+        <v>-3.414981685161605</v>
       </c>
       <c r="G105">
         <v>-0.1578445753302802</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.407172101556851</v>
+        <v>-3.417347909821725</v>
       </c>
       <c r="G106">
         <v>-0.1590586023094347</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.413339895991748</v>
+        <v>-3.419256348711426</v>
       </c>
       <c r="G107">
         <v>-0.1524149069149345</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.419791430289865</v>
+        <v>-3.42162257337155</v>
       </c>
       <c r="G108">
         <v>-0.1762172835766069</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.415067566500041</v>
+        <v>-3.423073226490833</v>
       </c>
       <c r="G109">
         <v>-0.1817110095318997</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.410715514170947</v>
+        <v>-3.424523879610115</v>
       </c>
       <c r="G110">
         <v>-0.161071727307796</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.419355462093968</v>
+        <v>-3.425974532729397</v>
       </c>
       <c r="G111">
         <v>-0.2058945631219307</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.419765340398384</v>
+        <v>-3.427425185848678</v>
       </c>
       <c r="G112">
         <v>-0.1749753027412644</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.415850161028599</v>
+        <v>-3.428875838967958</v>
       </c>
       <c r="G113">
         <v>-0.1667745102649842</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.421045461796237</v>
+        <v>-3.43032649208724</v>
       </c>
       <c r="G114">
         <v>-0.1675713719706224</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.422034037074265</v>
+        <v>-3.431110165556635</v>
       </c>
       <c r="G115">
         <v>-0.2013287306324516</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.419752015383048</v>
+        <v>-3.431555682126917</v>
       </c>
       <c r="G116">
         <v>-0.2101551499882608</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.417698584054113</v>
+        <v>-3.432001198697197</v>
       </c>
       <c r="G117">
         <v>-0.17158359556278</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.425598105579038</v>
+        <v>-3.432446715267479</v>
       </c>
       <c r="G118">
         <v>-0.1696815034208341</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.421752681653544</v>
+        <v>-3.43289223183776</v>
       </c>
       <c r="G119">
         <v>-0.1929497839127996</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.420278305297911</v>
+        <v>-3.43333774840804</v>
       </c>
       <c r="G120">
         <v>-0.1830029283948424</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.412576524375348</v>
+        <v>-3.433783264978321</v>
       </c>
       <c r="G121">
         <v>-0.1862667038459076</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.418605911168908</v>
+        <v>-3.434228781548601</v>
       </c>
       <c r="G122">
         <v>-0.1826904314046645</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.414796148634903</v>
+        <v>-3.434674298118882</v>
       </c>
       <c r="G123">
         <v>-0.1832938209016994</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.409800457285781</v>
+        <v>-3.431710447799954</v>
       </c>
       <c r="G124">
         <v>-0.195150891745135</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.400360920843927</v>
+        <v>-3.428746597481026</v>
       </c>
       <c r="G125">
         <v>-0.2103118052239505</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.404513794670285</v>
+        <v>-3.425782747162098</v>
       </c>
       <c r="G126">
         <v>-0.202001039117869</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.411233295238087</v>
+        <v>-3.42281889684317</v>
       </c>
       <c r="G127">
         <v>-0.2109863198894688</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.403794295784285</v>
+        <v>-3.419855046524242</v>
       </c>
       <c r="G128">
         <v>-0.1994352989735662</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.406471521886699</v>
+        <v>-3.416891196205313</v>
       </c>
       <c r="G129">
         <v>-0.206770985829253</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.409718504989445</v>
+        <v>-3.413927345886385</v>
       </c>
       <c r="G130">
         <v>-0.1925319788377484</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.406175838452756</v>
+        <v>-3.410963495567456</v>
       </c>
       <c r="G131">
         <v>-0.2128280266123457</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.401868433951067</v>
+        <v>-3.407999645248529</v>
       </c>
       <c r="G132">
         <v>-0.2048741340706164</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.402313950521346</v>
+        <v>-3.405035794929599</v>
       </c>
       <c r="G133">
         <v>-0.2059116001829804</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.398704056489283</v>
+        <v>-3.402071944610672</v>
       </c>
       <c r="G134">
         <v>-0.1956008445947288</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.395740206170353</v>
+        <v>-3.399108094291742</v>
       </c>
       <c r="G135">
         <v>-0.1961426523495824</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.391589639276924</v>
+        <v>-3.396144243972809</v>
       </c>
       <c r="G136">
         <v>-0.2124805047532679</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.391934744434944</v>
+        <v>-3.393180393653885</v>
       </c>
       <c r="G137">
         <v>-0.2250048927540771</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.387389328074932</v>
+        <v>-3.390216543334956</v>
       </c>
       <c r="G138">
         <v>-0.2060685199658177</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.380775717919624</v>
+        <v>-3.387252693016022</v>
       </c>
       <c r="G139">
         <v>-0.2070961524506263</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.380185300749684</v>
+        <v>-3.384288842697098</v>
       </c>
       <c r="G140">
         <v>-0.1903288924049467</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.375478300256014</v>
+        <v>-3.381324992378164</v>
       </c>
       <c r="G141">
         <v>-0.1916395910340254</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.372786292459781</v>
+        <v>-3.378361142059239</v>
       </c>
       <c r="G142">
         <v>-0.2040289226592951</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.369960325998049</v>
+        <v>-3.375397291740306</v>
       </c>
       <c r="G143">
         <v>-0.2080113487814117</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.366341771355</v>
+        <v>-3.372433441421379</v>
       </c>
       <c r="G144">
         <v>-0.1934347333097637</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.358632209545877</v>
+        <v>-3.369469591102448</v>
       </c>
       <c r="G145">
         <v>-0.2128725553457</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.361563893520869</v>
+        <v>-3.366505740783522</v>
       </c>
       <c r="G146">
         <v>-0.2042039242885454</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.352539202230859</v>
+        <v>-3.36354189046459</v>
       </c>
       <c r="G147">
         <v>-0.1964652508438627</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.356568995848408</v>
+        <v>-3.360178303141804</v>
       </c>
       <c r="G148">
         <v>-0.2129018313716404</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.349435304857955</v>
+        <v>-3.357214452822871</v>
       </c>
       <c r="G149">
         <v>-0.2001972088683412</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.347200368332899</v>
+        <v>-3.35405073400201</v>
       </c>
       <c r="G150">
         <v>-0.2051409953106813</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.339880058584773</v>
+        <v>-3.350887015181149</v>
       </c>
       <c r="G151">
         <v>-0.2096504457267252</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.33675033294065</v>
+        <v>-3.346631077435954</v>
       </c>
       <c r="G152">
         <v>-0.1910088029121633</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.336676139891904</v>
+        <v>-3.343488006891238</v>
       </c>
       <c r="G153">
         <v>-0.1925220136820609</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.321406049076504</v>
+        <v>-3.339232069146043</v>
       </c>
       <c r="G154">
         <v>-0.190735104624183</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.316880305808704</v>
+        <v>-3.336088998601328</v>
       </c>
       <c r="G155">
         <v>-0.1761777775286739</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.322778825424554</v>
+        <v>-3.331276627255894</v>
       </c>
       <c r="G156">
         <v>-0.208045534212816</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.314645690864023</v>
+        <v>-3.328133556711176</v>
       </c>
       <c r="G157">
         <v>-0.1948334209868339</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.313104440576317</v>
+        <v>-3.323877618965982</v>
       </c>
       <c r="G158">
         <v>-0.2010629551289269</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.306347101545105</v>
+        <v>-3.320178114821034</v>
       </c>
       <c r="G159">
         <v>-0.18241074694704</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.304516300865277</v>
+        <v>-3.316478610676072</v>
       </c>
       <c r="G160">
         <v>-0.1988866929083017</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.306490287325368</v>
+        <v>-3.313335540131357</v>
       </c>
       <c r="G161">
         <v>-0.1717242044008722</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.29644758200681</v>
+        <v>-3.30963603598641</v>
       </c>
       <c r="G162">
         <v>-0.1996037078591433</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.29467087009342</v>
+        <v>-3.304132280847576</v>
       </c>
       <c r="G163">
         <v>-0.1978706084260877</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.290748602533725</v>
+        <v>-3.300327405850852</v>
       </c>
       <c r="G164">
         <v>-0.1815423733260879</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.287506484663964</v>
+        <v>-3.296627901705896</v>
       </c>
       <c r="G165">
         <v>-0.1929807570506354</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.287656766658835</v>
+        <v>-3.291364467611983</v>
       </c>
       <c r="G166">
         <v>-0.1841453197836607</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.281640214756118</v>
+        <v>-3.287664963467027</v>
       </c>
       <c r="G167">
         <v>-0.1912118990692731</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.277646561136422</v>
+        <v>-3.283409025721835</v>
       </c>
       <c r="G168">
         <v>-0.1893863093135564</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.27131823469117</v>
+        <v>-3.278596654376392</v>
       </c>
       <c r="G169">
         <v>-0.1766153559757808</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.268381610376572</v>
+        <v>-3.273784283030962</v>
       </c>
       <c r="G170">
         <v>-0.1872201998290199</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.26471423045034</v>
+        <v>-3.268415478085271</v>
       </c>
       <c r="G171">
         <v>-0.1831755848983563</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.26033970599185</v>
+        <v>-3.265272407540563</v>
       </c>
       <c r="G172">
         <v>-0.1798956003941368</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.257732206469742</v>
+        <v>-3.261016469795369</v>
       </c>
       <c r="G173">
         <v>-0.1671789605299978</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.252663539039006</v>
+        <v>-3.256204098449926</v>
       </c>
       <c r="G174">
         <v>-0.1768161482882717</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.246841340769005</v>
+        <v>-3.251391727104498</v>
       </c>
       <c r="G175">
         <v>-0.1719854603737707</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.240498012221674</v>
+        <v>-3.246579355759053</v>
       </c>
       <c r="G176">
         <v>-0.1622760083598945</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.238639203730098</v>
+        <v>-3.241766984413617</v>
       </c>
       <c r="G177">
         <v>-0.1590040710640661</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.233945633399446</v>
+        <v>-3.236954613068176</v>
       </c>
       <c r="G178">
         <v>-0.1627156619545089</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.228514240720844</v>
+        <v>-3.232142241722736</v>
       </c>
       <c r="G179">
         <v>-0.1600186664019895</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.22566128492349</v>
+        <v>-3.227192375306794</v>
       </c>
       <c r="G180">
         <v>-0.1501547988247237</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.218518235022612</v>
+        <v>-3.222242508890853</v>
       </c>
       <c r="G181">
         <v>-0.1512942342109882</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.213325109725868</v>
+        <v>-3.217292642474907</v>
       </c>
       <c r="G182">
         <v>-0.1498603032187746</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.205687662503184</v>
+        <v>-3.212342776058959</v>
       </c>
       <c r="G183">
         <v>-0.142375981678027</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.202385226923862</v>
+        <v>-3.207392909643017</v>
       </c>
       <c r="G184">
         <v>-0.1391775370763627</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.199481445564829</v>
+        <v>-3.202443043227068</v>
       </c>
       <c r="G185">
         <v>-0.145021753314465</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.192162189875077</v>
+        <v>-3.197493176811129</v>
       </c>
       <c r="G186">
         <v>-0.1366853501841727</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.189663497472694</v>
+        <v>-3.192543310395183</v>
       </c>
       <c r="G187">
         <v>-0.1356069720898425</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.183817000357086</v>
+        <v>-3.187593443979236</v>
       </c>
       <c r="G188">
         <v>-0.1303344868768902</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.181046806142994</v>
+        <v>-3.182643577563288</v>
       </c>
       <c r="G189">
         <v>-0.1282070298195056</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.172071580372882</v>
+        <v>-3.177693711147346</v>
       </c>
       <c r="G190">
         <v>-0.1252081032002661</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.171349775340013</v>
+        <v>-3.172743844731392</v>
       </c>
       <c r="G191">
         <v>-0.1293504851966054</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.163726909707608</v>
+        <v>-3.167606429765415</v>
       </c>
       <c r="G192">
         <v>-0.1202301214516269</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.159309926939629</v>
+        <v>-3.162469014799425</v>
       </c>
       <c r="G193">
         <v>-0.1206156860479736</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.153755741965827</v>
+        <v>-3.157331599833435</v>
       </c>
       <c r="G194">
         <v>-0.1153853839810868</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.149291393092954</v>
+        <v>-3.152194184867447</v>
       </c>
       <c r="G195">
         <v>-0.1101302207689309</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.143737208119149</v>
+        <v>-3.14603568133579</v>
       </c>
       <c r="G196">
         <v>-0.100420136490344</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.137230682114934</v>
+        <v>-3.139877177804137</v>
       </c>
       <c r="G197">
         <v>-0.1031254595028511</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.1326975857068</v>
+        <v>-3.133718674272479</v>
       </c>
       <c r="G198">
         <v>-0.09587723418989774</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.125074148974139</v>
+        <v>-3.127560170740821</v>
       </c>
       <c r="G199">
         <v>-0.09276007027185718</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.120797348651303</v>
+        <v>-3.121401667209162</v>
       </c>
       <c r="G200">
         <v>-0.09308719220249245</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.446599688582046</v>
+        <v>-3.461207108707956</v>
       </c>
       <c r="G221">
         <v>-0.07509380158038681</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.482695876079547</v>
+        <v>-3.506691106295928</v>
       </c>
       <c r="G222">
         <v>-0.1261221279392388</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.499145794122106</v>
+        <v>-3.529163694261654</v>
       </c>
       <c r="G223">
         <v>-0.161568410240108</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.490665954021334</v>
+        <v>-3.517555355883666</v>
       </c>
       <c r="G224">
         <v>-0.1789753911880618</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.455164415092525</v>
+        <v>-3.477025086398293</v>
       </c>
       <c r="G225">
         <v>-0.1880534168807109</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.415149125396185</v>
+        <v>-3.426691293093349</v>
       </c>
       <c r="G226">
         <v>-0.1720349032346495</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.356880880785769</v>
+        <v>-3.368969590475081</v>
       </c>
       <c r="G227">
         <v>-0.1598549218794196</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.285685244144826</v>
+        <v>-3.297088633265804</v>
       </c>
       <c r="G228">
         <v>-0.124939227921579</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.202410855926575</v>
+        <v>-3.203802850415793</v>
       </c>
       <c r="G229">
         <v>-0.06960012234161345</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.510389703457965</v>
+        <v>-3.5323045130068</v>
       </c>
       <c r="G232">
         <v>-0.06982295530925553</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.53448623086457</v>
+        <v>-3.573497880489417</v>
       </c>
       <c r="G233">
         <v>-0.1193455610788772</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.541688291499266</v>
+        <v>-3.589357963051742</v>
       </c>
       <c r="G234">
         <v>-0.1489198660817626</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.533899425271227</v>
+        <v>-3.577722497923196</v>
       </c>
       <c r="G235">
         <v>-0.1791353870939694</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.507357839169871</v>
+        <v>-3.538882310523382</v>
       </c>
       <c r="G236">
         <v>-0.1801541104037991</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.468421502356524</v>
+        <v>-3.488927135764583</v>
       </c>
       <c r="G237">
         <v>-0.1690323907237965</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.412915588450467</v>
+        <v>-3.431056105953389</v>
       </c>
       <c r="G238">
         <v>-0.1490815369440799</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.348165192313415</v>
+        <v>-3.358769086911498</v>
       </c>
       <c r="G239">
         <v>-0.1155961492526403</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.268979006456623</v>
+        <v>-3.273706584183054</v>
       </c>
       <c r="G240">
         <v>-0.06507093381269408</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.556906990665547</v>
+        <v>-3.580618406265656</v>
       </c>
       <c r="G243">
         <v>-0.06124301153638934</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.578888152823385</v>
+        <v>-3.616066446720251</v>
       </c>
       <c r="G244">
         <v>-0.1096792666964426</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.582767038180289</v>
+        <v>-3.627869120687974</v>
       </c>
       <c r="G245">
         <v>-0.1348531855905084</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.579555667524959</v>
+        <v>-3.616458874764446</v>
       </c>
       <c r="G246">
         <v>-0.1678587376938014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.553681201554319</v>
+        <v>-3.581735770898554</v>
       </c>
       <c r="G247">
         <v>-0.1721668060413666</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.509700042331058</v>
+        <v>-3.533713140479426</v>
       </c>
       <c r="G248">
         <v>-0.1555474591718482</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.460444443874107</v>
+        <v>-3.475903974793138</v>
       </c>
       <c r="G249">
         <v>-0.1385208944505665</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.394769392291959</v>
+        <v>-3.40414720784152</v>
       </c>
       <c r="G250">
         <v>-0.1074523531755635</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.316865488774956</v>
+        <v>-3.32121964520109</v>
       </c>
       <c r="G251">
         <v>-0.06245156705394911</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.591296515309623</v>
+        <v>-3.616609230454749</v>
       </c>
       <c r="G254">
         <v>-0.06167206799187186</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.606747694562807</v>
+        <v>-3.647465579688984</v>
       </c>
       <c r="G255">
         <v>-0.1054580256615738</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.60744372518993</v>
+        <v>-3.656502683308511</v>
       </c>
       <c r="G256">
         <v>-0.1342450901945598</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.602552722863558</v>
+        <v>-3.645084285560623</v>
       </c>
       <c r="G257">
         <v>-0.1519753665104568</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.582369982873531</v>
+        <v>-3.611633442264343</v>
       </c>
       <c r="G258">
         <v>-0.1614537026762639</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.540916981493131</v>
+        <v>-3.56408999206905</v>
       </c>
       <c r="G259">
         <v>-0.1545977040987547</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.492074633170165</v>
+        <v>-3.505571745405361</v>
       </c>
       <c r="G260">
         <v>-0.1336105878877607</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.425996244567071</v>
+        <v>-3.435101649417259</v>
       </c>
       <c r="G261">
         <v>-0.1008852767335773</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.351153773216031</v>
+        <v>-3.355786802784425</v>
       </c>
       <c r="G262">
         <v>-0.0580773232313993</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.617921272991452</v>
+        <v>-3.643598809865607</v>
       </c>
       <c r="G265">
         <v>-0.05468212199645883</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.633501269976806</v>
+        <v>-3.669976645563477</v>
       </c>
       <c r="G266">
         <v>-0.09530727137649508</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.639788035336527</v>
+        <v>-3.677862313619784</v>
       </c>
       <c r="G267">
         <v>-0.127217422171348</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.623296489194236</v>
+        <v>-3.665570762825928</v>
       </c>
       <c r="G268">
         <v>-0.1454488984933913</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.60029083795406</v>
+        <v>-3.632937809545806</v>
       </c>
       <c r="G269">
         <v>-0.1506114587777778</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.563419951171133</v>
+        <v>-3.587209645407857</v>
       </c>
       <c r="G270">
         <v>-0.1410768474947803</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.515889388795304</v>
+        <v>-3.529308718959436</v>
       </c>
       <c r="G271">
         <v>-0.1266079912322207</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.45109696641837</v>
+        <v>-3.460561788582132</v>
       </c>
       <c r="G272">
         <v>-0.09570124415755543</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.376184484292193</v>
+        <v>-3.382416191610124</v>
       </c>
       <c r="G273">
         <v>-0.05576732713415117</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.637172657044785</v>
+        <v>-3.664938907745162</v>
       </c>
       <c r="G276">
         <v>-0.05365043309034645</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.650374385838879</v>
+        <v>-3.687648605597604</v>
       </c>
       <c r="G277">
         <v>-0.09602242256225102</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.652348432455477</v>
+        <v>-3.693872913185792</v>
       </c>
       <c r="G278">
         <v>-0.1222431016499339</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.643387503751531</v>
+        <v>-3.680999309172574</v>
       </c>
       <c r="G279">
         <v>-0.1412173780585211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.617340682000159</v>
+        <v>-3.650640689338019</v>
       </c>
       <c r="G280">
         <v>-0.1388304430165597</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.583088276179232</v>
+        <v>-3.60502872983065</v>
       </c>
       <c r="G281">
         <v>-0.1376956702397052</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.533520483361868</v>
+        <v>-3.54736563876565</v>
       </c>
       <c r="G282">
         <v>-0.121908891865977</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.46890340302149</v>
+        <v>-3.478958617552841</v>
       </c>
       <c r="G283">
         <v>-0.09347997787367435</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.398215248908043</v>
+        <v>-3.402364125768886</v>
       </c>
       <c r="G284">
         <v>-0.05279846889882123</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.654785913240938</v>
+        <v>-3.682059869131253</v>
       </c>
       <c r="G287">
         <v>-0.05294856114196955</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.668222979649718</v>
+        <v>-3.701678296214928</v>
       </c>
       <c r="G288">
         <v>-0.0894830131692812</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.665797031681083</v>
+        <v>-3.707255570970404</v>
       </c>
       <c r="G289">
         <v>-0.114795369001425</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.655728779643943</v>
+        <v>-3.694206569826652</v>
       </c>
       <c r="G290">
         <v>-0.1294051182733678</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.634478944718181</v>
+        <v>-3.663434639601248</v>
       </c>
       <c r="G291">
         <v>-0.1353825723460902</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.597453075224718</v>
+        <v>-3.61893531819727</v>
       </c>
       <c r="G292">
         <v>-0.1309976005446769</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.54583965325128</v>
+        <v>-3.562119245616629</v>
       </c>
       <c r="G293">
         <v>-0.1151117989877499</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.483130666557463</v>
+        <v>-3.494779458917602</v>
       </c>
       <c r="G294">
         <v>-0.08837812589510396</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.414692843634314</v>
+        <v>-3.418848650180969</v>
       </c>
       <c r="G295">
         <v>-0.0512164976008988</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.669121142287695</v>
+        <v>-3.695255121777914</v>
       </c>
       <c r="G298">
         <v>-0.05132568274001459</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.679746959363762</v>
+        <v>-3.713238961263317</v>
       </c>
       <c r="G299">
         <v>-0.08717638242194026</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.68090435038369</v>
+        <v>-3.717669777319414</v>
       </c>
       <c r="G300">
         <v>-0.1141442385035143</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.66759264891506</v>
+        <v>-3.70440445543428</v>
       </c>
       <c r="G301">
         <v>-0.1263056547068122</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.645132417712111</v>
+        <v>-3.674356844308031</v>
       </c>
       <c r="G302">
         <v>-0.1311673943107259</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.608132751357644</v>
+        <v>-3.630510928487911</v>
       </c>
       <c r="G303">
         <v>-0.1255590732612892</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.561438825290831</v>
+        <v>-3.574102432301124</v>
       </c>
       <c r="G304">
         <v>-0.1101607798482054</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.495612163288782</v>
+        <v>-3.507217880363884</v>
       </c>
       <c r="G305">
         <v>-0.08578092929130066</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.42848707780425</v>
+        <v>-3.431896892119493</v>
       </c>
       <c r="G306">
         <v>-0.04999428366580361</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.681381613569057</v>
+        <v>-3.706224965551085</v>
       </c>
       <c r="G309">
         <v>-0.04919202166132131</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.692615225996629</v>
+        <v>-3.722906543413388</v>
       </c>
       <c r="G310">
         <v>-0.08520807599474001</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.693552477654144</v>
+        <v>-3.726494706524719</v>
       </c>
       <c r="G311">
         <v>-0.1086488991196881</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.678942210619468</v>
+        <v>-3.712624520118018</v>
       </c>
       <c r="G312">
         <v>-0.1235606451479523</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.656317380259672</v>
+        <v>-3.683237911724934</v>
       </c>
       <c r="G313">
         <v>-0.126883102837124</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.619170707568882</v>
+        <v>-3.639638396655265</v>
       </c>
       <c r="G314">
         <v>-0.1205150969015198</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.570704506472553</v>
+        <v>-3.584234597131204</v>
       </c>
       <c r="G315">
         <v>-0.1081533858239563</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.506182427555378</v>
+        <v>-3.517625324279435</v>
       </c>
       <c r="G316">
         <v>-0.0819950374221815</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.438758716508719</v>
+        <v>-3.442722678293241</v>
       </c>
       <c r="G317">
         <v>-0.04788564637610015</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.69144438558264</v>
+        <v>-3.715569713691864</v>
       </c>
       <c r="G320">
         <v>-0.0492269726180341</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.701544000103239</v>
+        <v>-3.73097914177063</v>
       </c>
       <c r="G321">
         <v>-0.08179461588496517</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.700392040107674</v>
+        <v>-3.733743013136986</v>
       </c>
       <c r="G322">
         <v>-0.1065917024933816</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.688206919179691</v>
+        <v>-3.719429305942221</v>
       </c>
       <c r="G323">
         <v>-0.1197817536647063</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.665385506537641</v>
+        <v>-3.690312387865985</v>
       </c>
       <c r="G324">
         <v>-0.1231361232139649</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.62872646706243</v>
+        <v>-3.647717803975925</v>
       </c>
       <c r="G325">
         <v>-0.1180597063197308</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.579994108606614</v>
+        <v>-3.592846737358124</v>
       </c>
       <c r="G326">
         <v>-0.1038749968112782</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.519383629999189</v>
+        <v>-3.526715564019911</v>
       </c>
       <c r="G327">
         <v>-0.08155775458133574</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.448540952108954</v>
+        <v>-3.451730156812936</v>
       </c>
       <c r="G328">
         <v>-0.04726308941126733</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-3.699693551924597</v>
+        <v>-3.722948024723715</v>
       </c>
       <c r="G331">
         <v>-0.04759938586814583</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.71079944260082</v>
+        <v>-3.737705520484369</v>
       </c>
       <c r="G332">
         <v>-0.08064142588016088</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.709188643802844</v>
+        <v>-3.739664330372922</v>
       </c>
       <c r="G333">
         <v>-0.1033034623175126</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.698005762445521</v>
+        <v>-3.725671800385587</v>
       </c>
       <c r="G334">
         <v>-0.1160291001349534</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.67173124282821</v>
+        <v>-3.696448052421614</v>
       </c>
       <c r="G335">
         <v>-0.1212537191166847</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.635616673362573</v>
+        <v>-3.654253228261899</v>
       </c>
       <c r="G336">
         <v>-0.1171463958785943</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.587425811780232</v>
+        <v>-3.599639316910667</v>
       </c>
       <c r="G337">
         <v>-0.1019666872218505</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.52720602714998</v>
+        <v>-3.534343307511574</v>
       </c>
       <c r="G338">
         <v>-0.07866018869931046</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.456049398502838</v>
+        <v>-3.459700900238284</v>
       </c>
       <c r="G339">
         <v>-0.04593356749053251</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.382776638327556</v>
+        <v>-3.382812276593418</v>
       </c>
       <c r="G93">
         <v>-0.1112624432803253</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.320178114821034</v>
+        <v>-3.320734548421277</v>
       </c>
       <c r="G159">
         <v>-0.18241074694704</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.283409025721835</v>
+        <v>-3.283965459322075</v>
       </c>
       <c r="G168">
         <v>-0.1893863093135564</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.538882310523382</v>
+        <v>-3.538959231492283</v>
       </c>
       <c r="G236">
         <v>-0.1801541104037991</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.431056105953389</v>
+        <v>-3.431149369328518</v>
       </c>
       <c r="G238">
         <v>-0.1490815369440799</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.627869120687974</v>
+        <v>-3.627947705014449</v>
       </c>
       <c r="G245">
         <v>-0.1348531855905084</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.616458874764446</v>
+        <v>-3.616469071599177</v>
       </c>
       <c r="G246">
         <v>-0.1678587376938014</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.533713140479426</v>
+        <v>-3.533791724805894</v>
       </c>
       <c r="G248">
         <v>-0.1555474591718482</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.40414720784152</v>
+        <v>-3.40456407620001</v>
       </c>
       <c r="G250">
         <v>-0.1074523531755635</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.647465579688984</v>
+        <v>-3.647534870154378</v>
       </c>
       <c r="G255">
         <v>-0.1054580256615738</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.656502683308511</v>
+        <v>-3.656656464227238</v>
       </c>
       <c r="G256">
         <v>-0.1342450901945598</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.645084285560623</v>
+        <v>-3.645119424739344</v>
       </c>
       <c r="G257">
         <v>-0.1519753665104568</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.611633442264343</v>
+        <v>-3.61165352839035</v>
       </c>
       <c r="G258">
         <v>-0.1614537026762639</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.505571745405361</v>
+        <v>-3.505627756188702</v>
       </c>
       <c r="G260">
         <v>-0.1336105878877607</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.355786802784425</v>
+        <v>-3.355834078085688</v>
       </c>
       <c r="G262">
         <v>-0.0580773232313993</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.669976645563477</v>
+        <v>-3.670140404252524</v>
       </c>
       <c r="G266">
         <v>-0.09530727137649508</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.677862313619784</v>
+        <v>-3.677957023366508</v>
       </c>
       <c r="G267">
         <v>-0.127217422171348</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.665570762825928</v>
+        <v>-3.665746656062835</v>
       </c>
       <c r="G268">
         <v>-0.1454488984933913</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.632937809545806</v>
+        <v>-3.633081925822612</v>
       </c>
       <c r="G269">
         <v>-0.1506114587777778</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.587209645407857</v>
+        <v>-3.587321628554546</v>
       </c>
       <c r="G270">
         <v>-0.1410768474947803</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.529308718959436</v>
+        <v>-3.529534400340049</v>
       </c>
       <c r="G271">
         <v>-0.1266079912322207</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.382416191610124</v>
+        <v>-3.38246950942998</v>
       </c>
       <c r="G273">
         <v>-0.05576732713415117</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.664938907745162</v>
+        <v>-3.665020231019905</v>
       </c>
       <c r="G276">
         <v>-0.05365043309034645</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.687648605597604</v>
+        <v>-3.687688775319155</v>
       </c>
       <c r="G277">
         <v>-0.09602242256225102</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.693872913185792</v>
+        <v>-3.694166869922764</v>
       </c>
       <c r="G278">
         <v>-0.1222431016499339</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.680999309172574</v>
+        <v>-3.681288704980687</v>
       </c>
       <c r="G279">
         <v>-0.1412173780585211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.650640689338019</v>
+        <v>-3.65084364825822</v>
       </c>
       <c r="G280">
         <v>-0.1388304430165597</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.60502872983065</v>
+        <v>-3.605140729233107</v>
       </c>
       <c r="G281">
         <v>-0.1376956702397052</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.54736563876565</v>
+        <v>-3.547473019805777</v>
       </c>
       <c r="G282">
         <v>-0.121908891865977</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.478958617552841</v>
+        <v>-3.479020683688602</v>
       </c>
       <c r="G283">
         <v>-0.09347997787367435</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.402364125768886</v>
+        <v>-3.402537866216117</v>
       </c>
       <c r="G284">
         <v>-0.05279846889882123</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.682059869131253</v>
+        <v>-3.682230485260719</v>
       </c>
       <c r="G287">
         <v>-0.05294856114196955</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.701678296214928</v>
+        <v>-3.701736656264702</v>
       </c>
       <c r="G288">
         <v>-0.0894830131692812</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.707255570970404</v>
+        <v>-3.707586535064539</v>
       </c>
       <c r="G289">
         <v>-0.114795369001425</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.694206569826652</v>
+        <v>-3.694462279274528</v>
       </c>
       <c r="G290">
         <v>-0.1294051182733678</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.663434639601248</v>
+        <v>-3.663760608312689</v>
       </c>
       <c r="G291">
         <v>-0.1353825723460902</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.61893531819727</v>
+        <v>-3.619202766133292</v>
       </c>
       <c r="G292">
         <v>-0.1309976005446769</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.562119245616629</v>
+        <v>-3.562326279092899</v>
       </c>
       <c r="G293">
         <v>-0.1151117989877499</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.494779458917602</v>
+        <v>-3.494862544966888</v>
       </c>
       <c r="G294">
         <v>-0.08837812589510396</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.418848650180969</v>
+        <v>-3.418989677212233</v>
       </c>
       <c r="G295">
         <v>-0.0512164976008988</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.695255121777914</v>
+        <v>-3.69542382257228</v>
       </c>
       <c r="G298">
         <v>-0.05132568274001459</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.713238961263317</v>
+        <v>-3.713386618875075</v>
       </c>
       <c r="G299">
         <v>-0.08717638242194026</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.717669777319414</v>
+        <v>-3.718085805480269</v>
       </c>
       <c r="G300">
         <v>-0.1141442385035143</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.70440445543428</v>
+        <v>-3.704716895119937</v>
       </c>
       <c r="G301">
         <v>-0.1263056547068122</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.674356844308031</v>
+        <v>-3.674569398582976</v>
       </c>
       <c r="G302">
         <v>-0.1311673943107259</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.630510928487911</v>
+        <v>-3.63083967824045</v>
       </c>
       <c r="G303">
         <v>-0.1255590732612892</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.574102432301124</v>
+        <v>-3.574392176021001</v>
       </c>
       <c r="G304">
         <v>-0.1101607798482054</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.507217880363884</v>
+        <v>-3.507310202929456</v>
       </c>
       <c r="G305">
         <v>-0.08578092929130066</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.431896892119493</v>
+        <v>-3.431934601406992</v>
       </c>
       <c r="G306">
         <v>-0.04999428366580361</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.706224965551085</v>
+        <v>-3.706551902205092</v>
       </c>
       <c r="G309">
         <v>-0.04919202166132131</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.722906543413388</v>
+        <v>-3.723081631938412</v>
       </c>
       <c r="G310">
         <v>-0.08520807599474001</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.726494706524719</v>
+        <v>-3.726837788777291</v>
       </c>
       <c r="G311">
         <v>-0.1086488991196881</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.712624520118018</v>
+        <v>-3.71322600226489</v>
       </c>
       <c r="G312">
         <v>-0.1235606451479523</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.683237911724934</v>
+        <v>-3.683667814540763</v>
       </c>
       <c r="G313">
         <v>-0.126883102837124</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.639638396655265</v>
+        <v>-3.639880472994556</v>
       </c>
       <c r="G314">
         <v>-0.1205150969015198</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.584234597131204</v>
+        <v>-3.584486331725593</v>
       </c>
       <c r="G315">
         <v>-0.1081533858239563</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.517625324279435</v>
+        <v>-3.51790911825815</v>
       </c>
       <c r="G316">
         <v>-0.0819950374221815</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.442722678293241</v>
+        <v>-3.442875257438991</v>
       </c>
       <c r="G317">
         <v>-0.04788564637610015</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.715569713691864</v>
+        <v>-3.715849928804239</v>
       </c>
       <c r="G320">
         <v>-0.0492269726180341</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.73097914177063</v>
+        <v>-3.731191933180725</v>
       </c>
       <c r="G321">
         <v>-0.08179461588496517</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.733743013136986</v>
+        <v>-3.734257145718212</v>
       </c>
       <c r="G322">
         <v>-0.1065917024933816</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.719429305942221</v>
+        <v>-3.719987599421106</v>
       </c>
       <c r="G323">
         <v>-0.1197817536647063</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.690312387865985</v>
+        <v>-3.690966914043815</v>
       </c>
       <c r="G324">
         <v>-0.1231361232139649</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.647717803975925</v>
+        <v>-3.648201074764431</v>
       </c>
       <c r="G325">
         <v>-0.1180597063197308</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.592846737358124</v>
+        <v>-3.593207627329688</v>
       </c>
       <c r="G326">
         <v>-0.1038749968112782</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.526715564019911</v>
+        <v>-3.526850895459667</v>
       </c>
       <c r="G327">
         <v>-0.08155775458133574</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.451730156812936</v>
+        <v>-3.451777423505944</v>
       </c>
       <c r="G328">
         <v>-0.04726308941126733</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-3.722948024723715</v>
+        <v>-3.723392394109941</v>
       </c>
       <c r="G331">
         <v>-0.04759938586814583</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.737705520484369</v>
+        <v>-3.738082307022216</v>
       </c>
       <c r="G332">
         <v>-0.08064142588016088</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.739664330372922</v>
+        <v>-3.740242212157346</v>
       </c>
       <c r="G333">
         <v>-0.1033034623175126</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.725671800385587</v>
+        <v>-3.726225613628073</v>
       </c>
       <c r="G334">
         <v>-0.1160291001349534</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.696448052421614</v>
+        <v>-3.697022763177224</v>
       </c>
       <c r="G335">
         <v>-0.1212537191166847</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.654253228261899</v>
+        <v>-3.65476929604927</v>
       </c>
       <c r="G336">
         <v>-0.1171463958785943</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.599639316910667</v>
+        <v>-3.60002270708148</v>
       </c>
       <c r="G337">
         <v>-0.1019666872218505</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.534343307511574</v>
+        <v>-3.534564236902922</v>
       </c>
       <c r="G338">
         <v>-0.07866018869931046</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.459700900238284</v>
+        <v>-3.45979813751354</v>
       </c>
       <c r="G339">
         <v>-0.04593356749053251</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AuCu_data.xlsx
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.331276627255894</v>
+        <v>-3.331833060856136</v>
       </c>
       <c r="G156">
         <v>-0.208045534212816</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.30963603598641</v>
+        <v>-3.310192469586651</v>
       </c>
       <c r="G162">
         <v>-0.1996037078591433</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.283965459322075</v>
+        <v>-3.284521892922319</v>
       </c>
       <c r="G168">
         <v>-0.1893863093135564</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.268415478085271</v>
+        <v>-3.269528345285757</v>
       </c>
       <c r="G171">
         <v>-0.1831755848983563</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.368969590475081</v>
+        <v>-3.369439061888242</v>
       </c>
       <c r="G227">
         <v>-0.1598549218794196</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.577722497923196</v>
+        <v>-3.577776052829847</v>
       </c>
       <c r="G235">
         <v>-0.1791353870939694</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.616469071599177</v>
+        <v>-3.616581132178058</v>
       </c>
       <c r="G246">
         <v>-0.1678587376938014</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.533791724805894</v>
+        <v>-3.533914705577049</v>
       </c>
       <c r="G248">
         <v>-0.1555474591718482</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.616609230454749</v>
+        <v>-3.616660490760992</v>
       </c>
       <c r="G254">
         <v>-0.06167206799187186</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.647534870154378</v>
+        <v>-3.647604160619776</v>
       </c>
       <c r="G255">
         <v>-0.1054580256615738</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.656656464227238</v>
+        <v>-3.656884509240019</v>
       </c>
       <c r="G256">
         <v>-0.1342450901945598</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.645119424739344</v>
+        <v>-3.645235590674269</v>
       </c>
       <c r="G257">
         <v>-0.1519753665104568</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.61165352839035</v>
+        <v>-3.611726414590278</v>
       </c>
       <c r="G258">
         <v>-0.1614537026762639</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.56408999206905</v>
+        <v>-3.564200417818622</v>
       </c>
       <c r="G259">
         <v>-0.1545977040987547</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.505627756188702</v>
+        <v>-3.505856128613232</v>
       </c>
       <c r="G260">
         <v>-0.1336105878877607</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.355834078085688</v>
+        <v>-3.355857715736319</v>
       </c>
       <c r="G262">
         <v>-0.0580773232313993</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.670140404252524</v>
+        <v>-3.670223330524696</v>
       </c>
       <c r="G266">
         <v>-0.09530727137649508</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.677957023366508</v>
+        <v>-3.678117507715997</v>
       </c>
       <c r="G267">
         <v>-0.127217422171348</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.665746656062835</v>
+        <v>-3.665863440001829</v>
       </c>
       <c r="G268">
         <v>-0.1454488984933913</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.633081925822612</v>
+        <v>-3.633242034713758</v>
       </c>
       <c r="G269">
         <v>-0.1506114587777778</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.587321628554546</v>
+        <v>-3.587473990278658</v>
       </c>
       <c r="G270">
         <v>-0.1410768474947803</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.529534400340049</v>
+        <v>-3.529643453293426</v>
       </c>
       <c r="G271">
         <v>-0.1266079912322207</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.38246950942998</v>
+        <v>-3.382524815506412</v>
       </c>
       <c r="G273">
         <v>-0.05576732713415117</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.665020231019905</v>
+        <v>-3.665097902272983</v>
       </c>
       <c r="G276">
         <v>-0.05365043309034645</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.687688775319155</v>
+        <v>-3.687767517651891</v>
       </c>
       <c r="G277">
         <v>-0.09602242256225102</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.694166869922764</v>
+        <v>-3.694507606395907</v>
       </c>
       <c r="G278">
         <v>-0.1222431016499339</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.681288704980687</v>
+        <v>-3.68153096034325</v>
       </c>
       <c r="G279">
         <v>-0.1412173780585211</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.65084364825822</v>
+        <v>-3.651072435922932</v>
       </c>
       <c r="G280">
         <v>-0.1388304430165597</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.605140729233107</v>
+        <v>-3.605348917231646</v>
       </c>
       <c r="G281">
         <v>-0.1376956702397052</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.547473019805777</v>
+        <v>-3.547688626365323</v>
       </c>
       <c r="G282">
         <v>-0.121908891865977</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.402537866216117</v>
+        <v>-3.4026030196773</v>
       </c>
       <c r="G284">
         <v>-0.05279846889882123</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.682230485260719</v>
+        <v>-3.682385070472292</v>
       </c>
       <c r="G287">
         <v>-0.05294856114196955</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.701736656264702</v>
+        <v>-3.701837969629257</v>
       </c>
       <c r="G288">
         <v>-0.0894830131692812</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.707586535064539</v>
+        <v>-3.707994194119372</v>
       </c>
       <c r="G289">
         <v>-0.114795369001425</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.694462279274528</v>
+        <v>-3.694824617011874</v>
       </c>
       <c r="G290">
         <v>-0.1294051182733678</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.663760608312689</v>
+        <v>-3.664013860323645</v>
       </c>
       <c r="G291">
         <v>-0.1353825723460902</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.619202766133292</v>
+        <v>-3.619534205623073</v>
       </c>
       <c r="G292">
         <v>-0.1309976005446769</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.562326279092899</v>
+        <v>-3.562557786559749</v>
       </c>
       <c r="G293">
         <v>-0.1151117989877499</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.494862544966888</v>
+        <v>-3.49498291052426</v>
       </c>
       <c r="G294">
         <v>-0.08837812589510396</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.418989677212233</v>
+        <v>-3.419179022308894</v>
       </c>
       <c r="G295">
         <v>-0.0512164976008988</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.69542382257228</v>
+        <v>-3.695649522566409</v>
       </c>
       <c r="G298">
         <v>-0.05132568274001459</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.713386618875075</v>
+        <v>-3.713423561677469</v>
       </c>
       <c r="G299">
         <v>-0.08717638242194026</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.718085805480269</v>
+        <v>-3.718461649620921</v>
       </c>
       <c r="G300">
         <v>-0.1141442385035143</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.704716895119937</v>
+        <v>-3.705148364137911</v>
       </c>
       <c r="G301">
         <v>-0.1263056547068122</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.674569398582976</v>
+        <v>-3.674999651508501</v>
       </c>
       <c r="G302">
         <v>-0.1311673943107259</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.63083967824045</v>
+        <v>-3.63121896568923</v>
       </c>
       <c r="G303">
         <v>-0.1255590732612892</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.574392176021001</v>
+        <v>-3.574666387577333</v>
       </c>
       <c r="G304">
         <v>-0.1101607798482054</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.507310202929456</v>
+        <v>-3.50745491050196</v>
       </c>
       <c r="G305">
         <v>-0.08578092929130066</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.431934601406992</v>
+        <v>-3.432070699157796</v>
       </c>
       <c r="G306">
         <v>-0.04999428366580361</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.706551902205092</v>
+        <v>-3.70681010697736</v>
       </c>
       <c r="G309">
         <v>-0.04919202166132131</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.723081631938412</v>
+        <v>-3.723147097577843</v>
       </c>
       <c r="G310">
         <v>-0.08520807599474001</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.726837788777291</v>
+        <v>-3.727243862024808</v>
       </c>
       <c r="G311">
         <v>-0.1086488991196881</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.71322600226489</v>
+        <v>-3.713650705544164</v>
       </c>
       <c r="G312">
         <v>-0.1235606451479523</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.683667814540763</v>
+        <v>-3.684229081209323</v>
       </c>
       <c r="G313">
         <v>-0.126883102837124</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.639880472994556</v>
+        <v>-3.640432515445628</v>
       </c>
       <c r="G314">
         <v>-0.1205150969015198</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.584486331725593</v>
+        <v>-3.584858593984902</v>
       </c>
       <c r="G315">
         <v>-0.1081533858239563</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.51790911825815</v>
+        <v>-3.518018838905133</v>
       </c>
       <c r="G316">
         <v>-0.0819950374221815</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.442875257438991</v>
+        <v>-3.44304063683451</v>
       </c>
       <c r="G317">
         <v>-0.04788564637610015</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-3.715849928804239</v>
+        <v>-3.716128243899282</v>
       </c>
       <c r="G320">
         <v>-0.0492269726180341</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-3.731191933180725</v>
+        <v>-3.731329049109597</v>
       </c>
       <c r="G321">
         <v>-0.08179461588496517</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-3.734257145718212</v>
+        <v>-3.734783585466669</v>
       </c>
       <c r="G322">
         <v>-0.1065917024933816</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.719987599421106</v>
+        <v>-3.720724165015485</v>
       </c>
       <c r="G323">
         <v>-0.1197817536647063</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.690966914043815</v>
+        <v>-3.691689074771108</v>
       </c>
       <c r="G324">
         <v>-0.1231361232139649</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.648201074764431</v>
+        <v>-3.648640749261168</v>
       </c>
       <c r="G325">
         <v>-0.1180597063197308</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.593207627329688</v>
+        <v>-3.593658614734025</v>
       </c>
       <c r="G326">
         <v>-0.1038749968112782</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.526850895459667</v>
+        <v>-3.527094544669</v>
       </c>
       <c r="G327">
         <v>-0.08155775458133574</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.451777423505944</v>
+        <v>-3.45190182712409</v>
       </c>
       <c r="G328">
         <v>-0.04726308941126733</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-3.723392394109941</v>
+        <v>-3.723798197261768</v>
       </c>
       <c r="G331">
         <v>-0.04759938586814583</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-3.738082307022216</v>
+        <v>-3.738292698105536</v>
       </c>
       <c r="G332">
         <v>-0.08064142588016088</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-3.740242212157346</v>
+        <v>-3.741111510343544</v>
       </c>
       <c r="G333">
         <v>-0.1033034623175126</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.726225613628073</v>
+        <v>-3.726887671731424</v>
       </c>
       <c r="G334">
         <v>-0.1160291001349534</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.697022763177224</v>
+        <v>-3.697787346636074</v>
       </c>
       <c r="G335">
         <v>-0.1212537191166847</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.65476929604927</v>
+        <v>-3.655301018968004</v>
       </c>
       <c r="G336">
         <v>-0.1171463958785943</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.60002270708148</v>
+        <v>-3.600492285842825</v>
       </c>
       <c r="G337">
         <v>-0.1019666872218505</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.534564236902922</v>
+        <v>-3.534844369345088</v>
       </c>
       <c r="G338">
         <v>-0.07866018869931046</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.45979813751354</v>
+        <v>-3.459876663696112</v>
       </c>
       <c r="G339">
         <v>-0.04593356749053251</v>
